--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7590"/>
   </bookViews>
   <sheets>
-    <sheet name="II-B1" sheetId="3" r:id="rId1"/>
-    <sheet name="II-B2-FE" sheetId="1" r:id="rId2"/>
-    <sheet name="EPS comparison" sheetId="2" r:id="rId3"/>
+    <sheet name="FE" sheetId="4" r:id="rId1"/>
+    <sheet name="EPS comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="II-B2-FE" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -78,21 +78,12 @@
     <t>Não sei ainda se teria alguma influência do ângulo phi_0 na estimação de frequencia.</t>
   </si>
   <si>
-    <t>kas = 10 graus</t>
-  </si>
-  <si>
-    <t>PATV</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
     <t>FE_mean</t>
   </si>
   <si>
-    <t>FE_STD</t>
-  </si>
-  <si>
     <t>kas = -10</t>
   </si>
   <si>
@@ -136,21 +127,176 @@
   </si>
   <si>
     <t>kas</t>
+  </si>
+  <si>
+    <t>Table V</t>
+  </si>
+  <si>
+    <t>Table VI</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>km = 1.5e7;</t>
+  </si>
+  <si>
+    <t>kf = 1.1e7;</t>
+  </si>
+  <si>
+    <t>Table IV</t>
+  </si>
+  <si>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>mean [mHz/Hz]</t>
+  </si>
+  <si>
+    <t>std [mHz/Hz]</t>
+  </si>
+  <si>
+    <t>Case1</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>phi0</t>
+  </si>
+  <si>
+    <t>lambda_theta_i = 1.;</t>
+  </si>
+  <si>
+    <t>lambda_a_i = 0.5;</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>muito alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 1 </t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Talvez o kf e km pode ser otimizado</t>
+  </si>
+  <si>
+    <t>Ou seja melhor usar um valor absoluto</t>
+  </si>
+  <si>
+    <t>false pos</t>
+  </si>
+  <si>
+    <t>false neg</t>
+  </si>
+  <si>
+    <t>kf km relativos</t>
+  </si>
+  <si>
+    <t>kf km absolutos</t>
+  </si>
+  <si>
+    <t>fase pos</t>
+  </si>
+  <si>
+    <t>Falso positivo muito alto</t>
+  </si>
+  <si>
+    <t>razões possíveis:</t>
+  </si>
+  <si>
+    <t>identificando pelo detector de fase quando não devia?</t>
+  </si>
+  <si>
+    <t>não parece</t>
+  </si>
+  <si>
+    <t>modificação no cálculo do gradiente vs diff vs sinal u??</t>
+  </si>
+  <si>
+    <t>erro de 1?</t>
+  </si>
+  <si>
+    <t>diferença nenhuma</t>
+  </si>
+  <si>
+    <t>Pode ser do próprio PATV, que distorce o sinal</t>
+  </si>
+  <si>
+    <t>dmax min</t>
+  </si>
+  <si>
+    <t>median min</t>
+  </si>
+  <si>
+    <t>median max</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>fase</t>
+  </si>
+  <si>
+    <t>th_a_i = 2.8e-3; th_fi = 4.8e-3;</t>
+  </si>
+  <si>
+    <t>limiares fixos</t>
+  </si>
+  <si>
+    <t>Os resultados são mais fáceis de otimizar com limiares fixos.</t>
+  </si>
+  <si>
+    <t>Como os sinais de detecção não estão corrompidos com ruído, a hipótese de gaussianidade fica muito fraca.</t>
+  </si>
+  <si>
+    <t>Isso faz com que a mediana do sinal fique muito variável, consequentemente o limiar determinado em função da mediana fica variável.</t>
+  </si>
+  <si>
+    <t>Os resultados ficam instáveis, oscilando entre falsos positivos e falsos negativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 2 </t>
+  </si>
+  <si>
+    <t>O desempenho melhora. Provavelmente é possível otimizar com os valores de limiares.</t>
+  </si>
+  <si>
+    <t>Outra otimização possível é a relação entre as razões no detector híbrido.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -202,22 +348,25 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,11 +545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330191280"/>
-        <c:axId val="331597520"/>
+        <c:axId val="251781112"/>
+        <c:axId val="251781504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330191280"/>
+        <c:axId val="251781112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,12 +606,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331597520"/>
+        <c:crossAx val="251781504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331597520"/>
+        <c:axId val="251781504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +668,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330191280"/>
+        <c:crossAx val="251781112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -727,11 +876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330192456"/>
-        <c:axId val="328569672"/>
+        <c:axId val="251782288"/>
+        <c:axId val="251782680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330192456"/>
+        <c:axId val="251782288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,12 +937,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328569672"/>
+        <c:crossAx val="251782680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328569672"/>
+        <c:axId val="251782680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +999,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330192456"/>
+        <c:crossAx val="251782288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2363,17 +2512,1485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.6675147192722094E-6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.4840411021506395E-6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.4644335825479192E-6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.6525502333783302E-6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4">
+        <f>C9*1000</f>
+        <v>8.6675147192722089E-3</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" ref="J9:J10" si="0">D9*1000</f>
+        <v>8.4840411021506398E-3</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K10" si="1">E9*1000</f>
+        <v>8.46443358254792E-3</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" ref="L9:L10" si="2">F9*1000</f>
+        <v>4.6525502333783298E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.1250610612548203E-6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.31051588655984E-5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.1417158658526197E-5</v>
+      </c>
+      <c r="F10">
+        <v>1.3148393612150299E-4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="4">
+        <f>C10*1000</f>
+        <v>4.12506106125482E-3</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3105158865598399E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.1417158658526194E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.131483936121503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.3274392824296701E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.31627671255559E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.2887847598532999E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.25482371591755E-3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="13">
+        <f>C14*1000</f>
+        <v>1.3274392824296701</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" ref="J14:L15" si="3">D14*1000</f>
+        <v>1.3162767125555899</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2887847598533</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2548237159175499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.5110464310568807E-6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.64340316087002E-5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.4209716461973699E-5</v>
+      </c>
+      <c r="F15">
+        <v>2.6649080307221998E-4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="4">
+        <f>C15*1000</f>
+        <v>8.5110464310568807E-3</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6434031608700198E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4209716461973699E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26649080307221995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1.1817832356779501E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.1798809688730999E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.1730693809531899E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.1684859453060001E-3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="13">
+        <f>C19*1000</f>
+        <v>1.1817832356779501</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" ref="J19:J20" si="4">D19*1000</f>
+        <v>1.1798809688731</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" ref="K19:K20" si="5">E19*1000</f>
+        <v>1.1730693809531898</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" ref="L19:L20" si="6">F19*1000</f>
+        <v>1.1684859453060001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.1970074191314105E-6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.8832854333037099E-5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.0535506127008901E-5</v>
+      </c>
+      <c r="F20">
+        <v>2.9116843944998499E-4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="4">
+        <f>C20*1000</f>
+        <v>9.1970074191314102E-3</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8832854333037099E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0535506127008905E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="6"/>
+        <v>0.29116843944998499</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6">
+        <v>60</v>
+      </c>
+      <c r="X6">
+        <v>50</v>
+      </c>
+      <c r="Y6">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8">
+        <f>V7+15</f>
+        <v>15</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>42.9</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>42.9</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9">
+        <f>V8+15</f>
+        <v>30</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+15</f>
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>62.3</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>62.3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10">
+        <f>V9+15</f>
+        <v>45</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1.4</v>
+      </c>
+      <c r="Z10">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+15</f>
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>82.2</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="J11">
+        <v>81.8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>V10+15</f>
+        <v>60</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2.8</v>
+      </c>
+      <c r="Z11">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+15</f>
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>94.9</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="H12">
+        <v>63.7</v>
+      </c>
+      <c r="J12">
+        <v>31.2</v>
+      </c>
+      <c r="M12">
+        <v>1.37</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12">
+        <f>V11+15</f>
+        <v>75</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>8.4</v>
+      </c>
+      <c r="Z12">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+15</f>
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M13">
+        <v>2.83</v>
+      </c>
+      <c r="N13" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13">
+        <f>V12+15</f>
+        <v>90</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0.9</v>
+      </c>
+      <c r="Y13">
+        <v>25.8</v>
+      </c>
+      <c r="Z13">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+15</f>
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>42.1</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="H14">
+        <v>5.3</v>
+      </c>
+      <c r="J14">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M14">
+        <v>8.44</v>
+      </c>
+      <c r="N14" s="15">
+        <v>8.08</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+15</f>
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>37.9</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="H15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J15">
+        <v>20.3</v>
+      </c>
+      <c r="M15">
+        <v>23.31</v>
+      </c>
+      <c r="N15" s="15">
+        <v>23.67</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A19+15</f>
+        <v>15</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="P20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A20+15</f>
+        <v>30</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A21+15</f>
+        <v>45</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.0699999999999999E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A22+15</f>
+        <v>60</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.2400000000000001E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A23+15</f>
+        <v>75</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A24+15</f>
+        <v>90</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25">
+        <f>P21/2</f>
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S25">
+        <f>S21/2</f>
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="T25">
+        <f>S25/P25</f>
+        <v>1.7017543859649122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="1">
+        <f>P25/P22</f>
+        <v>266355140.1869159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="1">
+        <f>P25/P23</f>
+        <v>2298387.0967741935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28+15</f>
+        <v>15</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A29+15</f>
+        <v>30</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A30+15</f>
+        <v>45</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A31+15</f>
+        <v>60</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+15</f>
+        <v>75</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A33+15</f>
+        <v>90</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>A41+15</f>
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A42+15</f>
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>A43+15</f>
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A44+15</f>
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="14">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>A45+15</f>
+        <v>75</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E46" s="14">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>A46+15</f>
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D47">
+        <v>25.6</v>
+      </c>
+      <c r="E47" s="14">
+        <v>55.5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>6.7</v>
+      </c>
+      <c r="E52" s="14">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>A52+15</f>
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="14">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>A53+15</f>
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A54+15</f>
+        <v>45</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>A55+15</f>
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>A56+15</f>
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>A57+15</f>
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>A63+15</f>
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>A64+15</f>
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>A65+15</f>
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="14">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>A66+15</f>
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>A67+15</f>
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>A68+15</f>
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -2784,7 +4401,7 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
       <c r="J30" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2841,12 +4458,12 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38">
         <v>60</v>
@@ -2863,7 +4480,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B39" s="4">
         <v>-1.8985172077897101E-3</v>
@@ -2894,7 +4511,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B42" s="4">
         <v>-1.14411466143884E-3</v>
@@ -2909,7 +4526,7 @@
         <v>-1.13916299235699E-3</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2926,17 +4543,17 @@
         <v>4.9632987227239103E-4</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B45" s="4">
         <v>-5.2528405083098698E-4</v>
@@ -2951,7 +4568,7 @@
         <v>-5.3310761789805098E-4</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,16 +4585,16 @@
         <v>5.5323714320546597E-4</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2996,7 +4613,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3">
         <v>6.3790293082863702E-6</v>
@@ -3068,7 +4685,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" s="4">
         <v>5.6858121833954802E-4</v>
@@ -3140,7 +4757,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B54" s="4">
         <v>9.2585088157849595E-4</v>
@@ -3199,301 +4816,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:Q12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2.2125025294899799E-3</v>
-      </c>
-      <c r="J6">
-        <v>2.1934373724922002E-3</v>
-      </c>
-      <c r="K6">
-        <v>2.1474178095515E-3</v>
-      </c>
-      <c r="L6">
-        <v>2.0856218540179299E-3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1.41678800463697E-5</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4.4287369757191802E-5</v>
-      </c>
-      <c r="P6">
-        <v>1.3885142683918799E-4</v>
-      </c>
-      <c r="Q6">
-        <v>4.4423225817998198E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2.2125080234570399E-3</v>
-      </c>
-      <c r="J7">
-        <v>2.1934044651903801E-3</v>
-      </c>
-      <c r="K7">
-        <v>2.14685310520821E-3</v>
-      </c>
-      <c r="L7">
-        <v>2.0904798686203598E-3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.4015834874032001E-5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4.4013014169035201E-5</v>
-      </c>
-      <c r="P7">
-        <v>1.3801978129326101E-4</v>
-      </c>
-      <c r="Q7">
-        <v>4.4499719130213498E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>2.2126785776689401E-3</v>
-      </c>
-      <c r="J8">
-        <v>2.1938362810644402E-3</v>
-      </c>
-      <c r="K8">
-        <v>2.1476906784019399E-3</v>
-      </c>
-      <c r="L8">
-        <v>2.0985714115193599E-3</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.3911189943835299E-5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>4.33403373487918E-5</v>
-      </c>
-      <c r="P8">
-        <v>1.41234598098615E-4</v>
-      </c>
-      <c r="Q8">
-        <v>4.4516382592519498E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>2.2126228379139999E-3</v>
-      </c>
-      <c r="J9">
-        <v>2.19412870818221E-3</v>
-      </c>
-      <c r="K9">
-        <v>2.1468735845302702E-3</v>
-      </c>
-      <c r="L9">
-        <v>2.0861328745990998E-3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.3876364257070799E-5</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4.4350995418859902E-5</v>
-      </c>
-      <c r="P9">
-        <v>1.3934868589947499E-4</v>
-      </c>
-      <c r="Q9">
-        <v>4.4485398939897902E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2.21266650523551E-3</v>
-      </c>
-      <c r="J10">
-        <v>2.1936388216520801E-3</v>
-      </c>
-      <c r="K10">
-        <v>2.1454369035184802E-3</v>
-      </c>
-      <c r="L10">
-        <v>2.0850583393036302E-3</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.41239313928432E-5</v>
-      </c>
-      <c r="O10" s="1">
-        <v>4.4078893475494999E-5</v>
-      </c>
-      <c r="P10">
-        <v>1.3920430179989199E-4</v>
-      </c>
-      <c r="Q10">
-        <v>4.44639123696454E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>2.21281360671976E-3</v>
-      </c>
-      <c r="J11">
-        <v>2.1933756950027099E-3</v>
-      </c>
-      <c r="K11">
-        <v>2.1478273526456199E-3</v>
-      </c>
-      <c r="L11">
-        <v>2.0923955193802401E-3</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1.3986991323090799E-5</v>
-      </c>
-      <c r="O11" s="1">
-        <v>4.4016786620159702E-5</v>
-      </c>
-      <c r="P11">
-        <v>1.3900204502960501E-4</v>
-      </c>
-      <c r="Q11">
-        <v>4.4696574684306001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>2.21277236853938E-3</v>
-      </c>
-      <c r="J12">
-        <v>2.1940784801676898E-3</v>
-      </c>
-      <c r="K12">
-        <v>2.14621374177348E-3</v>
-      </c>
-      <c r="L12">
-        <v>2.0917072270902801E-3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1.40967890252059E-5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4.3894539640871401E-5</v>
-      </c>
-      <c r="P12">
-        <v>1.3902056635483001E-4</v>
-      </c>
-      <c r="Q12">
-        <v>4.4420610056820198E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEBF3F1-CBC6-4C52-B57D-935F74782BBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7590"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="4" r:id="rId1"/>
     <sheet name="EPS comparison" sheetId="2" r:id="rId2"/>
     <sheet name="II-B2-FE" sheetId="1" r:id="rId3"/>
+    <sheet name="EPS-lambda" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -280,21 +289,93 @@
   </si>
   <si>
     <t>Outra otimização possível é a relação entre as razões no detector híbrido.</t>
+  </si>
+  <si>
+    <t>lambda_a_i</t>
+  </si>
+  <si>
+    <t>lambda_theta_i</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Caso 1</t>
+  </si>
+  <si>
+    <t>Kxs = 0.1</t>
+  </si>
+  <si>
+    <t>kas = 0</t>
+  </si>
+  <si>
+    <t>&lt;&lt; PQ??</t>
+  </si>
+  <si>
+    <t>Resultados semelhantes entre 0.5 &lt; lambda_a_i &lt; 5.0</t>
+  </si>
+  <si>
+    <t>Caso2</t>
+  </si>
+  <si>
+    <t>Case2</t>
+  </si>
+  <si>
+    <t>Fixamos theta e variamo a_i</t>
+  </si>
+  <si>
+    <t>Fixa a_i e varia theta</t>
+  </si>
+  <si>
+    <t>lambda_a_i = 1</t>
+  </si>
+  <si>
+    <t>lambda_a_i = 0.5</t>
+  </si>
+  <si>
+    <t>VALOR DIVULGADO NO DRAFT</t>
+  </si>
+  <si>
+    <t>Analise de sensibilidade de EPS a variação dos fatores lambda do PATV</t>
+  </si>
+  <si>
+    <t>Os valores de lambda afetam os detectores à medida em que alteram os valores de dmax.</t>
+  </si>
+  <si>
+    <t>A relação entre lambda_a_i e lambda_theta_i altera o detector híbrido.</t>
+  </si>
+  <si>
+    <t>Este por sua vez é afetado também pelas razões dmax/limiar</t>
+  </si>
+  <si>
+    <t>lambda_a_i = 1.5</t>
+  </si>
+  <si>
+    <t>lambda_theta_i = 2.</t>
+  </si>
+  <si>
+    <t>CASO 3</t>
+  </si>
+  <si>
+    <t>CONFERIR OS DADOS, parece que alguns (ou todos foram Caso 3)</t>
+  </si>
+  <si>
+    <t>lambda_a_i = 2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
@@ -314,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +414,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,28 +438,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +482,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -401,7 +496,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -427,7 +521,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -536,6 +630,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EEA-4B85-927C-A7AEAD4C23BC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -603,7 +702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251781504"/>
@@ -665,7 +764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251781112"/>
@@ -706,7 +805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -718,7 +817,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -732,7 +831,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -758,7 +856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -867,6 +965,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-559D-4750-AAF7-10F1CE6B8113}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -934,7 +1037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251782680"/>
@@ -996,7 +1099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251782288"/>
@@ -1037,7 +1140,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2177,7 +2280,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2207,7 +2316,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2228,7 +2343,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2266,7 +2381,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2301,6 +2416,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2336,9 +2468,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2511,41 +2660,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -2559,7 +2708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -2591,7 +2740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2776,7 @@
         <v>4.6525502333783298E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2663,7 +2812,7 @@
         <v>0.131483936121503</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -2677,7 +2826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2709,7 +2858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2894,7 @@
         <v>1.2548237159175499</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2930,7 @@
         <v>0.26649080307221995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2795,7 +2944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -2827,7 +2976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +3012,7 @@
         <v>1.1684859453060001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -2905,26 +3054,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>61</v>
       </c>
@@ -2951,7 +3100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2983,7 +3132,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3011,7 +3160,7 @@
         <v>65</v>
       </c>
       <c r="V8">
-        <f>V7+15</f>
+        <f t="shared" ref="V8:V13" si="0">V7+15</f>
         <v>15</v>
       </c>
       <c r="W8">
@@ -3027,7 +3176,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3054,7 +3203,7 @@
         <v>66</v>
       </c>
       <c r="V9">
-        <f>V8+15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="W9">
@@ -3070,9 +3219,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>A9+15</f>
+        <f t="shared" ref="A10:A15" si="1">A9+15</f>
         <v>15</v>
       </c>
       <c r="D10">
@@ -3098,7 +3247,7 @@
         <v>67</v>
       </c>
       <c r="V10">
-        <f>V9+15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="W10">
@@ -3114,9 +3263,9 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>A10+15</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D11">
@@ -3139,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <f>V10+15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="W11">
@@ -3155,9 +3304,9 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>A11+15</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D12">
@@ -3183,7 +3332,7 @@
         <v>68</v>
       </c>
       <c r="V12">
-        <f>V11+15</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="W12">
@@ -3199,9 +3348,9 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>A12+15</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D13">
@@ -3227,7 +3376,7 @@
         <v>69</v>
       </c>
       <c r="V13">
-        <f>V12+15</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="W13">
@@ -3243,9 +3392,9 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>A13+15</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="D14">
@@ -3271,9 +3420,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>A14+15</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D15">
@@ -3296,17 +3445,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3323,15 +3472,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>A19+15</f>
+        <f t="shared" ref="A20:A25" si="2">A19+15</f>
         <v>15</v>
       </c>
       <c r="E20" s="14"/>
@@ -3342,9 +3491,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>A20+15</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E21" s="14"/>
@@ -3362,9 +3511,9 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>A21+15</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="E22" s="14"/>
@@ -3375,9 +3524,9 @@
         <v>1.0699999999999999E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>A22+15</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E23" s="14"/>
@@ -3388,16 +3537,16 @@
         <v>1.2400000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>A23+15</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>A24+15</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="E25" s="14"/>
@@ -3420,7 +3569,7 @@
         <v>1.7017543859649122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3432,7 +3581,7 @@
         <v>266355140.1869159</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3456,7 +3605,7 @@
         <v>2298387.0967741935</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3465,9 +3614,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>A28+15</f>
+        <f t="shared" ref="A29:A34" si="3">A28+15</f>
         <v>15</v>
       </c>
       <c r="E29" s="14"/>
@@ -3478,9 +3627,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>A29+15</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E30" s="14"/>
@@ -3488,50 +3637,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>A30+15</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>A31+15</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>A32+15</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>A33+15</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3551,7 +3700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3571,9 +3720,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>A41+15</f>
+        <f t="shared" ref="A42:A47" si="4">A41+15</f>
         <v>15</v>
       </c>
       <c r="B42">
@@ -3592,9 +3741,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>A42+15</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B43">
@@ -3613,9 +3762,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>A43+15</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B44">
@@ -3631,9 +3780,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>A44+15</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B45">
@@ -3649,9 +3798,9 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f>A45+15</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B46">
@@ -3670,9 +3819,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f>A46+15</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B47">
@@ -3691,12 +3840,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3713,7 +3862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3730,9 +3879,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f>A52+15</f>
+        <f t="shared" ref="A53:A58" si="5">A52+15</f>
         <v>15</v>
       </c>
       <c r="B53">
@@ -3748,9 +3897,9 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f>A53+15</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B54">
@@ -3766,9 +3915,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f>A54+15</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="B55">
@@ -3784,9 +3933,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f>A55+15</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B56">
@@ -3802,9 +3951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f>A56+15</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B57">
@@ -3820,9 +3969,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f>A57+15</f>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B58">
@@ -3838,12 +3987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -3860,7 +4009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3877,9 +4026,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f>A63+15</f>
+        <f t="shared" ref="A64:A69" si="6">A63+15</f>
         <v>15</v>
       </c>
       <c r="B64">
@@ -3895,9 +4044,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f>A64+15</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B65">
@@ -3913,9 +4062,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f>A65+15</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="B66">
@@ -3931,9 +4080,9 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f>A66+15</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="B67">
@@ -3949,9 +4098,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f>A67+15</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B68">
@@ -3967,9 +4116,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f>A68+15</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B69">
@@ -3991,46 +4140,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4050,7 +4199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4070,17 +4219,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4138,7 +4287,7 @@
         <v>3.2802614457142702E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4316,7 @@
         <v>4.5071145312710101E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4184,7 +4333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4222,7 +4371,7 @@
         <v>2.0769202567494901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4260,12 +4409,12 @@
         <v>4.4871321568041602E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4443,7 @@
         <v>9.2702022162879298E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4323,18 +4472,18 @@
         <v>4.9477639907994698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4363,7 +4512,7 @@
         <v>1.0209234467157E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4392,29 +4541,29 @@
         <v>8.9328868849508105E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G30" s="6"/>
       <c r="J30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4572,7 @@
         <v>2.1605377722768151E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4444,24 +4593,24 @@
         <v>-6.9987981883495171E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -4478,7 +4627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -4495,7 +4644,7 @@
         <v>-1.8357987678080999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>1.3870852577291001E-5</v>
       </c>
@@ -4509,7 +4658,7 @@
         <v>4.3177118710681502E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -4529,7 +4678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>1.632029604517E-5</v>
       </c>
@@ -4546,12 +4695,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4571,7 +4720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>1.7113734935356899E-5</v>
       </c>
@@ -4597,7 +4746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>10</v>
       </c>
@@ -4611,7 +4760,7 @@
         <v>1.4458157246083101E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4641,7 +4790,7 @@
         <v>1.8148094370953901E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>1.73263306517101E-5</v>
       </c>
@@ -4668,7 +4817,7 @@
         <v>3.5223250677112199E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H50">
         <f t="shared" ref="H50:H55" si="1">H49+15</f>
         <v>45</v>
@@ -4683,7 +4832,7 @@
         <v>4.9611771021625703E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -4713,7 +4862,7 @@
         <v>5.0677305705378397E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>2.0277905166956101E-5</v>
       </c>
@@ -4740,7 +4889,7 @@
         <v>5.7550877009226596E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4755,7 +4904,7 @@
         <v>5.53791658750513E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -4785,7 +4934,7 @@
         <v>5.97704462378584E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>1.9175126747274499E-5</v>
       </c>
@@ -4816,4 +4965,4720 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4260B0D-2792-42D1-BD77-ED4FE30484E9}">
+  <dimension ref="A1:BA87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB23" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29:AI35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.21875" style="16" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8">
+        <v>0.25</v>
+      </c>
+      <c r="V8" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="R9">
+        <v>50</v>
+      </c>
+      <c r="S9">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9">
+        <v>60</v>
+      </c>
+      <c r="X9">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>40</v>
+      </c>
+      <c r="Z9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>2.6</v>
+      </c>
+      <c r="Z10">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" ref="A11:A16" si="0">A10+15</f>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P16" si="1">P10+15</f>
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V16" si="2">V10+15</f>
+        <v>15</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>6.7</v>
+      </c>
+      <c r="Z11">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3.3</v>
+      </c>
+      <c r="E12">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>89.5</v>
+      </c>
+      <c r="Y12">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="Z12">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E13">
+        <v>46.3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>100</v>
+      </c>
+      <c r="Y13">
+        <v>85.6</v>
+      </c>
+      <c r="Z13">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>4.3</v>
+      </c>
+      <c r="E14">
+        <v>46.9</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3.6</v>
+      </c>
+      <c r="E15">
+        <v>48.3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6.5</v>
+      </c>
+      <c r="D16">
+        <v>31.7</v>
+      </c>
+      <c r="E16">
+        <v>64.3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1.8</v>
+      </c>
+      <c r="Z16">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="V18" t="s">
+        <v>97</v>
+      </c>
+      <c r="W18" t="s">
+        <v>90</v>
+      </c>
+      <c r="X18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="P19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19">
+        <v>60</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
+      <c r="S19">
+        <v>40</v>
+      </c>
+      <c r="T19">
+        <v>30</v>
+      </c>
+      <c r="V19" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19">
+        <v>60</v>
+      </c>
+      <c r="X19">
+        <v>50</v>
+      </c>
+      <c r="Y19">
+        <v>40</v>
+      </c>
+      <c r="Z19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0.2</v>
+      </c>
+      <c r="Z20">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" ref="A21:A26" si="3">A20+15</f>
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P26" si="4">P20+15</f>
+        <v>15</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ref="V21:V26" si="5">V20+15</f>
+        <v>15</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2.5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>20.8</v>
+      </c>
+      <c r="Z22">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8.9</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <v>100</v>
+      </c>
+      <c r="X23">
+        <v>82.8</v>
+      </c>
+      <c r="Y23">
+        <v>59.3</v>
+      </c>
+      <c r="Z23">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>19.2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.8</v>
+      </c>
+      <c r="E25">
+        <v>31.1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3.8</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>55.5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>6.1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF28">
+        <v>60</v>
+      </c>
+      <c r="AG28">
+        <v>50</v>
+      </c>
+      <c r="AH28">
+        <v>40</v>
+      </c>
+      <c r="AI28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" t="s">
+        <v>89</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>97</v>
+      </c>
+      <c r="W29" t="s">
+        <v>90</v>
+      </c>
+      <c r="X29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0.5</v>
+      </c>
+      <c r="AI29">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30">
+        <v>60</v>
+      </c>
+      <c r="R30">
+        <v>50</v>
+      </c>
+      <c r="S30">
+        <v>40</v>
+      </c>
+      <c r="T30">
+        <v>30</v>
+      </c>
+      <c r="V30" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30">
+        <v>60</v>
+      </c>
+      <c r="X30">
+        <v>50</v>
+      </c>
+      <c r="Y30">
+        <v>40</v>
+      </c>
+      <c r="Z30">
+        <v>30</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" ref="AE30:AE35" si="6">AE29+15</f>
+        <v>15</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0.7</v>
+      </c>
+      <c r="AI30">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.7</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.9</v>
+      </c>
+      <c r="T31">
+        <v>14</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0.1</v>
+      </c>
+      <c r="Z31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>2.7</v>
+      </c>
+      <c r="AI31">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" ref="A32:A37" si="7">A31+15</f>
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.6</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:P37" si="8">P31+15</f>
+        <v>15</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.9</v>
+      </c>
+      <c r="T32">
+        <v>20.6</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32:V37" si="9">V31+15</f>
+        <v>15</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>5.7</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0.3</v>
+      </c>
+      <c r="AH32">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AI32">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>11.9</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0.1</v>
+      </c>
+      <c r="Z33">
+        <v>13.7</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>2.4</v>
+      </c>
+      <c r="T34">
+        <v>18.5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0.1</v>
+      </c>
+      <c r="Y34">
+        <v>15.7</v>
+      </c>
+      <c r="Z34">
+        <v>29.5</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>8.1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>6.7</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.9</v>
+      </c>
+      <c r="E36">
+        <v>30.9</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1.2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>3.8</v>
+      </c>
+      <c r="D37">
+        <v>29.9</v>
+      </c>
+      <c r="E37">
+        <v>52.5</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>2.9</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH37">
+        <v>0.5</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH38">
+        <v>1.5</v>
+      </c>
+      <c r="AK38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AQ38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R39" t="s">
+        <v>89</v>
+      </c>
+      <c r="S39">
+        <v>1.5</v>
+      </c>
+      <c r="V39" t="s">
+        <v>97</v>
+      </c>
+      <c r="W39" t="s">
+        <v>90</v>
+      </c>
+      <c r="X39" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y39">
+        <v>1.5</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF39">
+        <v>60</v>
+      </c>
+      <c r="AG39">
+        <v>50</v>
+      </c>
+      <c r="AH39">
+        <v>40</v>
+      </c>
+      <c r="AI39">
+        <v>30</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL39">
+        <v>60</v>
+      </c>
+      <c r="AM39">
+        <v>50</v>
+      </c>
+      <c r="AN39">
+        <v>40</v>
+      </c>
+      <c r="AO39">
+        <v>30</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR39">
+        <v>60</v>
+      </c>
+      <c r="AS39">
+        <v>50</v>
+      </c>
+      <c r="AT39">
+        <v>40</v>
+      </c>
+      <c r="AU39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>60</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>40</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40">
+        <v>60</v>
+      </c>
+      <c r="R40">
+        <v>50</v>
+      </c>
+      <c r="S40">
+        <v>40</v>
+      </c>
+      <c r="T40">
+        <v>30</v>
+      </c>
+      <c r="V40" t="s">
+        <v>50</v>
+      </c>
+      <c r="W40">
+        <v>60</v>
+      </c>
+      <c r="X40">
+        <v>50</v>
+      </c>
+      <c r="Y40">
+        <v>40</v>
+      </c>
+      <c r="Z40">
+        <v>30</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0.1</v>
+      </c>
+      <c r="AI40">
+        <v>14.7</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0.2</v>
+      </c>
+      <c r="AO40">
+        <v>5.6</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.9</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0.9</v>
+      </c>
+      <c r="T41">
+        <v>16.2</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0.1</v>
+      </c>
+      <c r="Z41">
+        <v>7.4</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" ref="AE41:AE46" si="10">AE40+15</f>
+        <v>15</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>1.4</v>
+      </c>
+      <c r="AI41">
+        <v>19.3</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" ref="AK41:AK46" si="11">AK40+15</f>
+        <v>15</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>5.4</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" ref="AQ41:AQ46" si="12">AQ40+15</f>
+        <v>15</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" ref="A42:A47" si="13">A41+15</f>
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G47" si="14">G41+15</f>
+        <v>15</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P47" si="15">P41+15</f>
+        <v>15</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0.1</v>
+      </c>
+      <c r="S42">
+        <v>0.4</v>
+      </c>
+      <c r="T42">
+        <v>19.5</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42:V47" si="16">V41+15</f>
+        <v>15</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>6.6</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>3.3</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5.6</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>3.7</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0.1</v>
+      </c>
+      <c r="AI43">
+        <v>12.7</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0.9</v>
+      </c>
+      <c r="AO43">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AU43">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>4.7</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>12.4</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0.5</v>
+      </c>
+      <c r="Z44">
+        <v>19.2</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>10.8</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>8.1</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>12.5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>11.8</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>7.9</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>4.8</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.9</v>
+      </c>
+      <c r="E46">
+        <v>28.7</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>6.4</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1.5</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>10.6</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>1.6</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>3.5</v>
+      </c>
+      <c r="D47">
+        <v>27.4</v>
+      </c>
+      <c r="E47">
+        <v>53.7</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>11</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AG48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH48">
+        <v>0.5</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>90</v>
+      </c>
+      <c r="R49" t="s">
+        <v>89</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="V49" t="s">
+        <v>97</v>
+      </c>
+      <c r="W49" t="s">
+        <v>90</v>
+      </c>
+      <c r="X49" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="AE49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH49">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AQ49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT49">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>60</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <v>40</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="P50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50">
+        <v>60</v>
+      </c>
+      <c r="R50">
+        <v>50</v>
+      </c>
+      <c r="S50">
+        <v>40</v>
+      </c>
+      <c r="T50">
+        <v>30</v>
+      </c>
+      <c r="V50" t="s">
+        <v>50</v>
+      </c>
+      <c r="W50">
+        <v>60</v>
+      </c>
+      <c r="X50">
+        <v>50</v>
+      </c>
+      <c r="Y50">
+        <v>40</v>
+      </c>
+      <c r="Z50">
+        <v>30</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF50">
+        <v>60</v>
+      </c>
+      <c r="AG50">
+        <v>50</v>
+      </c>
+      <c r="AH50">
+        <v>40</v>
+      </c>
+      <c r="AI50">
+        <v>30</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL50">
+        <v>60</v>
+      </c>
+      <c r="AM50">
+        <v>50</v>
+      </c>
+      <c r="AN50">
+        <v>40</v>
+      </c>
+      <c r="AO50">
+        <v>30</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR50">
+        <v>60</v>
+      </c>
+      <c r="AS50">
+        <v>50</v>
+      </c>
+      <c r="AT50">
+        <v>40</v>
+      </c>
+      <c r="AU50">
+        <v>30</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX50">
+        <v>60</v>
+      </c>
+      <c r="AY50">
+        <v>50</v>
+      </c>
+      <c r="AZ50">
+        <v>40</v>
+      </c>
+      <c r="BA50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1.4</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0.8</v>
+      </c>
+      <c r="T51">
+        <v>14.7</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0.1</v>
+      </c>
+      <c r="Z51">
+        <v>6.2</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>1.2</v>
+      </c>
+      <c r="AI51">
+        <v>13.3</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0.1</v>
+      </c>
+      <c r="AO51">
+        <v>5</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" ref="A52:A57" si="17">A51+15</f>
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0.4</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G57" si="18">G51+15</f>
+        <v>15</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ref="P52:P57" si="19">P51+15</f>
+        <v>15</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0.8</v>
+      </c>
+      <c r="T52">
+        <v>19.3</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ref="V52:V57" si="20">V51+15</f>
+        <v>15</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>4.8</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" ref="AE52:AE57" si="21">AE51+15</f>
+        <v>15</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI52">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" ref="AK52:AK57" si="22">AK51+15</f>
+        <v>15</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>4.8</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" ref="AQ52:AQ57" si="23">AQ51+15</f>
+        <v>15</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0.7</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" ref="AW52:AW57" si="24">AW51+15</f>
+        <v>15</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0.1</v>
+      </c>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.8</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>7.4</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0.6</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="23"/>
+        <v>30</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>1.4</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>7.5</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>7.6</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>8</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>6.8</v>
+      </c>
+      <c r="AQ54">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>13.6</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>13.9</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>10.1</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0.2</v>
+      </c>
+      <c r="AI55">
+        <v>17.8</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>10.4</v>
+      </c>
+      <c r="AQ55">
+        <f t="shared" si="23"/>
+        <v>60</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>9.1</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0.4</v>
+      </c>
+      <c r="E56">
+        <v>27.2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>18</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>3.7</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>17</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>2.9</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="23"/>
+        <v>75</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0.3</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>3.1</v>
+      </c>
+      <c r="D57">
+        <v>22.2</v>
+      </c>
+      <c r="E57">
+        <v>54.9</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="19"/>
+        <v>90</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0.3</v>
+      </c>
+      <c r="T57">
+        <v>30.4</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0.1</v>
+      </c>
+      <c r="AI57">
+        <v>28.6</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>8</v>
+      </c>
+      <c r="AQ57">
+        <f t="shared" si="23"/>
+        <v>90</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>1.4</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="V59" t="s">
+        <v>97</v>
+      </c>
+      <c r="W59" t="s">
+        <v>90</v>
+      </c>
+      <c r="X59" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="V60" t="s">
+        <v>50</v>
+      </c>
+      <c r="W60">
+        <v>60</v>
+      </c>
+      <c r="X60">
+        <v>50</v>
+      </c>
+      <c r="Y60">
+        <v>40</v>
+      </c>
+      <c r="Z60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0.1</v>
+      </c>
+      <c r="Z61">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" ref="A62:A67" si="25">A61+15</f>
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.3</v>
+      </c>
+      <c r="V62">
+        <f t="shared" ref="V62:V67" si="26">V61+15</f>
+        <v>15</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.4</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>3.9</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="26"/>
+        <v>45</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>12.1</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.4</v>
+      </c>
+      <c r="E66">
+        <v>25.1</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="26"/>
+        <v>75</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>9.9</v>
+      </c>
+      <c r="Z66">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1.9</v>
+      </c>
+      <c r="D67">
+        <v>25.3</v>
+      </c>
+      <c r="E67">
+        <v>52.2</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="26"/>
+        <v>90</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1.5</v>
+      </c>
+      <c r="Y67">
+        <v>23.2</v>
+      </c>
+      <c r="Z67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" ref="A72:A77" si="27">A71+15</f>
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="27"/>
+        <v>60</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0.3</v>
+      </c>
+      <c r="E75">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5.9</v>
+      </c>
+      <c r="C76">
+        <v>35.5</v>
+      </c>
+      <c r="D76">
+        <v>55.4</v>
+      </c>
+      <c r="E76">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>99.4</v>
+      </c>
+      <c r="E77">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80">
+        <v>60</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" ref="A82:A87" si="28">A81+15</f>
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="28"/>
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="28"/>
+        <v>75</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="28"/>
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B10:E16">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:E26">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:E38">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:E48">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:E57">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:E67">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:E77">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:E87">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:T37">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31:Z37">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:T26">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:T16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:Z26">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10:Z16">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W41:Z47">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41:T47">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W51:Z57">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W61:Z67">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51:T57">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR51:AU57">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX51:BA57">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:K57">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:K47">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL51:AO57">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF51:AI57">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40:AI46">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL40:AO46">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR40:AU46">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29:AI35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEBF3F1-CBC6-4C52-B57D-935F74782BBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="4" r:id="rId1"/>
     <sheet name="EPS comparison" sheetId="2" r:id="rId2"/>
     <sheet name="II-B2-FE" sheetId="1" r:id="rId3"/>
-    <sheet name="EPS-lambda" sheetId="5" r:id="rId4"/>
+    <sheet name="EPS-case1" sheetId="6" r:id="rId4"/>
+    <sheet name="EPS-case3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="113">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -362,22 +362,25 @@
   <si>
     <t>lambda_a_i = 2.0</t>
   </si>
+  <si>
+    <t>CASO 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -427,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -435,33 +438,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +576,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -521,7 +615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -630,7 +724,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EEA-4B85-927C-A7AEAD4C23BC}"/>
             </c:ext>
@@ -644,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251781112"/>
-        <c:axId val="251781504"/>
+        <c:axId val="164084656"/>
+        <c:axId val="164084264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251781112"/>
+        <c:axId val="164084656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,15 +796,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251781504"/>
+        <c:crossAx val="164084264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251781504"/>
+        <c:axId val="164084264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,10 +858,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251781112"/>
+        <c:crossAx val="164084656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -805,7 +899,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -817,7 +911,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -856,7 +950,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -965,7 +1059,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-559D-4750-AAF7-10F1CE6B8113}"/>
             </c:ext>
@@ -979,11 +1073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251782288"/>
-        <c:axId val="251782680"/>
+        <c:axId val="239852824"/>
+        <c:axId val="239852432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251782288"/>
+        <c:axId val="239852824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,15 +1131,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251782680"/>
+        <c:crossAx val="239852432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251782680"/>
+        <c:axId val="239852432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,10 +1193,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251782288"/>
+        <c:crossAx val="239852824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1140,7 +1234,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2283,7 +2377,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2413,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2437,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2381,7 +2475,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2416,23 +2510,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2468,26 +2545,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2660,41 +2720,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -2708,7 +2768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -2740,7 +2800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2836,7 @@
         <v>4.6525502333783298E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2872,7 @@
         <v>0.131483936121503</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -2826,7 +2886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2954,7 @@
         <v>1.2548237159175499</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +2990,7 @@
         <v>0.26649080307221995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2944,7 +3004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -2976,7 +3036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +3072,7 @@
         <v>1.1684859453060001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -3054,26 +3114,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z69"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>61</v>
       </c>
@@ -3100,7 +3160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3132,7 +3192,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3176,7 +3236,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3219,7 +3279,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ref="A10:A15" si="1">A9+15</f>
         <v>15</v>
@@ -3263,7 +3323,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -3304,7 +3364,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3348,7 +3408,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -3392,7 +3452,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3420,7 +3480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3445,17 +3505,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3472,13 +3532,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ref="A20:A25" si="2">A19+15</f>
         <v>15</v>
@@ -3491,7 +3551,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3511,7 +3571,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3524,7 +3584,7 @@
         <v>1.0699999999999999E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3537,14 +3597,14 @@
         <v>1.2400000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -3569,7 +3629,7 @@
         <v>1.7017543859649122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3581,7 +3641,7 @@
         <v>266355140.1869159</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3605,7 +3665,7 @@
         <v>2298387.0967741935</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3614,7 +3674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29:A34" si="3">A28+15</f>
         <v>15</v>
@@ -3627,7 +3687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3637,50 +3697,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3700,7 +3760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3720,7 +3780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="4">A41+15</f>
         <v>15</v>
@@ -3741,7 +3801,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -3762,7 +3822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -3780,7 +3840,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -3798,7 +3858,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -3819,7 +3879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -3840,12 +3900,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3862,7 +3922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3879,7 +3939,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ref="A53:A58" si="5">A52+15</f>
         <v>15</v>
@@ -3897,7 +3957,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -3915,7 +3975,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -3933,7 +3993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -3951,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -3969,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -3987,12 +4047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4009,7 +4069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4026,7 +4086,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ref="A64:A69" si="6">A63+15</f>
         <v>15</v>
@@ -4044,7 +4104,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -4062,7 +4122,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -4080,7 +4140,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -4098,7 +4158,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -4116,7 +4176,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -4140,46 +4200,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4219,17 +4279,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4258,7 +4318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4347,7 @@
         <v>3.2802614457142702E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4316,7 +4376,7 @@
         <v>4.5071145312710101E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4333,7 +4393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4371,7 +4431,7 @@
         <v>2.0769202567494901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4409,12 +4469,12 @@
         <v>4.4871321568041602E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4443,7 +4503,7 @@
         <v>9.2702022162879298E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4472,18 +4532,18 @@
         <v>4.9477639907994698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4512,7 +4572,7 @@
         <v>1.0209234467157E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4541,29 +4601,29 @@
         <v>8.9328868849508105E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
       <c r="J30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4572,7 +4632,7 @@
         <v>2.1605377722768151E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4593,24 +4653,24 @@
         <v>-6.9987981883495171E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -4627,7 +4687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -4644,7 +4704,7 @@
         <v>-1.8357987678080999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1.3870852577291001E-5</v>
       </c>
@@ -4658,7 +4718,7 @@
         <v>4.3177118710681502E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -4678,7 +4738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>1.632029604517E-5</v>
       </c>
@@ -4695,12 +4755,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4720,7 +4780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>1.7113734935356899E-5</v>
       </c>
@@ -4746,7 +4806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47">
         <v>10</v>
       </c>
@@ -4760,7 +4820,7 @@
         <v>1.4458157246083101E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4790,7 +4850,7 @@
         <v>1.8148094370953901E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>1.73263306517101E-5</v>
       </c>
@@ -4817,7 +4877,7 @@
         <v>3.5223250677112199E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" ref="H50:H55" si="1">H49+15</f>
         <v>45</v>
@@ -4832,7 +4892,7 @@
         <v>4.9611771021625703E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -4862,7 +4922,7 @@
         <v>5.0677305705378397E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>2.0277905166956101E-5</v>
       </c>
@@ -4889,7 +4949,7 @@
         <v>5.7550877009226596E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4904,7 +4964,7 @@
         <v>5.53791658750513E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -4934,7 +4994,7 @@
         <v>5.97704462378584E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>1.9175126747274499E-5</v>
       </c>
@@ -4968,22 +5028,3253 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4260B0D-2792-42D1-BD77-ED4FE30484E9}">
-  <dimension ref="A1:BA87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A12:AU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB23" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29:AI35"/>
+    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="19:35" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>88</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="19:35" x14ac:dyDescent="0.25">
+      <c r="S13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U13" t="s">
+        <v>89</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB13">
+        <v>1.5</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="19:35" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <v>60</v>
+      </c>
+      <c r="U14">
+        <v>50</v>
+      </c>
+      <c r="V14">
+        <v>40</v>
+      </c>
+      <c r="W14">
+        <v>30</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14">
+        <v>60</v>
+      </c>
+      <c r="AA14">
+        <v>50</v>
+      </c>
+      <c r="AB14">
+        <v>40</v>
+      </c>
+      <c r="AC14">
+        <v>30</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF14">
+        <v>60</v>
+      </c>
+      <c r="AG14">
+        <v>50</v>
+      </c>
+      <c r="AH14">
+        <v>40</v>
+      </c>
+      <c r="AI14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="19:35" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="19:35" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f t="shared" ref="S16:S21" si="0">S15+15</f>
+        <v>15</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.4</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ref="Y16:Y21" si="1">Y15+15</f>
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0.3</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" ref="AE16:AE21" si="2">AE15+15</f>
+        <v>15</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1.2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0.4</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>3.9</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>13.1</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>12.1</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0.3</v>
+      </c>
+      <c r="AI19">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W20">
+        <v>28.6</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0.4</v>
+      </c>
+      <c r="AC20">
+        <v>25.1</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="AF20">
+        <v>5.9</v>
+      </c>
+      <c r="AG20">
+        <v>35.5</v>
+      </c>
+      <c r="AH20">
+        <v>55.4</v>
+      </c>
+      <c r="AI20">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V21">
+        <v>24.9</v>
+      </c>
+      <c r="W21">
+        <v>55.1</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1.9</v>
+      </c>
+      <c r="AB21">
+        <v>25.3</v>
+      </c>
+      <c r="AC21">
+        <v>52.2</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="AF21">
+        <v>100</v>
+      </c>
+      <c r="AG21">
+        <v>100</v>
+      </c>
+      <c r="AH21">
+        <v>99.4</v>
+      </c>
+      <c r="AI21">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23">
+        <v>1.5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="U23" t="s">
+        <v>88</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24">
+        <v>1.5</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T24" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" t="s">
+        <v>89</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25">
+        <v>60</v>
+      </c>
+      <c r="O25">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>40</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+      <c r="S25" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25">
+        <v>60</v>
+      </c>
+      <c r="U25">
+        <v>50</v>
+      </c>
+      <c r="V25">
+        <v>40</v>
+      </c>
+      <c r="W25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.9</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1.3</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A32" si="3">A26+15</f>
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G32" si="4">G26+15</f>
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M32" si="5">M26+15</f>
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.3</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:S32" si="6">S26+15</f>
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.4</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1.3</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>4.7</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>12.5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>13.9</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.9</v>
+      </c>
+      <c r="E31">
+        <v>30.9</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.9</v>
+      </c>
+      <c r="K31">
+        <v>28.7</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0.1</v>
+      </c>
+      <c r="Q31">
+        <v>30.2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0.3</v>
+      </c>
+      <c r="W31">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3.8</v>
+      </c>
+      <c r="D32">
+        <v>29.9</v>
+      </c>
+      <c r="E32">
+        <v>52.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>3.5</v>
+      </c>
+      <c r="J32">
+        <v>27.4</v>
+      </c>
+      <c r="K32">
+        <v>53.7</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>2.8</v>
+      </c>
+      <c r="P32">
+        <v>26.9</v>
+      </c>
+      <c r="Q32">
+        <v>53.7</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V32">
+        <v>25.9</v>
+      </c>
+      <c r="W32">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="33" spans="13:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34">
+        <v>1.5</v>
+      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="V34" s="19">
+        <v>2</v>
+      </c>
+      <c r="W34" s="20"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="AC34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH34" s="22">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN34" s="22">
+        <v>5</v>
+      </c>
+      <c r="AO34" s="22"/>
+      <c r="AQ34" s="22"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT34" s="22">
+        <v>6</v>
+      </c>
+      <c r="AU34" s="22"/>
+    </row>
+    <row r="35" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" t="s">
+        <v>90</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="V35" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="W35" s="23"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB35" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="AC35" s="22"/>
+      <c r="AE35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH35" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="AI35" s="22"/>
+      <c r="AK35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN35" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="AO35" s="22"/>
+      <c r="AQ35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT35" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="AU35" s="22"/>
+    </row>
+    <row r="36" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>50</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>30</v>
+      </c>
+      <c r="S36" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T36" s="22">
+        <v>60</v>
+      </c>
+      <c r="U36" s="22">
+        <v>50</v>
+      </c>
+      <c r="V36" s="22">
+        <v>40</v>
+      </c>
+      <c r="W36" s="23">
+        <v>30</v>
+      </c>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z36" s="22">
+        <v>60</v>
+      </c>
+      <c r="AA36" s="22">
+        <v>50</v>
+      </c>
+      <c r="AB36" s="22">
+        <v>40</v>
+      </c>
+      <c r="AC36" s="22">
+        <v>30</v>
+      </c>
+      <c r="AE36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF36" s="22">
+        <v>60</v>
+      </c>
+      <c r="AG36" s="22">
+        <v>50</v>
+      </c>
+      <c r="AH36" s="22">
+        <v>40</v>
+      </c>
+      <c r="AI36" s="22">
+        <v>30</v>
+      </c>
+      <c r="AK36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL36" s="22">
+        <v>60</v>
+      </c>
+      <c r="AM36" s="22">
+        <v>50</v>
+      </c>
+      <c r="AN36" s="22">
+        <v>40</v>
+      </c>
+      <c r="AO36" s="22">
+        <v>30</v>
+      </c>
+      <c r="AQ36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR36" s="22">
+        <v>60</v>
+      </c>
+      <c r="AS36" s="22">
+        <v>50</v>
+      </c>
+      <c r="AT36" s="22">
+        <v>40</v>
+      </c>
+      <c r="AU36" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0.9</v>
+      </c>
+      <c r="S37" s="24">
+        <v>0</v>
+      </c>
+      <c r="T37" s="22">
+        <v>0</v>
+      </c>
+      <c r="U37" s="22">
+        <v>0</v>
+      </c>
+      <c r="V37" s="22">
+        <v>0</v>
+      </c>
+      <c r="W37" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="AE37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="AK37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AQ37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" ref="M38:M43" si="7">M37+15</f>
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.4</v>
+      </c>
+      <c r="S38" s="24">
+        <f t="shared" ref="S38:S43" si="8">S37+15</f>
+        <v>15</v>
+      </c>
+      <c r="T38" s="22">
+        <v>0</v>
+      </c>
+      <c r="U38" s="22">
+        <v>0</v>
+      </c>
+      <c r="V38" s="22">
+        <v>0</v>
+      </c>
+      <c r="W38" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22">
+        <f t="shared" ref="Y38:Y43" si="9">Y37+15</f>
+        <v>15</v>
+      </c>
+      <c r="Z38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="AE38" s="22">
+        <f t="shared" ref="AE38:AE43" si="10">AE37+15</f>
+        <v>15</v>
+      </c>
+      <c r="AF38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="AK38" s="22">
+        <f t="shared" ref="AK38:AK43" si="11">AK37+15</f>
+        <v>15</v>
+      </c>
+      <c r="AL38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="AQ38" s="22">
+        <f t="shared" ref="AQ38:AQ43" si="12">AQ37+15</f>
+        <v>15</v>
+      </c>
+      <c r="AR38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.8</v>
+      </c>
+      <c r="S39" s="24">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="T39" s="22">
+        <v>0</v>
+      </c>
+      <c r="U39" s="22">
+        <v>0</v>
+      </c>
+      <c r="V39" s="22">
+        <v>0</v>
+      </c>
+      <c r="W39" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="Z39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="AE39" s="22">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="AF39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="AK39" s="22">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="AL39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="AQ39" s="22">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="AR39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>5.7</v>
+      </c>
+      <c r="S40" s="24">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="T40" s="22">
+        <v>0</v>
+      </c>
+      <c r="U40" s="22">
+        <v>0</v>
+      </c>
+      <c r="V40" s="22">
+        <v>0</v>
+      </c>
+      <c r="W40" s="23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="Z40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="22">
+        <v>4</v>
+      </c>
+      <c r="AE40" s="22">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AF40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="AK40" s="22">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="AL40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="AQ40" s="22">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="AR40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="22">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="41" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14.8</v>
+      </c>
+      <c r="S41" s="24">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="T41" s="22">
+        <v>0</v>
+      </c>
+      <c r="U41" s="22">
+        <v>0</v>
+      </c>
+      <c r="V41" s="22">
+        <v>0</v>
+      </c>
+      <c r="W41" s="23">
+        <v>14.9</v>
+      </c>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="Z41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="AE41" s="22">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="AF41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="22">
+        <v>11.1</v>
+      </c>
+      <c r="AK41" s="22">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="AL41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="22">
+        <v>10.7</v>
+      </c>
+      <c r="AQ41" s="22">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="AR41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="22">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="42" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0.6</v>
+      </c>
+      <c r="Q42">
+        <v>25.5</v>
+      </c>
+      <c r="S42" s="24">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="T42" s="22">
+        <v>0</v>
+      </c>
+      <c r="U42" s="22">
+        <v>0</v>
+      </c>
+      <c r="V42" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="W42" s="23">
+        <v>28.9</v>
+      </c>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="Z42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="AC42" s="22">
+        <v>27.1</v>
+      </c>
+      <c r="AE42" s="22">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="AF42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="AI42" s="22">
+        <v>27.1</v>
+      </c>
+      <c r="AK42" s="22">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="AL42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="AO42" s="22">
+        <v>24.2</v>
+      </c>
+      <c r="AQ42" s="22">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="AR42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="AU42" s="22">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="43" spans="13:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>26.5</v>
+      </c>
+      <c r="Q43">
+        <v>55.2</v>
+      </c>
+      <c r="S43" s="25">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="T43" s="26">
+        <v>0</v>
+      </c>
+      <c r="U43" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V43" s="26">
+        <v>25.1</v>
+      </c>
+      <c r="W43" s="27">
+        <v>54.6</v>
+      </c>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="Z43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB43" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="AC43" s="22">
+        <v>54.1</v>
+      </c>
+      <c r="AE43" s="22">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="AF43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AH43" s="22">
+        <v>24.1</v>
+      </c>
+      <c r="AI43" s="22">
+        <v>53</v>
+      </c>
+      <c r="AK43" s="22">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="AL43" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AN43" s="22">
+        <v>23.8</v>
+      </c>
+      <c r="AO43" s="22">
+        <v>49.7</v>
+      </c>
+      <c r="AQ43" s="22">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="AR43" s="22">
+        <v>100</v>
+      </c>
+      <c r="AS43" s="22">
+        <v>95.9</v>
+      </c>
+      <c r="AT43" s="22">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AU43" s="22">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="45" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V45" s="22">
+        <v>2</v>
+      </c>
+      <c r="W45" s="22"/>
+    </row>
+    <row r="46" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="S46" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="T46" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U46" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="V46" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="W46" s="22"/>
+    </row>
+    <row r="47" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="S47" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" s="22">
+        <v>60</v>
+      </c>
+      <c r="U47" s="22">
+        <v>50</v>
+      </c>
+      <c r="V47" s="22">
+        <v>40</v>
+      </c>
+      <c r="W47" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="13:47" x14ac:dyDescent="0.25">
+      <c r="S48" s="22">
+        <v>0</v>
+      </c>
+      <c r="T48" s="22">
+        <v>0</v>
+      </c>
+      <c r="U48" s="22">
+        <v>0</v>
+      </c>
+      <c r="V48" s="22">
+        <v>0</v>
+      </c>
+      <c r="W48" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="49" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S49" s="22">
+        <f t="shared" ref="S49:S54" si="13">S48+15</f>
+        <v>15</v>
+      </c>
+      <c r="T49" s="22">
+        <v>0</v>
+      </c>
+      <c r="U49" s="22">
+        <v>0</v>
+      </c>
+      <c r="V49" s="22">
+        <v>0</v>
+      </c>
+      <c r="W49" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S50" s="22">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="T50" s="22">
+        <v>0</v>
+      </c>
+      <c r="U50" s="22">
+        <v>0</v>
+      </c>
+      <c r="V50" s="22">
+        <v>0</v>
+      </c>
+      <c r="W50" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S51" s="22">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="T51" s="22">
+        <v>0</v>
+      </c>
+      <c r="U51" s="22">
+        <v>0</v>
+      </c>
+      <c r="V51" s="22">
+        <v>0</v>
+      </c>
+      <c r="W51" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S52" s="22">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="T52" s="22">
+        <v>0</v>
+      </c>
+      <c r="U52" s="22">
+        <v>0</v>
+      </c>
+      <c r="V52" s="22">
+        <v>0</v>
+      </c>
+      <c r="W52" s="22">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="53" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S53" s="22">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="T53" s="22">
+        <v>0</v>
+      </c>
+      <c r="U53" s="22">
+        <v>0</v>
+      </c>
+      <c r="V53" s="22">
+        <v>1</v>
+      </c>
+      <c r="W53" s="22">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="54" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S54" s="22">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="T54" s="22">
+        <v>0</v>
+      </c>
+      <c r="U54" s="22">
+        <v>3.3</v>
+      </c>
+      <c r="V54" s="22">
+        <v>25.7</v>
+      </c>
+      <c r="W54" s="22">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="56" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V56" s="22">
+        <v>2</v>
+      </c>
+      <c r="W56" s="22"/>
+    </row>
+    <row r="57" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S57" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="T57" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U57" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="V57" s="22">
+        <v>3</v>
+      </c>
+      <c r="W57" s="22"/>
+    </row>
+    <row r="58" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S58" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" s="22">
+        <v>60</v>
+      </c>
+      <c r="U58" s="22">
+        <v>50</v>
+      </c>
+      <c r="V58" s="22">
+        <v>40</v>
+      </c>
+      <c r="W58" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S59" s="22">
+        <v>0</v>
+      </c>
+      <c r="T59" s="22">
+        <v>0</v>
+      </c>
+      <c r="U59" s="22">
+        <v>0</v>
+      </c>
+      <c r="V59" s="22">
+        <v>0</v>
+      </c>
+      <c r="W59" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="60" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S60" s="22">
+        <f t="shared" ref="S60:S65" si="14">S59+15</f>
+        <v>15</v>
+      </c>
+      <c r="T60" s="22">
+        <v>0</v>
+      </c>
+      <c r="U60" s="22">
+        <v>0</v>
+      </c>
+      <c r="V60" s="22">
+        <v>0</v>
+      </c>
+      <c r="W60" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S61" s="22">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="T61" s="22">
+        <v>0</v>
+      </c>
+      <c r="U61" s="22">
+        <v>0</v>
+      </c>
+      <c r="V61" s="22">
+        <v>0</v>
+      </c>
+      <c r="W61" s="22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S62" s="22">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="T62" s="22">
+        <v>0</v>
+      </c>
+      <c r="U62" s="22">
+        <v>0</v>
+      </c>
+      <c r="V62" s="22">
+        <v>0</v>
+      </c>
+      <c r="W62" s="22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="63" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S63" s="22">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="T63" s="22">
+        <v>0</v>
+      </c>
+      <c r="U63" s="22">
+        <v>0</v>
+      </c>
+      <c r="V63" s="22">
+        <v>0</v>
+      </c>
+      <c r="W63" s="22">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="64" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S64" s="22">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="T64" s="22">
+        <v>0</v>
+      </c>
+      <c r="U64" s="22">
+        <v>0</v>
+      </c>
+      <c r="V64" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="W64" s="22">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="65" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S65" s="22">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="T65" s="22">
+        <v>0</v>
+      </c>
+      <c r="U65" s="22">
+        <v>2.6</v>
+      </c>
+      <c r="V65" s="22">
+        <v>24.9</v>
+      </c>
+      <c r="W65" s="22">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="67" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V67" s="22">
+        <v>2</v>
+      </c>
+      <c r="W67" s="22"/>
+    </row>
+    <row r="68" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S68" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="T68" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U68" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="V68" s="22">
+        <v>10</v>
+      </c>
+      <c r="W68" s="22"/>
+    </row>
+    <row r="69" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S69" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T69" s="22">
+        <v>60</v>
+      </c>
+      <c r="U69" s="22">
+        <v>50</v>
+      </c>
+      <c r="V69" s="22">
+        <v>40</v>
+      </c>
+      <c r="W69" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S70" s="22">
+        <v>0</v>
+      </c>
+      <c r="T70" s="22">
+        <v>0</v>
+      </c>
+      <c r="U70" s="22">
+        <v>0</v>
+      </c>
+      <c r="V70" s="22">
+        <v>0</v>
+      </c>
+      <c r="W70" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S71" s="22">
+        <f t="shared" ref="S71:S76" si="15">S70+15</f>
+        <v>15</v>
+      </c>
+      <c r="T71" s="22">
+        <v>0</v>
+      </c>
+      <c r="U71" s="22">
+        <v>0</v>
+      </c>
+      <c r="V71" s="22">
+        <v>0</v>
+      </c>
+      <c r="W71" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S72" s="22">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="T72" s="22">
+        <v>0</v>
+      </c>
+      <c r="U72" s="22">
+        <v>0</v>
+      </c>
+      <c r="V72" s="22">
+        <v>0</v>
+      </c>
+      <c r="W72" s="22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S73" s="22">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="T73" s="22">
+        <v>0</v>
+      </c>
+      <c r="U73" s="22">
+        <v>0</v>
+      </c>
+      <c r="V73" s="22">
+        <v>0</v>
+      </c>
+      <c r="W73" s="22">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="74" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S74" s="22">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="T74" s="22">
+        <v>0</v>
+      </c>
+      <c r="U74" s="22">
+        <v>0</v>
+      </c>
+      <c r="V74" s="22">
+        <v>0</v>
+      </c>
+      <c r="W74" s="22">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="75" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S75" s="22">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="T75" s="22">
+        <v>0</v>
+      </c>
+      <c r="U75" s="22">
+        <v>0</v>
+      </c>
+      <c r="V75" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="W75" s="22">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="76" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S76" s="22">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="T76" s="22">
+        <v>0</v>
+      </c>
+      <c r="U76" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V76" s="22">
+        <v>23.5</v>
+      </c>
+      <c r="W76" s="22">
+        <v>52.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V34">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37:X43">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:Q32">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V23">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26:X32">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37:Q43">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:Q11 B26:F32">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:Q22 H26:K32">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:AC21">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15:AI21">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB34">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z37:AC43">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37:AI43">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN34">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL37:AO43">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT34">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37:AU43">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V45">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48:W54">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V56">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59:W65">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V67">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T70:W76">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15:W21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG87"/>
+  <sheetViews>
+    <sheetView topLeftCell="AN52" workbookViewId="0">
+      <selection activeCell="BD71" sqref="BD71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.21875" style="16" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="16" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -4991,12 +8282,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5016,12 +8307,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -5038,7 +8329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -5049,12 +8340,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -5092,7 +8383,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -5139,7 +8430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5174,7 +8465,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A16" si="0">A10+15</f>
         <v>15</v>
@@ -5212,7 +8503,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5250,7 +8541,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5288,7 +8579,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5326,7 +8617,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5364,7 +8655,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -5402,7 +8693,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5440,7 +8731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -5487,7 +8778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5522,7 +8813,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21:A26" si="3">A20+15</f>
         <v>15</v>
@@ -5560,7 +8851,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5598,7 +8889,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5636,7 +8927,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -5674,7 +8965,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -5712,7 +9003,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -5756,7 +9047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE27" s="17" t="s">
         <v>109</v>
       </c>
@@ -5770,7 +9061,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P28" s="8" t="s">
         <v>102</v>
       </c>
@@ -5790,7 +9081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -5843,7 +9134,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -5906,7 +9197,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5969,7 +9260,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ref="A32:A37" si="7">A31+15</f>
         <v>15</v>
@@ -6035,7 +9326,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -6101,7 +9392,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -6167,7 +9458,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -6233,7 +9524,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -6283,7 +9574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -6351,7 +9642,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>107</v>
       </c>
@@ -6392,7 +9683,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -6487,7 +9778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -6594,7 +9885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6692,7 +9983,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="13">A41+15</f>
         <v>15</v>
@@ -6794,7 +10085,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -6896,7 +10187,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -6998,7 +10289,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -7100,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -7202,7 +10493,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -7256,7 +10547,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AG48" t="s">
         <v>88</v>
       </c>
@@ -7276,7 +10567,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7374,7 +10665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -7496,7 +10787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7606,7 +10897,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ref="A52:A57" si="17">A51+15</f>
         <v>15</v>
@@ -7724,7 +11015,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -7842,7 +11133,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -7960,7 +11251,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -8078,7 +11369,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -8196,7 +11487,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -8314,7 +11605,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -8339,8 +11631,29 @@
       <c r="Y59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AS59" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT59">
+        <v>1.5</v>
+      </c>
+      <c r="AW59" s="18"/>
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ59" s="19">
+        <v>2</v>
+      </c>
+      <c r="BA59" s="20"/>
+      <c r="BE59" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF59">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -8371,8 +11684,45 @@
       <c r="Z60">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ60" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT60">
+        <v>2.5</v>
+      </c>
+      <c r="AW60" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX60" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY60" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ60" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="BA60" s="23"/>
+      <c r="BC60" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF60">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -8403,8 +11753,53 @@
       <c r="Z61">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR61">
+        <v>60</v>
+      </c>
+      <c r="AS61">
+        <v>50</v>
+      </c>
+      <c r="AT61">
+        <v>40</v>
+      </c>
+      <c r="AU61">
+        <v>30</v>
+      </c>
+      <c r="AW61" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX61" s="22">
+        <v>60</v>
+      </c>
+      <c r="AY61" s="22">
+        <v>50</v>
+      </c>
+      <c r="AZ61" s="22">
+        <v>40</v>
+      </c>
+      <c r="BA61" s="23">
+        <v>30</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD61">
+        <v>60</v>
+      </c>
+      <c r="BE61">
+        <v>50</v>
+      </c>
+      <c r="BF61">
+        <v>40</v>
+      </c>
+      <c r="BG61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ref="A62:A67" si="25">A61+15</f>
         <v>15</v>
@@ -8437,8 +11832,53 @@
       <c r="Z62">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>1.7</v>
+      </c>
+      <c r="AW62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="23">
+        <v>2.6</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="25"/>
         <v>30</v>
@@ -8471,8 +11911,56 @@
       <c r="Z63">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ63">
+        <f t="shared" ref="AQ63:AQ68" si="27">AQ62+15</f>
+        <v>15</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0.6</v>
+      </c>
+      <c r="AW63" s="24">
+        <f t="shared" ref="AW63:AW68" si="28">AW62+15</f>
+        <v>15</v>
+      </c>
+      <c r="AX63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA63" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="BC63">
+        <f t="shared" ref="BC63:BC68" si="29">BC62+15</f>
+        <v>15</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="25"/>
         <v>45</v>
@@ -8505,8 +11993,56 @@
       <c r="Z64">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AQ64">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0.1</v>
+      </c>
+      <c r="AW64" s="24">
+        <f t="shared" si="28"/>
+        <v>30</v>
+      </c>
+      <c r="AX64" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY64" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="BC64">
+        <f t="shared" si="29"/>
+        <v>30</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="25"/>
         <v>60</v>
@@ -8539,8 +12075,56 @@
       <c r="Z65">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AQ65">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>3.8</v>
+      </c>
+      <c r="AW65" s="24">
+        <f t="shared" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="AX65" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY65" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="BC65">
+        <f t="shared" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="25"/>
         <v>75</v>
@@ -8573,8 +12157,56 @@
       <c r="Z66">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AQ66">
+        <f t="shared" si="27"/>
+        <v>60</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>9.9</v>
+      </c>
+      <c r="AW66" s="24">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="AX66" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="23">
+        <v>6.8</v>
+      </c>
+      <c r="BC66">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0.1</v>
+      </c>
+      <c r="BG66">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="25"/>
         <v>90</v>
@@ -8607,8 +12239,106 @@
       <c r="Z67">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AQ67">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>4.3</v>
+      </c>
+      <c r="AW67" s="24">
+        <f t="shared" si="28"/>
+        <v>75</v>
+      </c>
+      <c r="AX67" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="BC67">
+        <f t="shared" si="29"/>
+        <v>75</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ68">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>12</v>
+      </c>
+      <c r="AW68" s="25">
+        <f t="shared" si="28"/>
+        <v>90</v>
+      </c>
+      <c r="AX68" s="26">
+        <v>0</v>
+      </c>
+      <c r="AY68" s="26">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="26">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="29"/>
+        <v>90</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -8622,7 +12352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -8638,8 +12368,14 @@
       <c r="E70">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AY70" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -8655,10 +12391,22 @@
       <c r="E71">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW71" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" ref="A72:A77" si="27">A71+15</f>
+        <f t="shared" ref="A72:A77" si="30">A71+15</f>
         <v>15</v>
       </c>
       <c r="B72">
@@ -8673,10 +12421,25 @@
       <c r="E72">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW72" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX72">
+        <v>60</v>
+      </c>
+      <c r="AY72">
+        <v>50</v>
+      </c>
+      <c r="AZ72">
+        <v>40</v>
+      </c>
+      <c r="BA72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="B73">
@@ -8691,10 +12454,25 @@
       <c r="E73">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>45</v>
       </c>
       <c r="B74">
@@ -8709,10 +12487,26 @@
       <c r="E74">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW74">
+        <f t="shared" ref="AW74:AW79" si="31">AW73+15</f>
+        <v>15</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="B75">
@@ -8727,10 +12521,26 @@
       <c r="E75">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW75">
+        <f t="shared" si="31"/>
+        <v>30</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="B76">
@@ -8745,10 +12555,26 @@
       <c r="E76">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW76">
+        <f t="shared" si="31"/>
+        <v>45</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="B77">
@@ -8763,8 +12589,42 @@
       <c r="E77">
         <v>86.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW77">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AW78">
+        <f t="shared" si="31"/>
+        <v>75</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -8777,8 +12637,24 @@
       <c r="D79">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AW79">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -8795,7 +12671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -8815,9 +12691,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" ref="A82:A87" si="28">A81+15</f>
+        <f t="shared" ref="A82:A87" si="32">A81+15</f>
         <v>15</v>
       </c>
       <c r="B82">
@@ -8833,9 +12709,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>30</v>
       </c>
       <c r="B83">
@@ -8851,9 +12727,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>45</v>
       </c>
       <c r="B84">
@@ -8869,9 +12745,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>60</v>
       </c>
       <c r="B85">
@@ -8887,9 +12763,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>75</v>
       </c>
       <c r="B86">
@@ -8905,9 +12781,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>90</v>
       </c>
       <c r="B87">
@@ -8925,7 +12801,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:E16">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -8933,7 +12809,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -8941,7 +12817,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -8951,7 +12827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:E26">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -8959,7 +12835,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -8967,7 +12843,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -8977,7 +12853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:E38">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -8985,7 +12861,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -8993,7 +12869,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9003,7 +12879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E48">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9011,7 +12887,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9019,7 +12895,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9029,7 +12905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:E57">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9037,7 +12913,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9045,7 +12921,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9055,7 +12931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:E67">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9063,7 +12939,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9071,7 +12947,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="72">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9081,7 +12957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:E77">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9089,7 +12965,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9097,7 +12973,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9107,7 +12983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:E87">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9115,7 +12991,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9123,7 +12999,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9133,7 +13009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31:T37">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9141,7 +13017,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9149,7 +13025,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9159,7 +13035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Z37">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9167,7 +13043,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9175,7 +13051,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9185,7 +13061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T26">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9193,7 +13069,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9201,7 +13077,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9211,7 +13087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:T16">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9219,7 +13095,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9227,7 +13103,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9237,7 +13113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:Z26">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9245,7 +13121,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9253,7 +13129,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9263,7 +13139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:Z16">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9271,7 +13147,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9279,7 +13155,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9289,7 +13165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41:Z47">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9297,7 +13173,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9305,7 +13181,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9315,7 +13191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:T47">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9323,7 +13199,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9331,7 +13207,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9341,7 +13217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:Z57">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9349,7 +13225,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9357,7 +13233,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9367,7 +13243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61:Z67">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9375,7 +13251,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9383,7 +13259,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9393,7 +13269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:T57">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9401,7 +13277,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9409,7 +13285,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9418,8 +13294,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR51:AU57">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="AR51:AU57 AT59">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9427,7 +13303,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9435,7 +13311,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9445,7 +13321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX51:BA57">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9453,7 +13329,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9461,7 +13337,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9471,7 +13347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:K57">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9479,7 +13355,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9487,7 +13363,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9497,7 +13373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:K47">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9505,7 +13381,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9513,7 +13389,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9523,7 +13399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51:AO57">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9531,7 +13407,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9539,7 +13415,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9549,7 +13425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51:AI57">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9557,7 +13433,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9565,7 +13441,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9575,7 +13451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF40:AI46">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9583,7 +13459,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9591,7 +13467,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9601,7 +13477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL40:AO46">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9609,7 +13485,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9617,7 +13493,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9627,7 +13503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR40:AU46">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="4.55"/>
@@ -9635,7 +13511,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="num" val="100"/>
@@ -9643,7 +13519,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="num" val="4.55"/>
         <cfvo type="max"/>
@@ -9653,6 +13529,188 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29:AI35">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR62:AU68">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ59">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX62:BA68">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF59">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD62:BG68">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ70">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX73:BA79">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="4.55"/>

--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="211">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -636,12 +636,42 @@
   <si>
     <t>SNR 60dB</t>
   </si>
+  <si>
+    <t>Tentativa de compensar com lambda</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>KaS</t>
+  </si>
+  <si>
+    <t>KxS</t>
+  </si>
+  <si>
+    <t>SNR 90</t>
+  </si>
+  <si>
+    <t>FE (Hz)</t>
+  </si>
+  <si>
+    <t>Q: este valor é sensível a pequenas variações em f0?</t>
+  </si>
+  <si>
+    <t>FE (uHz/Hz)</t>
+  </si>
+  <si>
+    <t>SNR60</t>
+  </si>
+  <si>
+    <t>FE_mean [Hz/Hz]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+  <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -652,8 +682,10 @@
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="#,##0.0"/>
-    <numFmt numFmtId="174" formatCode="0.00000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="174" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -816,7 +848,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -848,9 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -858,9 +887,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,7 +929,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1044,11 +1077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173769688"/>
-        <c:axId val="173770080"/>
+        <c:axId val="227675664"/>
+        <c:axId val="190750128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173769688"/>
+        <c:axId val="227675664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,12 +1138,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173770080"/>
+        <c:crossAx val="190750128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173770080"/>
+        <c:axId val="190750128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1200,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173769688"/>
+        <c:crossAx val="227675664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1379,11 +1412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173770864"/>
-        <c:axId val="173771256"/>
+        <c:axId val="227682168"/>
+        <c:axId val="227682552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173770864"/>
+        <c:axId val="227682168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,12 +1473,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173771256"/>
+        <c:crossAx val="227682552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173771256"/>
+        <c:axId val="227682552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1535,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173770864"/>
+        <c:crossAx val="227682168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1599,7 +1632,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15101039535412406"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1741,11 +1781,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307777800"/>
-        <c:axId val="307778584"/>
+        <c:axId val="190075872"/>
+        <c:axId val="190076264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307777800"/>
+        <c:axId val="190075872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,12 +1842,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307778584"/>
+        <c:crossAx val="190076264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307778584"/>
+        <c:axId val="190076264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1904,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307777800"/>
+        <c:crossAx val="190075872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3601,7 +3641,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3677,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3892,16 +3932,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4726,16 +4766,16 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>-9.57244380586053E-6</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <v>-9.7920881694954207E-6</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>-9.6357125344620394E-6</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>-9.0047810440393201E-6</v>
       </c>
     </row>
@@ -4760,16 +4800,16 @@
         <f t="shared" ref="H9:H14" si="1">H8+15</f>
         <v>15</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>-8.3746384370301203E-6</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <v>-8.3587241517644508E-6</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>-8.0737996586031492E-6</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <v>-1.28583069358799E-5</v>
       </c>
     </row>
@@ -4794,16 +4834,16 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>-3.8964108248178399E-6</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <v>-3.8757188063368496E-6</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>-3.3282619716553301E-6</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="32">
         <v>-6.0443574012536796E-6</v>
       </c>
     </row>
@@ -4828,16 +4868,16 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>2.0952764410862399E-6</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <v>2.0509387838728801E-6</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>1.9396962246196301E-6</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="32">
         <v>2.2951149939877801E-6</v>
       </c>
     </row>
@@ -4862,16 +4902,16 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>6.3566260732032704E-6</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>6.69592544415513E-6</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>6.7713085543636399E-6</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="32">
         <v>7.0433462225768999E-6</v>
       </c>
     </row>
@@ -4896,16 +4936,16 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>8.1886610668344893E-6</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>8.2913134656610996E-6</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>6.8429857623839501E-6</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="32">
         <v>7.7229339081436102E-6</v>
       </c>
     </row>
@@ -4930,16 +4970,16 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>8.6925063239644592E-6</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="33">
         <v>8.68491089193633E-6</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <v>8.1672153372090608E-6</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="34">
         <v>9.7422359752608796E-6</v>
       </c>
     </row>
@@ -4956,13 +4996,13 @@
       <c r="B16" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>4.1402230695797503E-6</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>1.28489980441458E-5</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>4.1626869015768299E-5</v>
       </c>
       <c r="F16" s="22">
@@ -5598,17 +5638,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z53"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5719,12 +5762,15 @@
         <v>2.5</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f>AVERAGE(D10:D16)</f>
         <v>3.1453896712518889E-3</v>
       </c>
       <c r="O8" t="s">
         <v>198</v>
+      </c>
+      <c r="P8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -5753,7 +5799,7 @@
         <v>197</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="R9" t="s">
         <v>196</v>
@@ -5778,8 +5824,8 @@
       <c r="G10">
         <v>2.9650229597465998E-3</v>
       </c>
-      <c r="I10" s="38">
-        <f>(D10-$I$8)*1000000</f>
+      <c r="I10" s="37">
+        <f t="shared" ref="I10:I16" si="1">(D10-$I$8)*1000000</f>
         <v>-162.04471070899868</v>
       </c>
       <c r="N10" s="22">
@@ -5788,8 +5834,8 @@
       <c r="O10">
         <v>-0.88849999999999996</v>
       </c>
-      <c r="P10" s="39">
-        <f t="shared" ref="P10:P16" si="1">D10</f>
+      <c r="P10" s="38">
+        <f>D10</f>
         <v>2.9833449605428902E-3</v>
       </c>
       <c r="Q10" s="1">
@@ -5798,6 +5844,10 @@
       <c r="R10" s="1">
         <v>8.7355477134117294E-6</v>
       </c>
+      <c r="S10">
+        <v>2.9821325200916201E-3</v>
+      </c>
+      <c r="T10" s="38"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C11" s="22">
@@ -5816,8 +5866,8 @@
       <c r="G11">
         <v>2.9573867417583399E-3</v>
       </c>
-      <c r="I11" s="38">
-        <f>(D11-$I$8)*1000000</f>
+      <c r="I11" s="37">
+        <f t="shared" si="1"/>
         <v>-181.11861066681885</v>
       </c>
       <c r="N11" s="22">
@@ -5827,8 +5877,8 @@
       <c r="O11">
         <v>14.02</v>
       </c>
-      <c r="P11" s="39">
-        <f t="shared" si="1"/>
+      <c r="P11" s="38">
+        <f t="shared" ref="P10:P16" si="4">D11</f>
         <v>2.96427106058507E-3</v>
       </c>
       <c r="Q11" s="1">
@@ -5836,6 +5886,9 @@
       </c>
       <c r="R11" s="1">
         <v>8.3285648880713903E-6</v>
+      </c>
+      <c r="S11">
+        <v>2.9638168336147399E-3</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -5855,8 +5908,8 @@
       <c r="G12">
         <v>2.9623773286500199E-3</v>
       </c>
-      <c r="I12" s="38">
-        <f>(D12-$I$8)*1000000</f>
+      <c r="I12" s="37">
+        <f t="shared" si="1"/>
         <v>-179.4920605514591</v>
       </c>
       <c r="N12" s="22">
@@ -5866,8 +5919,8 @@
       <c r="O12">
         <v>29.05</v>
       </c>
-      <c r="P12" s="39">
-        <f t="shared" si="1"/>
+      <c r="P12" s="38">
+        <f t="shared" si="4"/>
         <v>2.9658976107004298E-3</v>
       </c>
       <c r="Q12" s="1">
@@ -5875,6 +5928,9 @@
       </c>
       <c r="R12" s="1">
         <v>8.4014508285586596E-6</v>
+      </c>
+      <c r="S12">
+        <v>2.9657720866899601E-3</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -5894,8 +5950,8 @@
       <c r="G13">
         <v>3.0565053562884299E-3</v>
       </c>
-      <c r="I13" s="38">
-        <f>(D13-$I$8)*1000000</f>
+      <c r="I13" s="37">
+        <f t="shared" si="1"/>
         <v>-85.469853958408663</v>
       </c>
       <c r="N13" s="22">
@@ -5905,7 +5961,7 @@
       <c r="O13">
         <v>44.02</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="38">
         <f>D13</f>
         <v>3.0599198172934802E-3</v>
       </c>
@@ -5914,6 +5970,9 @@
       </c>
       <c r="R13" s="1">
         <v>8.5625670264466993E-6</v>
+      </c>
+      <c r="S13">
+        <v>3.0600385200630301E-3</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -5933,8 +5992,8 @@
       <c r="G14">
         <v>3.23046504489914E-3</v>
       </c>
-      <c r="I14" s="38">
-        <f>(D14-$I$8)*1000000</f>
+      <c r="I14" s="37">
+        <f t="shared" si="1"/>
         <v>87.490055531800905</v>
       </c>
       <c r="N14" s="22">
@@ -5944,8 +6003,8 @@
       <c r="O14">
         <v>58.96</v>
       </c>
-      <c r="P14" s="39">
-        <f t="shared" si="1"/>
+      <c r="P14" s="38">
+        <f t="shared" si="4"/>
         <v>3.2328797267836898E-3</v>
       </c>
       <c r="Q14" s="1">
@@ -5953,6 +6012,9 @@
       </c>
       <c r="R14" s="1">
         <v>8.63822189306331E-6</v>
+      </c>
+      <c r="S14">
+        <v>3.2321583393280298E-3</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -5972,8 +6034,8 @@
       <c r="G15">
         <v>3.3773683272386099E-3</v>
       </c>
-      <c r="I15" s="38">
-        <f>(D15-$I$8)*1000000</f>
+      <c r="I15" s="37">
+        <f t="shared" si="1"/>
         <v>239.326579576901</v>
       </c>
       <c r="N15" s="22">
@@ -5983,8 +6045,8 @@
       <c r="O15">
         <v>73.92</v>
       </c>
-      <c r="P15" s="39">
-        <f t="shared" si="1"/>
+      <c r="P15" s="38">
+        <f t="shared" si="4"/>
         <v>3.3847162508287899E-3</v>
       </c>
       <c r="Q15" s="1">
@@ -5992,6 +6054,9 @@
       </c>
       <c r="R15" s="1">
         <v>8.0193087172169995E-6</v>
+      </c>
+      <c r="S15">
+        <v>3.3844463417750598E-3</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -6011,8 +6076,8 @@
       <c r="G16">
         <v>3.4252148969755401E-3</v>
       </c>
-      <c r="I16" s="38">
-        <f>(D16-$I$8)*1000000</f>
+      <c r="I16" s="37">
+        <f t="shared" si="1"/>
         <v>281.30860077698117</v>
       </c>
       <c r="N16" s="22">
@@ -6022,8 +6087,8 @@
       <c r="O16">
         <v>88.92</v>
       </c>
-      <c r="P16" s="39">
-        <f t="shared" si="1"/>
+      <c r="P16" s="38">
+        <f t="shared" si="4"/>
         <v>3.4266982720288701E-3</v>
       </c>
       <c r="Q16" s="1">
@@ -6031,6 +6096,9 @@
       </c>
       <c r="R16" s="1">
         <v>8.1156624677001892E-6</v>
+      </c>
+      <c r="S16">
+        <v>3.4254717832023799E-3</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -6042,6 +6110,9 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="O18" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -6088,15 +6159,15 @@
         <v>178</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>1</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <f>AVERAGE(D25:D31)</f>
         <v>9.5878459547738579E-4</v>
       </c>
@@ -6163,20 +6234,20 @@
         <v>6.2244361981813896E-4</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="38">
+      <c r="I25" s="37">
         <f>(D25-$I$23)*1000000</f>
         <v>-309.45936387273576</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>8.8670204251039198E-6</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="31">
         <v>2.7067101865595301E-5</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="31">
         <v>8.8477949159010096E-5</v>
       </c>
       <c r="P25" s="22">
@@ -6185,36 +6256,36 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" s="22">
-        <f t="shared" ref="C26:C31" si="4">C25+15</f>
+        <f t="shared" ref="C26:C31" si="5">C25+15</f>
         <v>15</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <v>7.1230699647532002E-4</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>7.1457659272625997E-4</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>7.0436049815555696E-4</v>
       </c>
       <c r="G26" s="22">
         <v>6.9146551785868697E-4</v>
       </c>
       <c r="H26" s="22"/>
-      <c r="I26" s="38">
-        <f t="shared" ref="I26:I31" si="5">(D26-$I$23)*1000000</f>
+      <c r="I26" s="37">
+        <f t="shared" ref="I26:I31" si="6">(D26-$I$23)*1000000</f>
         <v>-246.47759900206577</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
-      <c r="M26" s="32">
+      <c r="M26" s="31">
         <v>9.0727278288669798E-6</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="31">
         <v>2.7790698750414798E-5</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="31">
         <v>8.91599482780796E-5</v>
       </c>
       <c r="P26" s="22">
@@ -6223,7 +6294,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D27" s="22">
@@ -6239,20 +6310,20 @@
         <v>8.0725001657839797E-4</v>
       </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="38">
-        <f t="shared" si="5"/>
+      <c r="I27" s="37">
+        <f t="shared" si="6"/>
         <v>-148.8530815794318</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="32">
+      <c r="M27" s="31">
         <v>9.2944758342257096E-6</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="31">
         <v>2.9513881761557301E-5</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="31">
         <v>8.6698422404580297E-5</v>
       </c>
       <c r="P27" s="22">
@@ -6261,7 +6332,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="D28" s="22">
@@ -6277,20 +6348,20 @@
         <v>9.2403690141077603E-4</v>
       </c>
       <c r="H28" s="22"/>
-      <c r="I28" s="38">
-        <f t="shared" si="5"/>
+      <c r="I28" s="37">
+        <f t="shared" si="6"/>
         <v>-49.340582011569836</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
-      <c r="M28" s="32">
+      <c r="M28" s="31">
         <v>9.1687155892800694E-6</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="31">
         <v>2.9630243720348501E-5</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="31">
         <v>9.38891216391001E-5</v>
       </c>
       <c r="P28" s="22">
@@ -6299,7 +6370,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D29" s="22">
@@ -6315,20 +6386,20 @@
         <v>1.0371289336115E-3</v>
       </c>
       <c r="H29" s="22"/>
-      <c r="I29" s="38">
-        <f t="shared" si="5"/>
+      <c r="I29" s="37">
+        <f t="shared" si="6"/>
         <v>95.489990337514286</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="32">
+      <c r="M29" s="31">
         <v>8.9138006564802304E-6</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="31">
         <v>2.8170104621381799E-5</v>
       </c>
-      <c r="O29" s="32">
+      <c r="O29" s="31">
         <v>8.7348449539535796E-5</v>
       </c>
       <c r="P29" s="22">
@@ -6337,7 +6408,7 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="D30" s="22">
@@ -6353,20 +6424,20 @@
         <v>1.1903783182213099E-3</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="38">
-        <f t="shared" si="5"/>
+      <c r="I30" s="37">
+        <f t="shared" si="6"/>
         <v>290.17365239437413</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="32">
+      <c r="M30" s="31">
         <v>8.6887337522692395E-6</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="31">
         <v>2.81580451473341E-5</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="31">
         <v>8.4262973618261805E-5</v>
       </c>
       <c r="P30" s="22">
@@ -6375,7 +6446,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="D31" s="22">
@@ -6391,20 +6462,20 @@
         <v>1.2671961238830401E-3</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="38">
-        <f t="shared" si="5"/>
+      <c r="I31" s="37">
+        <f t="shared" si="6"/>
         <v>368.46698373391422</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="32">
+      <c r="M31" s="31">
         <v>8.0757355553724208E-6</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="31">
         <v>2.6708817909565799E-5</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="31">
         <v>8.4869287901792796E-5</v>
       </c>
       <c r="P31" s="22">
@@ -6438,15 +6509,15 @@
         <v>178</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="35">
         <v>0.5</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <f>AVERAGE(D36:D42)</f>
         <v>3.6073956750752199E-4</v>
       </c>
@@ -6500,33 +6571,33 @@
       <c r="C36" s="22">
         <v>0</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>-3.3076864699439802E-6</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>-4.1922176969439599E-6</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <v>5.5875496264315901E-6</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="31">
         <v>4.35139323669427E-5</v>
       </c>
       <c r="H36" s="22"/>
-      <c r="I36" s="38">
+      <c r="I36" s="37">
         <f>(D36-$I$34)*1000000</f>
         <v>-364.04725397746597</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
-      <c r="M36" s="32">
+      <c r="M36" s="31">
         <v>1.02200228652624E-5</v>
       </c>
-      <c r="N36" s="32">
+      <c r="N36" s="31">
         <v>3.2010917191469503E-5</v>
       </c>
-      <c r="O36" s="32">
+      <c r="O36" s="31">
         <v>1.03890255564318E-4</v>
       </c>
       <c r="P36" s="22">
@@ -6535,36 +6606,36 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" s="22">
-        <f t="shared" ref="C37:C42" si="6">C36+15</f>
+        <f t="shared" ref="C37:C42" si="7">C36+15</f>
         <v>15</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>1.5564284624339301E-4</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>1.5348506834931701E-4</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <v>1.48653488968726E-4</v>
       </c>
       <c r="G37" s="22">
         <v>1.56142870862861E-4</v>
       </c>
       <c r="H37" s="22"/>
-      <c r="I37" s="38">
-        <f t="shared" ref="I37:I42" si="7">(D37-$I$34)*1000000</f>
+      <c r="I37" s="37">
+        <f t="shared" ref="I37:I42" si="8">(D37-$I$34)*1000000</f>
         <v>-205.09672126412897</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
-      <c r="M37" s="32">
+      <c r="M37" s="31">
         <v>1.02620152552613E-5</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="31">
         <v>3.0865616040655903E-5</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="31">
         <v>9.39398995813117E-5</v>
       </c>
       <c r="P37" s="22">
@@ -6573,7 +6644,7 @@
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D38" s="22">
@@ -6589,20 +6660,20 @@
         <v>3.37515719808659E-4</v>
       </c>
       <c r="H38" s="22"/>
-      <c r="I38" s="38">
-        <f t="shared" si="7"/>
+      <c r="I38" s="37">
+        <f t="shared" si="8"/>
         <v>-18.470692331533009</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="32">
+      <c r="M38" s="31">
         <v>9.7257374540873194E-6</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="31">
         <v>3.1792595768329198E-5</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O38" s="31">
         <v>9.63020084474202E-5</v>
       </c>
       <c r="P38" s="22">
@@ -6611,7 +6682,7 @@
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="D39" s="22">
@@ -6627,20 +6698,20 @@
         <v>4.6774187600274298E-4</v>
       </c>
       <c r="H39" s="22"/>
-      <c r="I39" s="38">
-        <f t="shared" si="7"/>
+      <c r="I39" s="37">
+        <f t="shared" si="8"/>
         <v>71.20803471767401</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="32">
+      <c r="M39" s="31">
         <v>1.02317607441151E-5</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="31">
         <v>3.3298877522241502E-5</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O39" s="31">
         <v>1.0136079558182999E-4</v>
       </c>
       <c r="P39" s="22">
@@ -6649,7 +6720,7 @@
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D40" s="22">
@@ -6665,20 +6736,20 @@
         <v>5.3885309897711399E-4</v>
       </c>
       <c r="H40" s="22"/>
-      <c r="I40" s="38">
-        <f t="shared" si="7"/>
+      <c r="I40" s="37">
+        <f t="shared" si="8"/>
         <v>138.80985074770203</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
-      <c r="M40" s="32">
+      <c r="M40" s="31">
         <v>1.0350174381919401E-5</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="31">
         <v>3.3604482565010201E-5</v>
       </c>
-      <c r="O40" s="32">
+      <c r="O40" s="31">
         <v>1.03481247486576E-4</v>
       </c>
       <c r="P40" s="22">
@@ -6687,7 +6758,7 @@
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="D41" s="22">
@@ -6703,20 +6774,20 @@
         <v>5.7832273037833999E-4</v>
       </c>
       <c r="H41" s="22"/>
-      <c r="I41" s="38">
-        <f t="shared" si="7"/>
+      <c r="I41" s="37">
+        <f t="shared" si="8"/>
         <v>180.741087023614</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
-      <c r="M41" s="32">
+      <c r="M41" s="31">
         <v>9.9469093785072393E-6</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="31">
         <v>3.1602812779433397E-5</v>
       </c>
-      <c r="O41" s="32">
+      <c r="O41" s="31">
         <v>9.6963126636688006E-5</v>
       </c>
       <c r="P41" s="22">
@@ -6725,7 +6796,7 @@
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D42" s="22">
@@ -6741,20 +6812,20 @@
         <v>5.6296799299565298E-4</v>
       </c>
       <c r="H42" s="22"/>
-      <c r="I42" s="38">
-        <f t="shared" si="7"/>
+      <c r="I42" s="37">
+        <f t="shared" si="8"/>
         <v>196.85569508413803</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
-      <c r="M42" s="32">
+      <c r="M42" s="31">
         <v>9.9583751671837795E-6</v>
       </c>
-      <c r="N42" s="32">
+      <c r="N42" s="31">
         <v>2.7950868759913199E-5</v>
       </c>
-      <c r="O42" s="32">
+      <c r="O42" s="31">
         <v>9.1900886767689604E-5</v>
       </c>
       <c r="P42" s="22">
@@ -6786,15 +6857,15 @@
       <c r="C45" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <v>0.1</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
-      <c r="I45" s="37">
+      <c r="I45" s="36">
         <f>AVERAGE(D47:D53)</f>
         <v>7.7103107830723202E-5</v>
       </c>
@@ -6848,33 +6919,33 @@
       <c r="C47" s="22">
         <v>0</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31">
         <v>-3.1038913831659002E-5</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <v>-3.3025284630234898E-5</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>-9.5251159833857504E-6</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="31">
         <v>3.3994083612078998E-5</v>
       </c>
       <c r="H47" s="22"/>
-      <c r="I47" s="38">
+      <c r="I47" s="37">
         <f>(D47-$I$45)*1000000</f>
         <v>-108.14202166238221</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
-      <c r="M47" s="32">
+      <c r="M47" s="31">
         <v>3.5099500220042299E-5</v>
       </c>
-      <c r="N47" s="32">
+      <c r="N47" s="31">
         <v>1.0114088350576501E-4</v>
       </c>
-      <c r="O47" s="32">
+      <c r="O47" s="31">
         <v>2.9423143976086699E-4</v>
       </c>
       <c r="P47" s="22">
@@ -6883,83 +6954,83 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" s="22">
-        <f t="shared" ref="C48:C53" si="8">C47+15</f>
+        <f t="shared" ref="C48:C53" si="9">C47+15</f>
         <v>15</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>4.4857488319600203E-6</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>-5.8297883270300402E-6</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="31">
         <v>-6.0600447583413597E-6</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="31">
         <v>2.4254440675321001E-5</v>
       </c>
       <c r="H48" s="22"/>
-      <c r="I48" s="38">
-        <f t="shared" ref="I48:I52" si="9">(D48-$I$45)*1000000</f>
+      <c r="I48" s="37">
+        <f t="shared" ref="I48:I52" si="10">(D48-$I$45)*1000000</f>
         <v>-72.61735899876318</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
-      <c r="M48" s="32">
+      <c r="M48" s="31">
         <v>3.1924773178143899E-5</v>
       </c>
-      <c r="N48" s="32">
+      <c r="N48" s="31">
         <v>9.1957097719627204E-5</v>
       </c>
-      <c r="O48" s="32">
+      <c r="O48" s="31">
         <v>2.8187814810678698E-4</v>
       </c>
       <c r="P48" s="22">
         <v>8.3164290811685998E-4</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <v>8.7467760387088602E-5</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>6.8301113217578401E-5</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <v>8.1051612275967103E-5</v>
       </c>
       <c r="G49" s="22">
         <v>2.3118231462740399E-4</v>
       </c>
       <c r="H49" s="22"/>
-      <c r="I49" s="38">
-        <f t="shared" si="9"/>
+      <c r="I49" s="37">
+        <f t="shared" si="10"/>
         <v>10.3646525563654</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
-      <c r="M49" s="32">
+      <c r="M49" s="31">
         <v>2.4429813440001198E-5</v>
       </c>
-      <c r="N49" s="32">
+      <c r="N49" s="31">
         <v>7.0450135863926099E-5</v>
       </c>
-      <c r="O49" s="32">
+      <c r="O49" s="31">
         <v>2.18185334389565E-4</v>
       </c>
       <c r="P49" s="22">
         <v>7.69579615921023E-4</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C50" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D50" s="22">
@@ -6975,29 +7046,29 @@
         <v>4.4810229867727901E-4</v>
       </c>
       <c r="H50" s="22"/>
-      <c r="I50" s="38">
-        <f t="shared" si="9"/>
+      <c r="I50" s="37">
+        <f t="shared" si="10"/>
         <v>100.35696017764481</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
-      <c r="M50" s="32">
+      <c r="M50" s="31">
         <v>1.8566065571249498E-5</v>
       </c>
-      <c r="N50" s="32">
+      <c r="N50" s="31">
         <v>5.4660519912981199E-5</v>
       </c>
-      <c r="O50" s="32">
+      <c r="O50" s="31">
         <v>1.7519047553209101E-4</v>
       </c>
       <c r="P50" s="22">
         <v>6.63856000301685E-4</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D51" s="22">
@@ -7013,29 +7084,29 @@
         <v>4.9903158738718602E-4</v>
       </c>
       <c r="H51" s="22"/>
-      <c r="I51" s="38">
-        <f t="shared" si="9"/>
+      <c r="I51" s="37">
+        <f t="shared" si="10"/>
         <v>90.352397234490795</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
-      <c r="M51" s="32">
+      <c r="M51" s="31">
         <v>1.16074482435335E-5</v>
       </c>
-      <c r="N51" s="32">
+      <c r="N51" s="31">
         <v>3.77808590077622E-5</v>
       </c>
-      <c r="O51" s="32">
+      <c r="O51" s="31">
         <v>1.2899235167727601E-4</v>
       </c>
       <c r="P51" s="22">
         <v>5.7564103994096395E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="D52" s="22">
@@ -7051,62 +7122,196 @@
         <v>5.9970087858638495E-4</v>
       </c>
       <c r="H52" s="22"/>
-      <c r="I52" s="38">
-        <f t="shared" si="9"/>
+      <c r="I52" s="37">
+        <f t="shared" si="10"/>
         <v>24.491843158246802</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
-      <c r="M52" s="32">
+      <c r="M52" s="31">
         <v>1.20789488270542E-5</v>
       </c>
-      <c r="N52" s="32">
+      <c r="N52" s="31">
         <v>3.77371441866912E-5</v>
       </c>
-      <c r="O52" s="32">
+      <c r="O52" s="31">
         <v>1.2403449762586101E-4</v>
       </c>
       <c r="P52" s="22">
         <v>5.3485088979735495E-4</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>3.2296635365120803E-5</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <v>3.5253249038399301E-5</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>7.4279403685947407E-5</v>
       </c>
       <c r="G53" s="22">
         <v>6.2474677835084799E-4</v>
       </c>
       <c r="H53" s="22"/>
-      <c r="I53" s="38">
+      <c r="I53" s="37">
         <f>(D53-$I$45)*1000000</f>
         <v>-44.806472465602397</v>
       </c>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="32">
+      <c r="M53" s="31">
         <v>1.3636817730051E-5</v>
       </c>
-      <c r="N53" s="32">
+      <c r="N53" s="31">
         <v>4.4314462806139199E-5</v>
       </c>
-      <c r="O53" s="32">
+      <c r="O53" s="31">
         <v>1.39602995152137E-4</v>
       </c>
       <c r="P53" s="22">
         <v>5.2136163441200603E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B61" s="40">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C61" s="41">
+        <f>1000000*B61/60</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B62" s="40">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="C62" s="41">
+        <f t="shared" ref="C62:C68" si="11">1000000*B62/60</f>
+        <v>-123.33333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B63" s="40">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="C63" s="41">
+        <f t="shared" si="11"/>
+        <v>-136.66666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B64" s="40">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="C64" s="41">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B65" s="40">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="C65" s="41">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B66" s="40">
+        <v>-2.3340000000000001E-4</v>
+      </c>
+      <c r="C66" s="41">
+        <f t="shared" si="11"/>
+        <v>-3.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="40">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C67" s="41">
+        <f t="shared" si="11"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B68" s="40">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C68" s="41">
+        <f t="shared" si="11"/>
+        <v>2983.3333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -7296,7 +7501,7 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>150</v>
       </c>
     </row>
@@ -13024,60 +13229,60 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -14456,7 +14661,7 @@
       <c r="O14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="30">
         <v>6</v>
       </c>
       <c r="Q14" s="20"/>

--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="224">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -622,9 +622,6 @@
     <t>phi_0_est</t>
   </si>
   <si>
-    <t>FE_std</t>
-  </si>
-  <si>
     <t>correção @ 60dB</t>
   </si>
   <si>
@@ -666,6 +663,48 @@
   <si>
     <t>FE_mean [Hz/Hz]</t>
   </si>
+  <si>
+    <t>Aproximando a freq pela média de gradient(theta)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; faz sentido aplicar o PATV?</t>
+  </si>
+  <si>
+    <t>&lt;&lt; lambda não é capaz de realizar uma compensação suficiente</t>
+  </si>
+  <si>
+    <t>pois continua fortemente dependente do ruído e da fase inicial</t>
+  </si>
+  <si>
+    <t>FE_std [Hz/Hz]</t>
+  </si>
+  <si>
+    <t>FE[Hz/Hz]</t>
+  </si>
+  <si>
+    <t>std FE [Hz/Hz]</t>
+  </si>
+  <si>
+    <t>O erro sistemático é menor do que o estimador baseado na mediana de f_i, mas o desvio padrão é maior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erro </t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>ferr</t>
+  </si>
+  <si>
+    <t>aumentando a freq chaveamento melhora !!!</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Hz/Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -684,8 +723,8 @@
     <numFmt numFmtId="172" formatCode="#,##0.0"/>
     <numFmt numFmtId="173" formatCode="0.00000000"/>
     <numFmt numFmtId="174" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -848,7 +887,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -890,11 +929,14 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,11 +1119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227675664"/>
-        <c:axId val="190750128"/>
+        <c:axId val="121719400"/>
+        <c:axId val="157056696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227675664"/>
+        <c:axId val="121719400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,12 +1180,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190750128"/>
+        <c:crossAx val="157056696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190750128"/>
+        <c:axId val="157056696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1242,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227675664"/>
+        <c:crossAx val="121719400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1412,11 +1454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227682168"/>
-        <c:axId val="227682552"/>
+        <c:axId val="157451176"/>
+        <c:axId val="121717832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227682168"/>
+        <c:axId val="157451176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,12 +1515,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227682552"/>
+        <c:crossAx val="121717832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227682552"/>
+        <c:axId val="121717832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1577,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227682168"/>
+        <c:crossAx val="157451176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1745,7 +1787,7 @@
             <c:numRef>
               <c:f>'FE-causas'!$D$10:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0.000000_-;\-* #,##0.000000_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.9833449605428902E-3</c:v>
@@ -1753,19 +1795,19 @@
                 <c:pt idx="1">
                   <c:v>2.96427106058507E-3</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="2">
                   <c:v>2.9658976107004298E-3</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
+                <c:pt idx="3">
                   <c:v>3.0599198172934802E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
+                <c:pt idx="4">
                   <c:v>3.2328797267836898E-3</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
+                <c:pt idx="5">
                   <c:v>3.3847162508287899E-3</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
+                <c:pt idx="6">
                   <c:v>3.4266982720288701E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1781,11 +1823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190075872"/>
-        <c:axId val="190076264"/>
+        <c:axId val="221707704"/>
+        <c:axId val="156102744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190075872"/>
+        <c:axId val="221707704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,12 +1884,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190076264"/>
+        <c:crossAx val="156102744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190076264"/>
+        <c:axId val="156102744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1909,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1904,7 +1946,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190075872"/>
+        <c:crossAx val="221707704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3641,7 +3683,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3719,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5638,19 +5680,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5678,7 +5728,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -5767,7 +5817,7 @@
         <v>3.1453896712518889E-3</v>
       </c>
       <c r="O8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P8" t="s">
         <v>153</v>
@@ -5778,7 +5828,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="22">
         <v>50</v>
@@ -5796,13 +5846,13 @@
         <v>195</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R9" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -5812,20 +5862,20 @@
       <c r="C10" s="22">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="42">
         <v>2.9833449605428902E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="43">
         <v>2.9830740291139001E-3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="43">
         <v>2.9856236988032498E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="43">
         <v>2.9650229597465998E-3</v>
       </c>
       <c r="I10" s="37">
-        <f t="shared" ref="I10:I16" si="1">(D10-$I$8)*1000000</f>
+        <f>(D10-$I$8)*1000000</f>
         <v>-162.04471070899868</v>
       </c>
       <c r="N10" s="22">
@@ -5851,23 +5901,23 @@
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C11" s="22">
-        <f t="shared" ref="C11:C16" si="2">C10+15</f>
+        <f t="shared" ref="C11:C16" si="1">C10+15</f>
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="43">
         <v>2.96427106058507E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="43">
         <v>2.9636644484178402E-3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="43">
         <v>2.9696511399392501E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="43">
         <v>2.9573867417583399E-3</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I10:I16" si="2">(D11-$I$8)*1000000</f>
         <v>-181.11861066681885</v>
       </c>
       <c r="N11" s="22">
@@ -5878,7 +5928,7 @@
         <v>14.02</v>
       </c>
       <c r="P11" s="38">
-        <f t="shared" ref="P10:P16" si="4">D11</f>
+        <f t="shared" ref="P11:P16" si="4">D11</f>
         <v>2.96427106058507E-3</v>
       </c>
       <c r="Q11" s="1">
@@ -5893,23 +5943,23 @@
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="43">
+        <v>2.9658976107004298E-3</v>
+      </c>
+      <c r="E12" s="43">
+        <v>2.9665716523075902E-3</v>
+      </c>
+      <c r="F12" s="43">
+        <v>2.9687694857133099E-3</v>
+      </c>
+      <c r="G12" s="43">
+        <v>2.9623773286500199E-3</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.9658976107004298E-3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.9665716523075902E-3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.9687694857133099E-3</v>
-      </c>
-      <c r="G12">
-        <v>2.9623773286500199E-3</v>
-      </c>
-      <c r="I12" s="37">
-        <f t="shared" si="1"/>
         <v>-179.4920605514591</v>
       </c>
       <c r="N12" s="22">
@@ -5935,23 +5985,23 @@
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C13" s="22">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D13" s="43">
+        <v>3.0599198172934802E-3</v>
+      </c>
+      <c r="E13" s="43">
+        <v>3.0605195500214202E-3</v>
+      </c>
+      <c r="F13" s="43">
+        <v>3.0603759658641401E-3</v>
+      </c>
+      <c r="G13" s="43">
+        <v>3.0565053562884299E-3</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.0599198172934802E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.0605195500214202E-3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.0603759658641401E-3</v>
-      </c>
-      <c r="G13">
-        <v>3.0565053562884299E-3</v>
-      </c>
-      <c r="I13" s="37">
-        <f t="shared" si="1"/>
         <v>-85.469853958408663</v>
       </c>
       <c r="N13" s="22">
@@ -5977,23 +6027,23 @@
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C14" s="22">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D14" s="43">
+        <v>3.2328797267836898E-3</v>
+      </c>
+      <c r="E14" s="43">
+        <v>3.2335752915547502E-3</v>
+      </c>
+      <c r="F14" s="43">
+        <v>3.2437878909207401E-3</v>
+      </c>
+      <c r="G14" s="43">
+        <v>3.23046504489914E-3</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.2328797267836898E-3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.2335752915547502E-3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3.2437878909207401E-3</v>
-      </c>
-      <c r="G14">
-        <v>3.23046504489914E-3</v>
-      </c>
-      <c r="I14" s="37">
-        <f t="shared" si="1"/>
         <v>87.490055531800905</v>
       </c>
       <c r="N14" s="22">
@@ -6019,23 +6069,23 @@
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C15" s="22">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D15" s="43">
+        <v>3.3847162508287899E-3</v>
+      </c>
+      <c r="E15" s="43">
+        <v>3.3858834611352E-3</v>
+      </c>
+      <c r="F15" s="43">
+        <v>3.3877276842113001E-3</v>
+      </c>
+      <c r="G15" s="43">
+        <v>3.3773683272386099E-3</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.3847162508287899E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3.3858834611352E-3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.3877276842113001E-3</v>
-      </c>
-      <c r="G15">
-        <v>3.3773683272386099E-3</v>
-      </c>
-      <c r="I15" s="37">
-        <f t="shared" si="1"/>
         <v>239.326579576901</v>
       </c>
       <c r="N15" s="22">
@@ -6061,23 +6111,23 @@
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C16" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D16" s="43">
+        <v>3.4266982720288701E-3</v>
+      </c>
+      <c r="E16" s="43">
+        <v>3.4260835842907099E-3</v>
+      </c>
+      <c r="F16" s="43">
+        <v>3.4286377413187E-3</v>
+      </c>
+      <c r="G16" s="43">
+        <v>3.4252148969755401E-3</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.4266982720288701E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.4260835842907099E-3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3.4286377413187E-3</v>
-      </c>
-      <c r="G16">
-        <v>3.4252148969755401E-3</v>
-      </c>
-      <c r="I16" s="37">
-        <f t="shared" si="1"/>
         <v>281.30860077698117</v>
       </c>
       <c r="N16" s="22">
@@ -6111,7 +6161,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="O18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -7182,18 +7232,18 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7201,31 +7251,31 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="39">
         <v>2.7E-2</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="40">
         <f>1000000*B61/60</f>
         <v>450</v>
       </c>
@@ -7234,10 +7284,10 @@
       <c r="A62" s="1">
         <v>1E-4</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="39">
         <v>-7.4000000000000003E-3</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="40">
         <f t="shared" ref="C62:C68" si="11">1000000*B62/60</f>
         <v>-123.33333333333333</v>
       </c>
@@ -7246,10 +7296,10 @@
       <c r="A63" s="1">
         <v>1E-3</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="39">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="40">
         <f t="shared" si="11"/>
         <v>-136.66666666666666</v>
       </c>
@@ -7258,60 +7308,405 @@
       <c r="A64" s="1">
         <v>0.01</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="39">
         <v>-1.2E-2</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="40">
         <f t="shared" si="11"/>
         <v>-200</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.1</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="39">
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="40">
         <f t="shared" si="11"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.5</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="39">
         <v>-2.3340000000000001E-4</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="40">
         <f t="shared" si="11"/>
         <v>-3.89</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="40">
         <f t="shared" si="11"/>
         <v>650</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2.5</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="39">
         <v>0.17899999999999999</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="40">
         <f t="shared" si="11"/>
         <v>2983.3333333333335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="36"/>
+      <c r="K72" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="22">
+        <v>60</v>
+      </c>
+      <c r="C73" s="22">
+        <v>50</v>
+      </c>
+      <c r="D73" s="22">
+        <v>40</v>
+      </c>
+      <c r="E73" s="22">
+        <v>30</v>
+      </c>
+      <c r="K73" s="22">
+        <v>60</v>
+      </c>
+      <c r="L73" s="22">
+        <v>50</v>
+      </c>
+      <c r="M73" s="22">
+        <v>40</v>
+      </c>
+      <c r="N73" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
+        <v>0</v>
+      </c>
+      <c r="B74" s="42">
+        <v>1.08526998481558E-4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>1.0974513043231201E-4</v>
+      </c>
+      <c r="D74" s="42">
+        <v>1.12682126063935E-4</v>
+      </c>
+      <c r="E74" s="42">
+        <v>9.9277883230108007E-5</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="J74" s="22">
+        <v>0</v>
+      </c>
+      <c r="K74" s="42">
+        <v>4.0065379109304601E-5</v>
+      </c>
+      <c r="L74" s="42">
+        <v>1.29839123484923E-4</v>
+      </c>
+      <c r="M74" s="42">
+        <v>3.96577796146004E-4</v>
+      </c>
+      <c r="N74" s="42">
+        <v>1.2625203199401001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <f t="shared" ref="A75:A80" si="12">A74+15</f>
+        <v>15</v>
+      </c>
+      <c r="B75" s="42">
+        <v>4.2097443873959501E-4</v>
+      </c>
+      <c r="C75" s="42">
+        <v>4.1716290738053898E-4</v>
+      </c>
+      <c r="D75" s="42">
+        <v>4.32318321801057E-4</v>
+      </c>
+      <c r="E75" s="42">
+        <v>3.8653389456714897E-4</v>
+      </c>
+      <c r="G75" s="37"/>
+      <c r="J75" s="22">
+        <f t="shared" ref="J75:J80" si="13">J74+15</f>
+        <v>15</v>
+      </c>
+      <c r="K75" s="42">
+        <v>4.1301850461261998E-5</v>
+      </c>
+      <c r="L75" s="42">
+        <v>1.27879864515799E-4</v>
+      </c>
+      <c r="M75" s="42">
+        <v>4.03234742498921E-4</v>
+      </c>
+      <c r="N75" s="42">
+        <v>1.26735408774957E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="B76" s="42">
+        <v>1.20217753866611E-3</v>
+      </c>
+      <c r="C76" s="42">
+        <v>1.2026441252108E-3</v>
+      </c>
+      <c r="D76" s="42">
+        <v>1.21655599494351E-3</v>
+      </c>
+      <c r="E76" s="42">
+        <v>1.1377481996397501E-3</v>
+      </c>
+      <c r="G76" s="37"/>
+      <c r="J76" s="22">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K76" s="42">
+        <v>4.3128724138504603E-5</v>
+      </c>
+      <c r="L76" s="42">
+        <v>1.3423452245478999E-4</v>
+      </c>
+      <c r="M76" s="42">
+        <v>4.3606047762709998E-4</v>
+      </c>
+      <c r="N76" s="42">
+        <v>1.44592646278795E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="B77" s="42">
+        <v>2.4373485454174302E-3</v>
+      </c>
+      <c r="C77" s="42">
+        <v>2.4277435970044398E-3</v>
+      </c>
+      <c r="D77" s="42">
+        <v>2.4172958685149499E-3</v>
+      </c>
+      <c r="E77" s="42">
+        <v>2.3737118255027102E-3</v>
+      </c>
+      <c r="G77" s="37"/>
+      <c r="J77" s="22">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="K77" s="42">
+        <v>4.506147540637E-5</v>
+      </c>
+      <c r="L77" s="42">
+        <v>1.45445305501056E-4</v>
+      </c>
+      <c r="M77" s="42">
+        <v>4.7081346813079101E-4</v>
+      </c>
+      <c r="N77" s="42">
+        <v>1.4326410853651001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="B78" s="42">
+        <v>3.9263760522917903E-3</v>
+      </c>
+      <c r="C78" s="42">
+        <v>3.9282097005555001E-3</v>
+      </c>
+      <c r="D78" s="42">
+        <v>3.9138729275940698E-3</v>
+      </c>
+      <c r="E78" s="42">
+        <v>3.8422086938569499E-3</v>
+      </c>
+      <c r="G78" s="37"/>
+      <c r="J78" s="22">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="K78" s="42">
+        <v>4.7969085630769702E-5</v>
+      </c>
+      <c r="L78" s="42">
+        <v>1.4714183496513099E-4</v>
+      </c>
+      <c r="M78" s="42">
+        <v>4.84844799503978E-4</v>
+      </c>
+      <c r="N78" s="42">
+        <v>1.53617133378922E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="42">
+        <v>5.1707163210417103E-3</v>
+      </c>
+      <c r="C79" s="42">
+        <v>5.1711454196450698E-3</v>
+      </c>
+      <c r="D79" s="42">
+        <v>5.1767069336665101E-3</v>
+      </c>
+      <c r="E79" s="42">
+        <v>5.2238834842917503E-3</v>
+      </c>
+      <c r="G79" s="37"/>
+      <c r="J79" s="22">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="K79" s="42">
+        <v>5.25054376108973E-5</v>
+      </c>
+      <c r="L79" s="42">
+        <v>1.6732389004285399E-4</v>
+      </c>
+      <c r="M79" s="42">
+        <v>5.0108971349993104E-4</v>
+      </c>
+      <c r="N79" s="42">
+        <v>1.62802610157884E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="B80" s="42">
+        <v>5.5312892936176996E-3</v>
+      </c>
+      <c r="C80" s="42">
+        <v>5.53349753447908E-3</v>
+      </c>
+      <c r="D80" s="42">
+        <v>5.52443854796595E-3</v>
+      </c>
+      <c r="E80" s="42">
+        <v>5.5300708712140399E-3</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="J80" s="22">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="K80" s="42">
+        <v>5.27304000016645E-5</v>
+      </c>
+      <c r="L80" s="42">
+        <v>1.5756128707651801E-4</v>
+      </c>
+      <c r="M80" s="42">
+        <v>5.1780473377178104E-4</v>
+      </c>
+      <c r="N80" s="42">
+        <v>1.61252640875811E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="38">
+        <f>C88-C87*C88</f>
+        <v>59.999940000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="44">
+        <v>-2.9046972986323001E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="44">
+        <f>C93/60</f>
+        <v>-4.841162164387167E-7</v>
       </c>
     </row>
   </sheetData>
@@ -13229,60 +13624,60 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">

--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779368AB-42CE-4752-8795-B9693917E139}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="4" r:id="rId1"/>
     <sheet name="EPS comparison" sheetId="2" r:id="rId2"/>
     <sheet name="II-B2-FE" sheetId="1" r:id="rId3"/>
     <sheet name="EPS-case1" sheetId="6" r:id="rId4"/>
-    <sheet name="EPS-case3" sheetId="5" r:id="rId5"/>
+    <sheet name="EPS-case2" sheetId="7" r:id="rId5"/>
+    <sheet name="EPS-case3" sheetId="5" r:id="rId6"/>
+    <sheet name="guidelines" sheetId="8" r:id="rId7"/>
+    <sheet name="Planilha3" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="138">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -365,22 +369,98 @@
   <si>
     <t>CASO 1</t>
   </si>
+  <si>
+    <t>&gt;&gt; o desempenho é aparentemente insensível a variações em lambda theta entre 0.5 e 10</t>
+  </si>
+  <si>
+    <t>&gt;&gt; fixando lambda_theta em 2, o desempenho fica semelhante com lambda a entre 1.5 e 5</t>
+  </si>
+  <si>
+    <t>CASO 2</t>
+  </si>
+  <si>
+    <t>CASO2</t>
+  </si>
+  <si>
+    <t>OK, há alguma sensibilidade com lambda.</t>
+  </si>
+  <si>
+    <t>Mas antes disso, seguindo a linha do que o PE escreveu, precisamos:</t>
+  </si>
+  <si>
+    <t>retirar os operadores mediana desnecessários</t>
+  </si>
+  <si>
+    <t>a) performance sensibility wrt the choice of lambda, polynomial order d, and fixed threshold values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c) investigate the source of bias in the phasor frequency estimate and a way to compensate for it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) to remove the arbitrary choices of the fixed threshold values, I would strongly recommend you to re-think the formulation of the detectors, 
+in order to remove the unnecessary median operators and to incorporate the maximum variation of the smooth function s[n] as a means to guide the threshold choice. </t>
+  </si>
+  <si>
+    <t>Estudo do detector de magnitude</t>
+  </si>
+  <si>
+    <t>1 - retiramos o operador mediana desnecessário</t>
+  </si>
+  <si>
+    <t>Não houve alteração no desempenho.</t>
+  </si>
+  <si>
+    <t>2 - investigar a variação normal do sinal de detecção e os valores típicos de pico.</t>
+  </si>
+  <si>
+    <t>3 - determinar um valor de limiar condizente com 2</t>
+  </si>
+  <si>
+    <t>Como?</t>
+  </si>
+  <si>
+    <t>Vamos começar pelo pior caso para magnitude</t>
+  </si>
+  <si>
+    <t>SNR = 30db</t>
+  </si>
+  <si>
+    <t>Ph = 90 graus</t>
+  </si>
+  <si>
+    <t>provavelmente há influência de lambda_a</t>
+  </si>
+  <si>
+    <t>Escolhemos d = 0, polinomio constante.</t>
+  </si>
+  <si>
+    <t>Para o caso 1, com SNR 60 db e phi0 = 90 graus</t>
+  </si>
+  <si>
+    <t>SNR = 30</t>
+  </si>
+  <si>
+    <t>Para fins de determinação do limiar, precisamos definir uma variação normal de dm.</t>
+  </si>
+  <si>
+    <t>para d = 1, entre os pontos 0 a 200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -521,28 +601,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -556,6 +636,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +659,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -615,7 +698,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -724,7 +807,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EEA-4B85-927C-A7AEAD4C23BC}"/>
             </c:ext>
@@ -796,7 +879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="164084264"/>
@@ -858,7 +941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="164084656"/>
@@ -899,7 +982,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -911,7 +994,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -950,7 +1033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1059,7 +1142,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-559D-4750-AAF7-10F1CE6B8113}"/>
             </c:ext>
@@ -1131,7 +1214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239852432"/>
@@ -1193,7 +1276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239852824"/>
@@ -1234,7 +1317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2377,7 +2460,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2496,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,10 +2517,259 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>387994</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747B3E4E-4419-4A1F-8B09-019B09CABF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6126480" y="883920"/>
+          <a:ext cx="4015114" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319342</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB95F7B9-C91A-4BF2-8262-737B9B820276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6210300" y="3893820"/>
+          <a:ext cx="3862642" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>461679</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12249CF8-CCD7-4C14-BFA7-4C1D1EF86AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6149340" y="6774180"/>
+          <a:ext cx="4065939" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB13BAD8-4652-46A2-9144-1B4D17953BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9974580" y="6697979"/>
+          <a:ext cx="4084320" cy="3061779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2475,7 +2807,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2510,6 +2842,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2545,9 +2894,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2720,41 +3086,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -2768,7 +3134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -2800,7 +3166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2836,7 +3202,7 @@
         <v>4.6525502333783298E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +3238,7 @@
         <v>0.131483936121503</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -2886,7 +3252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -2918,7 +3284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2954,7 +3320,7 @@
         <v>1.2548237159175499</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2990,7 +3356,7 @@
         <v>0.26649080307221995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -3004,7 +3370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -3036,7 +3402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3438,7 @@
         <v>1.1684859453060001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -3114,26 +3480,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z69"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>61</v>
       </c>
@@ -3160,7 +3526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3192,7 +3558,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3236,7 +3602,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3279,7 +3645,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10:A15" si="1">A9+15</f>
         <v>15</v>
@@ -3323,7 +3689,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -3364,7 +3730,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3408,7 +3774,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -3452,7 +3818,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3480,7 +3846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3505,17 +3871,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3532,13 +3898,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ref="A20:A25" si="2">A19+15</f>
         <v>15</v>
@@ -3551,7 +3917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3571,7 +3937,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3584,7 +3950,7 @@
         <v>1.0699999999999999E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -3597,14 +3963,14 @@
         <v>1.2400000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -3629,7 +3995,7 @@
         <v>1.7017543859649122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3641,7 +4007,7 @@
         <v>266355140.1869159</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3665,7 +4031,7 @@
         <v>2298387.0967741935</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3674,7 +4040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ref="A29:A34" si="3">A28+15</f>
         <v>15</v>
@@ -3687,7 +4053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3697,50 +4063,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3760,7 +4126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3780,7 +4146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="4">A41+15</f>
         <v>15</v>
@@ -3801,7 +4167,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -3822,7 +4188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -3840,7 +4206,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -3858,7 +4224,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -3879,7 +4245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -3900,12 +4266,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3922,7 +4288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3939,7 +4305,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" ref="A53:A58" si="5">A52+15</f>
         <v>15</v>
@@ -3957,7 +4323,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -3975,7 +4341,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -3993,7 +4359,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4011,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -4029,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -4047,12 +4413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4069,7 +4435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4086,7 +4452,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" ref="A64:A69" si="6">A63+15</f>
         <v>15</v>
@@ -4104,7 +4470,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -4122,7 +4488,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -4140,7 +4506,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -4158,7 +4524,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -4176,7 +4542,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -4200,46 +4566,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4259,7 +4625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4279,17 +4645,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4318,7 +4684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4713,7 @@
         <v>3.2802614457142702E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4376,7 +4742,7 @@
         <v>4.5071145312710101E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4393,7 +4759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4431,7 +4797,7 @@
         <v>2.0769202567494901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4469,12 +4835,12 @@
         <v>4.4871321568041602E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4503,7 +4869,7 @@
         <v>9.2702022162879298E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4532,18 +4898,18 @@
         <v>4.9477639907994698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4572,7 +4938,7 @@
         <v>1.0209234467157E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4601,29 +4967,29 @@
         <v>8.9328868849508105E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G30" s="6"/>
       <c r="J30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4998,7 @@
         <v>2.1605377722768151E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4653,24 +5019,24 @@
         <v>-6.9987981883495171E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -4687,7 +5053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -4704,7 +5070,7 @@
         <v>-1.8357987678080999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>1.3870852577291001E-5</v>
       </c>
@@ -4718,7 +5084,7 @@
         <v>4.3177118710681502E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -4738,7 +5104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>1.632029604517E-5</v>
       </c>
@@ -4755,12 +5121,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4780,7 +5146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>1.7113734935356899E-5</v>
       </c>
@@ -4806,7 +5172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>10</v>
       </c>
@@ -4820,7 +5186,7 @@
         <v>1.4458157246083101E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4850,7 +5216,7 @@
         <v>1.8148094370953901E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>1.73263306517101E-5</v>
       </c>
@@ -4877,7 +5243,7 @@
         <v>3.5223250677112199E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H50">
         <f t="shared" ref="H50:H55" si="1">H49+15</f>
         <v>45</v>
@@ -4892,7 +5258,7 @@
         <v>4.9611771021625703E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -4922,7 +5288,7 @@
         <v>5.0677305705378397E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>2.0277905166956101E-5</v>
       </c>
@@ -4949,7 +5315,7 @@
         <v>5.7550877009226596E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4964,7 +5330,7 @@
         <v>5.53791658750513E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -4994,7 +5360,7 @@
         <v>5.97704462378584E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>1.9175126747274499E-5</v>
       </c>
@@ -5028,16 +5394,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:AU76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A4:AU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15:W21"/>
+    <sheetView topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34:W43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="12" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="19:35" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="19:35" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="19:35" x14ac:dyDescent="0.3">
       <c r="U12" t="s">
         <v>88</v>
       </c>
@@ -5069,7 +5445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S13" s="17" t="s">
         <v>112</v>
       </c>
@@ -5107,7 +5483,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>50</v>
       </c>
@@ -5154,7 +5530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S15">
         <v>0</v>
       </c>
@@ -5201,7 +5577,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S16">
         <f t="shared" ref="S16:S21" si="0">S15+15</f>
         <v>15</v>
@@ -5251,7 +5627,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5301,7 +5677,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S18">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5351,7 +5727,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S19">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5401,7 +5777,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S20">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5451,7 +5827,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S21">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -5501,7 +5877,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -5536,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>112</v>
       </c>
@@ -5586,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -5648,7 +6024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5710,7 +6086,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A32" si="3">A26+15</f>
         <v>15</v>
@@ -5776,7 +6152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5842,7 +6218,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5908,7 +6284,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -5974,7 +6350,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -6040,7 +6416,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -6106,8 +6482,8 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="33" spans="13:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:47" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="13:47" x14ac:dyDescent="0.3">
       <c r="O34" t="s">
         <v>88</v>
       </c>
@@ -6161,7 +6537,7 @@
       </c>
       <c r="AU34" s="22"/>
     </row>
-    <row r="35" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M35" s="17" t="s">
         <v>112</v>
       </c>
@@ -6241,7 +6617,7 @@
       </c>
       <c r="AU35" s="22"/>
     </row>
-    <row r="36" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M36" t="s">
         <v>50</v>
       </c>
@@ -6334,7 +6710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M37">
         <v>0</v>
       </c>
@@ -6427,7 +6803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M38">
         <f t="shared" ref="M38:M43" si="7">M37+15</f>
         <v>15</v>
@@ -6526,7 +6902,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M39">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -6625,7 +7001,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M40">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -6724,7 +7100,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="41" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M41">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -6823,7 +7199,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:47" x14ac:dyDescent="0.3">
       <c r="M42">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -6922,7 +7298,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="43" spans="13:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="13:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M43">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -7021,7 +7397,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="45" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:47" x14ac:dyDescent="0.3">
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
       <c r="U45" s="22" t="s">
@@ -7032,7 +7408,7 @@
       </c>
       <c r="W45" s="22"/>
     </row>
-    <row r="46" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:47" x14ac:dyDescent="0.3">
       <c r="S46" s="28" t="s">
         <v>112</v>
       </c>
@@ -7047,7 +7423,7 @@
       </c>
       <c r="W46" s="22"/>
     </row>
-    <row r="47" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:47" x14ac:dyDescent="0.3">
       <c r="S47" s="22" t="s">
         <v>50</v>
       </c>
@@ -7064,7 +7440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:47" x14ac:dyDescent="0.3">
       <c r="S48" s="22">
         <v>0</v>
       </c>
@@ -7081,7 +7457,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="49" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S49" s="22">
         <f t="shared" ref="S49:S54" si="13">S48+15</f>
         <v>15</v>
@@ -7099,7 +7475,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S50" s="22">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -7117,7 +7493,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S51" s="22">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -7135,7 +7511,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S52" s="22">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -7153,7 +7529,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="53" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S53" s="22">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -7171,7 +7547,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="54" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S54" s="22">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -7189,7 +7565,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="56" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22" t="s">
@@ -7200,7 +7576,7 @@
       </c>
       <c r="W56" s="22"/>
     </row>
-    <row r="57" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S57" s="28" t="s">
         <v>112</v>
       </c>
@@ -7215,7 +7591,7 @@
       </c>
       <c r="W57" s="22"/>
     </row>
-    <row r="58" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S58" s="22" t="s">
         <v>50</v>
       </c>
@@ -7232,7 +7608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S59" s="22">
         <v>0</v>
       </c>
@@ -7249,7 +7625,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S60" s="22">
         <f t="shared" ref="S60:S65" si="14">S59+15</f>
         <v>15</v>
@@ -7267,7 +7643,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S61" s="22">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -7285,7 +7661,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S62" s="22">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -7303,7 +7679,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="63" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S63" s="22">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -7321,7 +7697,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="64" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S64" s="22">
         <f t="shared" si="14"/>
         <v>75</v>
@@ -7339,7 +7715,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="65" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S65" s="22">
         <f t="shared" si="14"/>
         <v>90</v>
@@ -7357,7 +7733,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="67" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
       <c r="U67" s="22" t="s">
@@ -7368,7 +7744,7 @@
       </c>
       <c r="W67" s="22"/>
     </row>
-    <row r="68" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S68" s="28" t="s">
         <v>112</v>
       </c>
@@ -7383,7 +7759,7 @@
       </c>
       <c r="W68" s="22"/>
     </row>
-    <row r="69" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S69" s="22" t="s">
         <v>50</v>
       </c>
@@ -7400,7 +7776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S70" s="22">
         <v>0</v>
       </c>
@@ -7417,7 +7793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S71" s="22">
         <f t="shared" ref="S71:S76" si="15">S70+15</f>
         <v>15</v>
@@ -7435,7 +7811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S72" s="22">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -7453,7 +7829,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S73" s="22">
         <f t="shared" si="15"/>
         <v>45</v>
@@ -7471,7 +7847,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="74" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S74" s="22">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -7489,7 +7865,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="75" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S75" s="22">
         <f t="shared" si="15"/>
         <v>75</v>
@@ -7507,7 +7883,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="76" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S76" s="22">
         <f t="shared" si="15"/>
         <v>90</v>
@@ -8259,22 +8635,823 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF74377-79DE-4849-BD1C-400F46B034BE}">
+  <dimension ref="C12:M33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="12" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="19">
+        <v>2</v>
+      </c>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="I14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="22">
+        <v>60</v>
+      </c>
+      <c r="E15" s="22">
+        <v>50</v>
+      </c>
+      <c r="F15" s="22">
+        <v>40</v>
+      </c>
+      <c r="G15" s="23">
+        <v>30</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="22">
+        <v>60</v>
+      </c>
+      <c r="K15" s="22">
+        <v>50</v>
+      </c>
+      <c r="L15" s="22">
+        <v>40</v>
+      </c>
+      <c r="M15" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="I16" s="24">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K16" s="22">
+        <v>59.3</v>
+      </c>
+      <c r="L16" s="22">
+        <v>55.1</v>
+      </c>
+      <c r="M16" s="23">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="24">
+        <f t="shared" ref="C17:C22" si="0">C16+15</f>
+        <v>15</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="I17" s="24">
+        <f t="shared" ref="I17:I22" si="1">I16+15</f>
+        <v>15</v>
+      </c>
+      <c r="J17" s="22">
+        <v>100</v>
+      </c>
+      <c r="K17" s="22">
+        <v>99.9</v>
+      </c>
+      <c r="L17" s="22">
+        <v>89.9</v>
+      </c>
+      <c r="M17" s="23">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="I18" s="24">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J18" s="22">
+        <v>100</v>
+      </c>
+      <c r="K18" s="22">
+        <v>99.9</v>
+      </c>
+      <c r="L18" s="22">
+        <v>85.1</v>
+      </c>
+      <c r="M18" s="23">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="24">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="I19" s="24">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="22">
+        <v>20.7</v>
+      </c>
+      <c r="M19" s="23">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="I20" s="24">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="23">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="24">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="I21" s="24">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="I22" s="25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="19">
+        <v>2</v>
+      </c>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="I25" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="22">
+        <v>60</v>
+      </c>
+      <c r="E26" s="22">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
+        <v>40</v>
+      </c>
+      <c r="G26" s="23">
+        <v>30</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="22">
+        <v>60</v>
+      </c>
+      <c r="K26" s="22">
+        <v>50</v>
+      </c>
+      <c r="L26" s="22">
+        <v>40</v>
+      </c>
+      <c r="M26" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <v>83.5</v>
+      </c>
+      <c r="E27" s="22">
+        <v>63.8</v>
+      </c>
+      <c r="F27" s="22">
+        <v>56.5</v>
+      </c>
+      <c r="G27" s="23">
+        <v>58.6</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
+        <v>83.7</v>
+      </c>
+      <c r="K27" s="22">
+        <v>58.2</v>
+      </c>
+      <c r="L27" s="22">
+        <v>56.8</v>
+      </c>
+      <c r="M27" s="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="24">
+        <f t="shared" ref="C28:C33" si="2">C27+15</f>
+        <v>15</v>
+      </c>
+      <c r="D28" s="22">
+        <v>100</v>
+      </c>
+      <c r="E28" s="22">
+        <v>100</v>
+      </c>
+      <c r="F28" s="22">
+        <v>97.7</v>
+      </c>
+      <c r="G28" s="23">
+        <v>83.1</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" ref="I28:I33" si="3">I27+15</f>
+        <v>15</v>
+      </c>
+      <c r="J28" s="22">
+        <v>100</v>
+      </c>
+      <c r="K28" s="22">
+        <v>100</v>
+      </c>
+      <c r="L28" s="22">
+        <v>97.9</v>
+      </c>
+      <c r="M28" s="23">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D29" s="22">
+        <v>100</v>
+      </c>
+      <c r="E29" s="22">
+        <v>100</v>
+      </c>
+      <c r="F29" s="22">
+        <v>96.1</v>
+      </c>
+      <c r="G29" s="23">
+        <v>79.2</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="J29" s="22">
+        <v>100</v>
+      </c>
+      <c r="K29" s="22">
+        <v>100</v>
+      </c>
+      <c r="L29" s="22">
+        <v>96.6</v>
+      </c>
+      <c r="M29" s="23">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="24">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F30" s="22">
+        <v>40.5</v>
+      </c>
+      <c r="G30" s="23">
+        <v>49.3</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <v>18.5</v>
+      </c>
+      <c r="L30" s="22">
+        <v>41.5</v>
+      </c>
+      <c r="M30" s="23">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="24">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <v>12.1</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J31" s="22">
+        <v>0</v>
+      </c>
+      <c r="K31" s="22">
+        <v>0</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="23">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="24">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J32" s="22">
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="25">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0</v>
+      </c>
+      <c r="L33" s="26">
+        <v>0</v>
+      </c>
+      <c r="M33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:M22">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:M33">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:G33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:G22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="4.55"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="4.55"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG87"/>
   <sheetViews>
     <sheetView topLeftCell="AN52" workbookViewId="0">
       <selection activeCell="BD71" sqref="BD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="16" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -8282,12 +9459,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="V2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -8307,12 +9484,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -8329,7 +9506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -8340,12 +9517,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -8383,7 +9560,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -8430,7 +9607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -8465,7 +9642,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ref="A11:A16" si="0">A10+15</f>
         <v>15</v>
@@ -8503,7 +9680,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8541,7 +9718,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8579,7 +9756,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8617,7 +9794,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -8655,7 +9832,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8693,7 +9870,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -8731,7 +9908,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -8778,7 +9955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8813,7 +9990,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ref="A21:A26" si="3">A20+15</f>
         <v>15</v>
@@ -8851,7 +10028,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -8889,7 +10066,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -8927,7 +10104,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -8965,7 +10142,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -9003,7 +10180,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -9047,7 +10224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE27" s="17" t="s">
         <v>109</v>
       </c>
@@ -9061,7 +10238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P28" s="8" t="s">
         <v>102</v>
       </c>
@@ -9081,7 +10258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -9134,7 +10311,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -9197,7 +10374,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -9260,7 +10437,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ref="A32:A37" si="7">A31+15</f>
         <v>15</v>
@@ -9326,7 +10503,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -9392,7 +10569,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -9458,7 +10635,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -9524,7 +10701,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -9574,7 +10751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -9642,7 +10819,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
         <v>107</v>
       </c>
@@ -9683,7 +10860,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -9778,7 +10955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -9885,7 +11062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -9983,7 +11160,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="13">A41+15</f>
         <v>15</v>
@@ -10085,7 +11262,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -10187,7 +11364,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -10289,7 +11466,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -10391,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -10493,7 +11670,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -10547,7 +11724,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AG48" t="s">
         <v>88</v>
       </c>
@@ -10567,7 +11744,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10665,7 +11842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -10787,7 +11964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -10897,7 +12074,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ref="A52:A57" si="17">A51+15</f>
         <v>15</v>
@@ -11015,7 +12192,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -11133,7 +12310,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -11251,7 +12428,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -11369,7 +12546,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -11487,7 +12664,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -11605,8 +12782,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -11653,7 +12830,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -11722,7 +12899,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11799,7 +12976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ref="A62:A67" si="25">A61+15</f>
         <v>15</v>
@@ -11878,7 +13055,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="25"/>
         <v>30</v>
@@ -11960,7 +13137,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="25"/>
         <v>45</v>
@@ -12042,7 +13219,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="25"/>
         <v>60</v>
@@ -12124,7 +13301,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="25"/>
         <v>75</v>
@@ -12206,7 +13383,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="25"/>
         <v>90</v>
@@ -12288,7 +13465,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AQ68">
         <f t="shared" si="27"/>
         <v>90</v>
@@ -12338,7 +13515,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -12352,7 +13529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -12375,7 +13552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -12404,7 +13581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" ref="A72:A77" si="30">A71+15</f>
         <v>15</v>
@@ -12437,7 +13614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="30"/>
         <v>30</v>
@@ -12470,7 +13647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="30"/>
         <v>45</v>
@@ -12504,7 +13681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="30"/>
         <v>60</v>
@@ -12538,7 +13715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="30"/>
         <v>75</v>
@@ -12572,7 +13749,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="30"/>
         <v>90</v>
@@ -12606,7 +13783,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AW78">
         <f t="shared" si="31"/>
         <v>75</v>
@@ -12624,7 +13801,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -12654,7 +13831,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -12671,7 +13848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -12691,7 +13868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ref="A82:A87" si="32">A81+15</f>
         <v>15</v>
@@ -12709,7 +13886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="32"/>
         <v>30</v>
@@ -12727,7 +13904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="32"/>
         <v>45</v>
@@ -12745,7 +13922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="32"/>
         <v>60</v>
@@ -12763,7 +13940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="32"/>
         <v>75</v>
@@ -12781,7 +13958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="32"/>
         <v>90</v>
@@ -13739,4 +14916,138 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A5B593-7303-4FD6-9DD3-49C9E2A199A3}">
+  <dimension ref="B2:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="106.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA0B435-11BA-4F6B-828D-D8267F154868}">
+  <dimension ref="B2:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275629F-E79A-4F2C-BD91-D22E36477523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7800" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="4" r:id="rId1"/>
@@ -20,11 +21,12 @@
     <sheet name="FE-causas" sheetId="13" r:id="rId11"/>
     <sheet name="conclusoes" sheetId="8" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="225">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -705,26 +707,29 @@
   <si>
     <t>Hz/Hz</t>
   </si>
+  <si>
+    <t>FE mean [Hz/Hz]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    <numFmt numFmtId="174" formatCode="0.00000000"/>
+    <numFmt numFmtId="175" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -793,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -881,31 +886,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -926,17 +946,18 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,7 +978,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -996,7 +1017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1105,7 +1126,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EEA-4B85-927C-A7AEAD4C23BC}"/>
             </c:ext>
@@ -1119,11 +1140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121719400"/>
-        <c:axId val="157056696"/>
+        <c:axId val="157885632"/>
+        <c:axId val="158079248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121719400"/>
+        <c:axId val="157885632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,15 +1198,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157056696"/>
+        <c:crossAx val="158079248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157056696"/>
+        <c:axId val="158079248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,10 +1260,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121719400"/>
+        <c:crossAx val="157885632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1280,7 +1301,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1292,7 +1313,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1331,7 +1352,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1440,7 +1461,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-559D-4750-AAF7-10F1CE6B8113}"/>
             </c:ext>
@@ -1454,11 +1475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157451176"/>
-        <c:axId val="121717832"/>
+        <c:axId val="158053144"/>
+        <c:axId val="158044944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157451176"/>
+        <c:axId val="158053144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,15 +1533,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121717832"/>
+        <c:crossAx val="158044944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121717832"/>
+        <c:axId val="158044944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,10 +1595,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157451176"/>
+        <c:crossAx val="158053144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1615,7 +1636,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1627,7 +1648,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1707,7 +1728,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1814,6 +1835,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D76F-4587-89E0-408A8D47B09A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1823,11 +1849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221707704"/>
-        <c:axId val="156102744"/>
+        <c:axId val="159156968"/>
+        <c:axId val="157378016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221707704"/>
+        <c:axId val="159156968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,6 +1873,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Fase inicial (graus)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1881,15 +1967,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156102744"/>
+        <c:crossAx val="157378016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156102744"/>
+        <c:axId val="157378016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,6 +1995,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>FE [Hz/Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1943,10 +2084,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221707704"/>
+        <c:crossAx val="159156968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1984,7 +2125,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3683,7 +3824,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,7 +3860,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,7 +3898,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3812,7 +3959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3872,7 +4025,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3927,7 +4086,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3987,7 +4152,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4008,7 +4179,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4046,7 +4217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4081,6 +4252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4116,9 +4304,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4291,41 +4496,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -4339,7 +4544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -4371,7 +4576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4407,7 +4612,7 @@
         <v>4.6525502333783298E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -4443,7 +4648,7 @@
         <v>0.131483936121503</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4457,7 +4662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -4489,7 +4694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4525,7 +4730,7 @@
         <v>1.2548237159175499</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -4561,7 +4766,7 @@
         <v>0.26649080307221995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -4575,7 +4780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -4607,7 +4812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -4643,7 +4848,7 @@
         <v>1.1684859453060001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -4685,16 +4890,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -4702,17 +4907,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
@@ -4729,7 +4934,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>112</v>
       </c>
@@ -4757,20 +4962,20 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="44">
         <v>60</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="44">
         <v>50</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="44">
         <v>40</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="44">
         <v>30</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -4789,20 +4994,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="44">
+        <v>0</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44">
         <v>0.12</v>
       </c>
       <c r="H8" s="24">
@@ -4821,21 +5026,21 @@
         <v>-9.0047810440393201E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="44">
         <f t="shared" ref="B9:B14" si="0">B8+15</f>
         <v>15</v>
       </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="C9" s="44">
+        <v>0</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
         <v>0.37</v>
       </c>
       <c r="H9" s="24">
@@ -4855,21 +5060,21 @@
         <v>-1.28583069358799E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="C10" s="44">
+        <v>0</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
         <v>2.75</v>
       </c>
       <c r="H10" s="24">
@@ -4889,21 +5094,21 @@
         <v>-6.0443574012536796E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="44">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C11" s="22">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="C11" s="44">
+        <v>0</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44">
         <v>0.01</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="44">
         <v>11.74</v>
       </c>
       <c r="H11" s="24">
@@ -4923,21 +5128,21 @@
         <v>2.2951149939877801E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C12" s="22">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="C12" s="44">
+        <v>0</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0</v>
+      </c>
+      <c r="E12" s="44">
         <v>0.78</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="44">
         <v>27.26</v>
       </c>
       <c r="H12" s="24">
@@ -4957,21 +5162,21 @@
         <v>7.0433462225768999E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="44">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="C13" s="44">
+        <v>0</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+      <c r="E13" s="44">
         <v>5.97</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="44">
         <v>41.22</v>
       </c>
       <c r="H13" s="24">
@@ -4991,21 +5196,21 @@
         <v>7.7229339081436102E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="44">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="44">
+        <v>0</v>
+      </c>
+      <c r="D14" s="44">
         <v>0.16</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="44">
         <v>17.38</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="44">
         <v>49.39</v>
       </c>
       <c r="H14" s="25">
@@ -5025,33 +5230,44 @@
         <v>9.7422359752608796E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="31">
+        <v>7.5229408024037302E-7</v>
+      </c>
+      <c r="D15" s="31">
+        <v>4.2802740729233798E-7</v>
+      </c>
+      <c r="E15" s="31">
+        <v>4.4157560666516101E-7</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1.06043719754242E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>179</v>
       </c>
       <c r="C16" s="31">
-        <v>4.1402230695797503E-6</v>
+        <v>8.0027895990702003E-6</v>
       </c>
       <c r="D16" s="31">
-        <v>1.28489980441458E-5</v>
+        <v>1.45897444844984E-5</v>
       </c>
       <c r="E16" s="31">
-        <v>4.1626869015768299E-5</v>
+        <v>4.1076521398355302E-5</v>
       </c>
       <c r="F16" s="22">
-        <v>1.2941045591800799E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2889248972470499E-4</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -5059,17 +5275,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
@@ -5080,7 +5296,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>153</v>
       </c>
@@ -5095,149 +5311,149 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="44">
         <v>60</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="44">
         <v>50</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="44">
         <v>40</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="44">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="44">
+        <v>0</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
         <v>4.01</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="44">
         <v>30.83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="44">
         <f t="shared" ref="B26:B31" si="2">B25+15</f>
         <v>15</v>
       </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="C26" s="44">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0</v>
+      </c>
+      <c r="E26" s="44">
         <v>0.61</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="44">
         <v>23.42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="44">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="C27" s="22">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-      <c r="E27" s="22">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
+      <c r="C27" s="44">
+        <v>0</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0</v>
+      </c>
+      <c r="F27" s="44">
         <v>10.26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="44">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
+      <c r="C28" s="44">
+        <v>0</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
         <v>1.81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="24">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="44">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="C29" s="44">
+        <v>0</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="44">
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="24">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="44">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C30" s="22">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25">
+      <c r="C30" s="44">
+        <v>0</v>
+      </c>
+      <c r="D30" s="44">
+        <v>0</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="44">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="44">
+        <v>0</v>
+      </c>
+      <c r="D31" s="44">
+        <v>0</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -5254,7 +5470,7 @@
         <v>3.42703746649336E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -5271,7 +5487,7 @@
         <v>2.67423915581877E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -5279,17 +5495,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
@@ -5300,7 +5516,7 @@
       </c>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
         <v>109</v>
       </c>
@@ -5315,149 +5531,149 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="44">
         <v>60</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="44">
         <v>50</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="44">
         <v>40</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="44">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="24">
-        <v>0</v>
-      </c>
-      <c r="C42" s="22">
-        <v>0</v>
-      </c>
-      <c r="D42" s="22">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0</v>
-      </c>
-      <c r="F42" s="23">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="44">
+        <v>0</v>
+      </c>
+      <c r="C42" s="44">
+        <v>0</v>
+      </c>
+      <c r="D42" s="44">
+        <v>0</v>
+      </c>
+      <c r="E42" s="44">
+        <v>0</v>
+      </c>
+      <c r="F42" s="44">
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="24">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="44">
         <f t="shared" ref="B43:B48" si="3">B42+15</f>
         <v>15</v>
       </c>
-      <c r="C43" s="22">
-        <v>0</v>
-      </c>
-      <c r="D43" s="22">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22">
-        <v>0</v>
-      </c>
-      <c r="F43" s="23">
+      <c r="C43" s="44">
+        <v>0</v>
+      </c>
+      <c r="D43" s="44">
+        <v>0</v>
+      </c>
+      <c r="E43" s="44">
+        <v>0</v>
+      </c>
+      <c r="F43" s="44">
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="24">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="44">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="C44" s="22">
-        <v>0</v>
-      </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="22">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
+      <c r="C44" s="44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="44">
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="24">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="44">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="C45" s="22">
-        <v>0</v>
-      </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
+      <c r="C45" s="44">
+        <v>0</v>
+      </c>
+      <c r="D45" s="44">
+        <v>0</v>
+      </c>
+      <c r="E45" s="44">
+        <v>0</v>
+      </c>
+      <c r="F45" s="44">
         <v>3.56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="24">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="44">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="C46" s="22">
-        <v>0</v>
-      </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
+      <c r="C46" s="44">
+        <v>0</v>
+      </c>
+      <c r="D46" s="44">
+        <v>0</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0</v>
+      </c>
+      <c r="F46" s="44">
         <v>1.96</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="24">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="44">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C47" s="22">
-        <v>0</v>
-      </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="22">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
+      <c r="C47" s="44">
+        <v>0</v>
+      </c>
+      <c r="D47" s="44">
+        <v>0</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44">
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="44">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="C48" s="26">
-        <v>0</v>
-      </c>
-      <c r="D48" s="26">
-        <v>0</v>
-      </c>
-      <c r="E48" s="26">
-        <v>0</v>
-      </c>
-      <c r="F48" s="27">
+      <c r="C48" s="44">
+        <v>0</v>
+      </c>
+      <c r="D48" s="44">
+        <v>0</v>
+      </c>
+      <c r="E48" s="44">
+        <v>0</v>
+      </c>
+      <c r="F48" s="44">
         <v>1.94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -5474,7 +5690,7 @@
         <v>3.1145117357797001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -5679,38 +5895,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>180</v>
       </c>
@@ -5718,7 +5934,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>182</v>
       </c>
@@ -5726,12 +5942,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="W4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>169</v>
       </c>
@@ -5751,7 +5967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>167</v>
       </c>
@@ -5771,7 +5987,7 @@
         <v>2.9650229597465998E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
@@ -5800,7 +6016,7 @@
         <v>-2.0600739056650039E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
         <v>153</v>
       </c>
@@ -5823,7 +6039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C9" s="24" t="s">
         <v>50</v>
       </c>
@@ -5855,23 +6071,23 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>2.9833449605428902E-3</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <v>2.9830740291139001E-3</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>2.9856236988032498E-3</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="42">
         <v>2.9650229597465998E-3</v>
       </c>
       <c r="I10" s="37">
@@ -5899,25 +6115,25 @@
       </c>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C11" s="22">
         <f t="shared" ref="C11:C16" si="1">C10+15</f>
         <v>15</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>2.96427106058507E-3</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <v>2.9636644484178402E-3</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>2.9696511399392501E-3</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>2.9573867417583399E-3</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" ref="I10:I16" si="2">(D11-$I$8)*1000000</f>
+        <f t="shared" ref="I11:I16" si="2">(D11-$I$8)*1000000</f>
         <v>-181.11861066681885</v>
       </c>
       <c r="N11" s="22">
@@ -5941,21 +6157,21 @@
         <v>2.9638168336147399E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C12" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="42">
         <v>2.9658976107004298E-3</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <v>2.9665716523075902E-3</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>2.9687694857133099E-3</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="42">
         <v>2.9623773286500199E-3</v>
       </c>
       <c r="I12" s="37">
@@ -5983,21 +6199,21 @@
         <v>2.9657720866899601E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C13" s="22">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="42">
         <v>3.0599198172934802E-3</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="42">
         <v>3.0605195500214202E-3</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>3.0603759658641401E-3</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="42">
         <v>3.0565053562884299E-3</v>
       </c>
       <c r="I13" s="37">
@@ -6025,21 +6241,21 @@
         <v>3.0600385200630301E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C14" s="22">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="42">
         <v>3.2328797267836898E-3</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="42">
         <v>3.2335752915547502E-3</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>3.2437878909207401E-3</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="42">
         <v>3.23046504489914E-3</v>
       </c>
       <c r="I14" s="37">
@@ -6067,21 +6283,21 @@
         <v>3.2321583393280298E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C15" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>3.3847162508287899E-3</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>3.3858834611352E-3</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>3.3877276842113001E-3</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <v>3.3773683272386099E-3</v>
       </c>
       <c r="I15" s="37">
@@ -6109,21 +6325,21 @@
         <v>3.3844463417750598E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C16" s="22">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="42">
         <v>3.4266982720288701E-3</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>3.4260835842907099E-3</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>3.4286377413187E-3</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="42">
         <v>3.4252148969755401E-3</v>
       </c>
       <c r="I16" s="37">
@@ -6151,12 +6367,12 @@
         <v>3.4254717832023799E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6164,7 +6380,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>179</v>
       </c>
@@ -6181,12 +6397,12 @@
         <v>2.67423915581877E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -6204,7 +6420,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" s="22" t="s">
         <v>178</v>
       </c>
@@ -6231,7 +6447,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="22" t="s">
         <v>50</v>
       </c>
@@ -6267,7 +6483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" s="22">
         <v>0</v>
       </c>
@@ -6304,7 +6520,7 @@
         <v>2.7262100032928501E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f t="shared" ref="C26:C31" si="5">C25+15</f>
         <v>15</v>
@@ -6342,7 +6558,7 @@
         <v>2.7853895323649299E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="22">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -6380,7 +6596,7 @@
         <v>2.9140145609989201E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" s="22">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -6418,7 +6634,7 @@
         <v>2.9981620317316601E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="22">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -6456,7 +6672,7 @@
         <v>2.7707770507088501E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" s="22">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -6494,7 +6710,7 @@
         <v>2.7441623297476598E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C31" s="22">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -6532,7 +6748,7 @@
         <v>2.66693322008705E-4</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -6554,7 +6770,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34" s="22" t="s">
         <v>178</v>
       </c>
@@ -6581,7 +6797,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
@@ -6617,7 +6833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36" s="22">
         <v>0</v>
       </c>
@@ -6654,7 +6870,7 @@
         <v>3.2120335358209399E-4</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" s="22">
         <f t="shared" ref="C37:C42" si="7">C36+15</f>
         <v>15</v>
@@ -6692,7 +6908,7 @@
         <v>3.2271223522967603E-4</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" s="22">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -6730,7 +6946,7 @@
         <v>3.2149019361120602E-4</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" s="22">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -6768,7 +6984,7 @@
         <v>3.3105607405498598E-4</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40" s="22">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -6806,7 +7022,7 @@
         <v>3.2292156237224198E-4</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C41" s="22">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -6844,7 +7060,7 @@
         <v>3.0470009310349099E-4</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C42" s="22">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -6882,7 +7098,7 @@
         <v>3.0983037062014599E-4</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C44" s="22"/>
       <c r="D44" s="22" t="s">
         <v>88</v>
@@ -6903,7 +7119,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C45" s="22" t="s">
         <v>178</v>
       </c>
@@ -6929,7 +7145,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C46" s="22" t="s">
         <v>50</v>
       </c>
@@ -6965,7 +7181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C47" s="22">
         <v>0</v>
       </c>
@@ -7002,7 +7218,7 @@
         <v>8.8291971815825196E-4</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C48" s="22">
         <f t="shared" ref="C48:C53" si="9">C47+15</f>
         <v>15</v>
@@ -7040,7 +7256,7 @@
         <v>8.3164290811685998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C49" s="22">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -7078,7 +7294,7 @@
         <v>7.69579615921023E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C50" s="22">
         <f t="shared" si="9"/>
         <v>45</v>
@@ -7116,7 +7332,7 @@
         <v>6.63856000301685E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C51" s="22">
         <f t="shared" si="9"/>
         <v>60</v>
@@ -7154,7 +7370,7 @@
         <v>5.7564103994096395E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C52" s="22">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -7192,7 +7408,7 @@
         <v>5.3485088979735495E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C53" s="22">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -7230,12 +7446,12 @@
         <v>5.2136163441200603E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -7249,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>204</v>
       </c>
@@ -7257,7 +7473,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -7268,7 +7484,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7280,7 +7496,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>1E-4</v>
       </c>
@@ -7292,7 +7508,7 @@
         <v>-123.33333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1E-3</v>
       </c>
@@ -7304,7 +7520,7 @@
         <v>-136.66666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.01</v>
       </c>
@@ -7316,7 +7532,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.1</v>
       </c>
@@ -7331,7 +7547,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.5</v>
       </c>
@@ -7346,7 +7562,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -7358,7 +7574,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2.5</v>
       </c>
@@ -7370,7 +7586,7 @@
         <v>2983.3333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -7379,7 +7595,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -7408,54 +7624,54 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>0</v>
       </c>
-      <c r="B74" s="42">
+      <c r="B74" s="41">
         <v>1.08526998481558E-4</v>
       </c>
-      <c r="C74" s="42">
+      <c r="C74" s="41">
         <v>1.0974513043231201E-4</v>
       </c>
-      <c r="D74" s="42">
+      <c r="D74" s="41">
         <v>1.12682126063935E-4</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E74" s="41">
         <v>9.9277883230108007E-5</v>
       </c>
       <c r="G74" s="37"/>
       <c r="J74" s="22">
         <v>0</v>
       </c>
-      <c r="K74" s="42">
+      <c r="K74" s="41">
         <v>4.0065379109304601E-5</v>
       </c>
-      <c r="L74" s="42">
+      <c r="L74" s="41">
         <v>1.29839123484923E-4</v>
       </c>
-      <c r="M74" s="42">
+      <c r="M74" s="41">
         <v>3.96577796146004E-4</v>
       </c>
-      <c r="N74" s="42">
+      <c r="N74" s="41">
         <v>1.2625203199401001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="22">
         <f t="shared" ref="A75:A80" si="12">A74+15</f>
         <v>15</v>
       </c>
-      <c r="B75" s="42">
+      <c r="B75" s="41">
         <v>4.2097443873959501E-4</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="41">
         <v>4.1716290738053898E-4</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="41">
         <v>4.32318321801057E-4</v>
       </c>
-      <c r="E75" s="42">
+      <c r="E75" s="41">
         <v>3.8653389456714897E-4</v>
       </c>
       <c r="G75" s="37"/>
@@ -7463,34 +7679,34 @@
         <f t="shared" ref="J75:J80" si="13">J74+15</f>
         <v>15</v>
       </c>
-      <c r="K75" s="42">
+      <c r="K75" s="41">
         <v>4.1301850461261998E-5</v>
       </c>
-      <c r="L75" s="42">
+      <c r="L75" s="41">
         <v>1.27879864515799E-4</v>
       </c>
-      <c r="M75" s="42">
+      <c r="M75" s="41">
         <v>4.03234742498921E-4</v>
       </c>
-      <c r="N75" s="42">
+      <c r="N75" s="41">
         <v>1.26735408774957E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="B76" s="42">
+      <c r="B76" s="41">
         <v>1.20217753866611E-3</v>
       </c>
-      <c r="C76" s="42">
+      <c r="C76" s="41">
         <v>1.2026441252108E-3</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="41">
         <v>1.21655599494351E-3</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="41">
         <v>1.1377481996397501E-3</v>
       </c>
       <c r="G76" s="37"/>
@@ -7498,34 +7714,34 @@
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="K76" s="42">
+      <c r="K76" s="41">
         <v>4.3128724138504603E-5</v>
       </c>
-      <c r="L76" s="42">
+      <c r="L76" s="41">
         <v>1.3423452245478999E-4</v>
       </c>
-      <c r="M76" s="42">
+      <c r="M76" s="41">
         <v>4.3606047762709998E-4</v>
       </c>
-      <c r="N76" s="42">
+      <c r="N76" s="41">
         <v>1.44592646278795E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="22">
         <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="B77" s="42">
+      <c r="B77" s="41">
         <v>2.4373485454174302E-3</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="41">
         <v>2.4277435970044398E-3</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="41">
         <v>2.4172958685149499E-3</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E77" s="41">
         <v>2.3737118255027102E-3</v>
       </c>
       <c r="G77" s="37"/>
@@ -7533,34 +7749,34 @@
         <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="K77" s="42">
+      <c r="K77" s="41">
         <v>4.506147540637E-5</v>
       </c>
-      <c r="L77" s="42">
+      <c r="L77" s="41">
         <v>1.45445305501056E-4</v>
       </c>
-      <c r="M77" s="42">
+      <c r="M77" s="41">
         <v>4.7081346813079101E-4</v>
       </c>
-      <c r="N77" s="42">
+      <c r="N77" s="41">
         <v>1.4326410853651001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="22">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="B78" s="42">
+      <c r="B78" s="41">
         <v>3.9263760522917903E-3</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="41">
         <v>3.9282097005555001E-3</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="41">
         <v>3.9138729275940698E-3</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="41">
         <v>3.8422086938569499E-3</v>
       </c>
       <c r="G78" s="37"/>
@@ -7568,34 +7784,34 @@
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="K78" s="42">
+      <c r="K78" s="41">
         <v>4.7969085630769702E-5</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>1.4714183496513099E-4</v>
       </c>
-      <c r="M78" s="42">
+      <c r="M78" s="41">
         <v>4.84844799503978E-4</v>
       </c>
-      <c r="N78" s="42">
+      <c r="N78" s="41">
         <v>1.53617133378922E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="22">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="B79" s="42">
+      <c r="B79" s="41">
         <v>5.1707163210417103E-3</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="41">
         <v>5.1711454196450698E-3</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="41">
         <v>5.1767069336665101E-3</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="41">
         <v>5.2238834842917503E-3</v>
       </c>
       <c r="G79" s="37"/>
@@ -7603,34 +7819,34 @@
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="K79" s="42">
+      <c r="K79" s="41">
         <v>5.25054376108973E-5</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>1.6732389004285399E-4</v>
       </c>
-      <c r="M79" s="42">
+      <c r="M79" s="41">
         <v>5.0108971349993104E-4</v>
       </c>
-      <c r="N79" s="42">
+      <c r="N79" s="41">
         <v>1.62802610157884E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="22">
         <f t="shared" si="12"/>
         <v>90</v>
       </c>
-      <c r="B80" s="42">
+      <c r="B80" s="41">
         <v>5.5312892936176996E-3</v>
       </c>
-      <c r="C80" s="42">
+      <c r="C80" s="41">
         <v>5.53349753447908E-3</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D80" s="41">
         <v>5.52443854796595E-3</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E80" s="41">
         <v>5.5300708712140399E-3</v>
       </c>
       <c r="G80" s="37"/>
@@ -7638,30 +7854,30 @@
         <f t="shared" si="13"/>
         <v>90</v>
       </c>
-      <c r="K80" s="42">
+      <c r="K80" s="41">
         <v>5.27304000016645E-5</v>
       </c>
-      <c r="L80" s="42">
+      <c r="L80" s="41">
         <v>1.5756128707651801E-4</v>
       </c>
-      <c r="M80" s="42">
+      <c r="M80" s="41">
         <v>5.1780473377178104E-4</v>
       </c>
-      <c r="N80" s="42">
+      <c r="N80" s="41">
         <v>1.61252640875811E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>218</v>
       </c>
@@ -7669,7 +7885,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>219</v>
       </c>
@@ -7677,7 +7893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>220</v>
       </c>
@@ -7686,25 +7902,25 @@
         <v>59.999940000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C93" s="44">
+      <c r="C93" s="43">
         <v>-2.9046972986323001E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C94" s="44">
+      <c r="C94" s="43">
         <f>C93/60</f>
         <v>-4.841162164387167E-7</v>
       </c>
@@ -7821,196 +8037,196 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>190</v>
       </c>
@@ -8021,26 +8237,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>61</v>
       </c>
@@ -8067,7 +8283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -8099,7 +8315,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -8143,7 +8359,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8186,7 +8402,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10:A15" si="1">A9+15</f>
         <v>15</v>
@@ -8230,7 +8446,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8271,7 +8487,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8315,7 +8531,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8359,7 +8575,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -8387,7 +8603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -8412,17 +8628,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Q16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -8439,13 +8655,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ref="A20:A25" si="2">A19+15</f>
         <v>15</v>
@@ -8458,7 +8674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -8478,7 +8694,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -8491,7 +8707,7 @@
         <v>1.0699999999999999E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8504,14 +8720,14 @@
         <v>1.2400000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -8536,7 +8752,7 @@
         <v>1.7017543859649122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -8548,7 +8764,7 @@
         <v>266355140.1869159</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -8572,7 +8788,7 @@
         <v>2298387.0967741935</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -8581,7 +8797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ref="A29:A34" si="3">A28+15</f>
         <v>15</v>
@@ -8594,7 +8810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -8604,50 +8820,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8667,7 +8883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -8687,7 +8903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="4">A41+15</f>
         <v>15</v>
@@ -8708,7 +8924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -8729,7 +8945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -8747,7 +8963,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -8765,7 +8981,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -8786,7 +9002,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -8807,12 +9023,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -8829,7 +9045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -8846,7 +9062,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" ref="A53:A58" si="5">A52+15</f>
         <v>15</v>
@@ -8864,7 +9080,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -8882,7 +9098,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -8900,7 +9116,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -8918,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -8936,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -8954,12 +9170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -8976,7 +9192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -8993,7 +9209,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" ref="A64:A69" si="6">A63+15</f>
         <v>15</v>
@@ -9011,7 +9227,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -9029,7 +9245,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -9047,7 +9263,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -9065,7 +9281,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -9083,7 +9299,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -9107,46 +9323,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -9166,7 +9382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -9186,17 +9402,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -9225,7 +9441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -9254,7 +9470,7 @@
         <v>3.2802614457142702E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9283,7 +9499,7 @@
         <v>4.5071145312710101E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -9300,7 +9516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9338,7 +9554,7 @@
         <v>2.0769202567494901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9376,12 +9592,12 @@
         <v>4.4871321568041602E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -9410,7 +9626,7 @@
         <v>9.2702022162879298E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -9439,18 +9655,18 @@
         <v>4.9477639907994698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -9479,7 +9695,7 @@
         <v>1.0209234467157E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -9508,29 +9724,29 @@
         <v>8.9328868849508105E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G30" s="6"/>
       <c r="J30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -9539,7 +9755,7 @@
         <v>2.1605377722768151E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -9560,24 +9776,24 @@
         <v>-6.9987981883495171E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -9594,7 +9810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -9611,7 +9827,7 @@
         <v>-1.8357987678080999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>1.3870852577291001E-5</v>
       </c>
@@ -9625,7 +9841,7 @@
         <v>4.3177118710681502E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -9645,7 +9861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>1.632029604517E-5</v>
       </c>
@@ -9662,12 +9878,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -9687,7 +9903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>1.7113734935356899E-5</v>
       </c>
@@ -9713,7 +9929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>10</v>
       </c>
@@ -9727,7 +9943,7 @@
         <v>1.4458157246083101E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -9757,7 +9973,7 @@
         <v>1.8148094370953901E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>1.73263306517101E-5</v>
       </c>
@@ -9784,7 +10000,7 @@
         <v>3.5223250677112199E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H50">
         <f t="shared" ref="H50:H55" si="1">H49+15</f>
         <v>45</v>
@@ -9799,7 +10015,7 @@
         <v>4.9611771021625703E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -9829,7 +10045,7 @@
         <v>5.0677305705378397E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>2.0277905166956101E-5</v>
       </c>
@@ -9856,7 +10072,7 @@
         <v>5.7550877009226596E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -9871,7 +10087,7 @@
         <v>5.53791658750513E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -9901,7 +10117,7 @@
         <v>5.97704462378584E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>1.9175126747274499E-5</v>
       </c>
@@ -9935,16 +10151,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A12:AU76"/>
   <sheetViews>
-    <sheetView topLeftCell="J28" workbookViewId="0">
+    <sheetView topLeftCell="P19" workbookViewId="0">
       <selection activeCell="S34" sqref="S34:W43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="12" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="19:35" x14ac:dyDescent="0.3">
       <c r="U12" t="s">
         <v>88</v>
       </c>
@@ -9976,7 +10192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S13" s="17" t="s">
         <v>112</v>
       </c>
@@ -10014,7 +10230,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>50</v>
       </c>
@@ -10061,7 +10277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S15">
         <v>0</v>
       </c>
@@ -10108,7 +10324,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="19:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="19:35" x14ac:dyDescent="0.3">
       <c r="S16">
         <f t="shared" ref="S16:S21" si="0">S15+15</f>
         <v>15</v>
@@ -10158,7 +10374,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10208,7 +10424,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S18">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -10258,7 +10474,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S19">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -10308,7 +10524,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S20">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -10358,7 +10574,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="S21">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -10408,7 +10624,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -10443,7 +10659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>112</v>
       </c>
@@ -10493,7 +10709,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -10555,7 +10771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10617,7 +10833,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ref="A27:A32" si="3">A26+15</f>
         <v>15</v>
@@ -10683,7 +10899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -10749,7 +10965,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -10815,7 +11031,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -10881,7 +11097,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -10947,7 +11163,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -11013,8 +11229,8 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>88</v>
       </c>
@@ -11080,7 +11296,7 @@
       </c>
       <c r="AU34" s="22"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>112</v>
       </c>
@@ -11184,7 +11400,7 @@
       </c>
       <c r="AU35" s="22"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -11307,7 +11523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -11430,7 +11646,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" ref="A38:A43" si="7">A37+15</f>
         <v>15</v>
@@ -11561,7 +11777,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -11692,7 +11908,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -11823,7 +12039,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -11954,7 +12170,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -12085,7 +12301,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="43" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -12216,7 +12432,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
       <c r="U45" s="22" t="s">
@@ -12227,7 +12443,7 @@
       </c>
       <c r="W45" s="22"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="S46" s="28" t="s">
         <v>112</v>
       </c>
@@ -12242,7 +12458,7 @@
       </c>
       <c r="W46" s="22"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="S47" s="22" t="s">
         <v>50</v>
       </c>
@@ -12259,7 +12475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="S48" s="22">
         <v>0</v>
       </c>
@@ -12276,7 +12492,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="49" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S49" s="22">
         <f t="shared" ref="S49:S54" si="15">S48+15</f>
         <v>15</v>
@@ -12294,7 +12510,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S50" s="22">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -12312,7 +12528,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S51" s="22">
         <f t="shared" si="15"/>
         <v>45</v>
@@ -12330,7 +12546,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S52" s="22">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -12348,7 +12564,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="53" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S53" s="22">
         <f t="shared" si="15"/>
         <v>75</v>
@@ -12366,7 +12582,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="54" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S54" s="22">
         <f t="shared" si="15"/>
         <v>90</v>
@@ -12384,7 +12600,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="56" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22" t="s">
@@ -12395,7 +12611,7 @@
       </c>
       <c r="W56" s="22"/>
     </row>
-    <row r="57" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S57" s="28" t="s">
         <v>112</v>
       </c>
@@ -12410,7 +12626,7 @@
       </c>
       <c r="W57" s="22"/>
     </row>
-    <row r="58" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S58" s="22" t="s">
         <v>50</v>
       </c>
@@ -12427,7 +12643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S59" s="22">
         <v>0</v>
       </c>
@@ -12444,7 +12660,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S60" s="22">
         <f t="shared" ref="S60:S65" si="16">S59+15</f>
         <v>15</v>
@@ -12462,7 +12678,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S61" s="22">
         <f t="shared" si="16"/>
         <v>30</v>
@@ -12480,7 +12696,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S62" s="22">
         <f t="shared" si="16"/>
         <v>45</v>
@@ -12498,7 +12714,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="63" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S63" s="22">
         <f t="shared" si="16"/>
         <v>60</v>
@@ -12516,7 +12732,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="64" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S64" s="22">
         <f t="shared" si="16"/>
         <v>75</v>
@@ -12534,7 +12750,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="65" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S65" s="22">
         <f t="shared" si="16"/>
         <v>90</v>
@@ -12552,7 +12768,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="67" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
       <c r="U67" s="22" t="s">
@@ -12563,7 +12779,7 @@
       </c>
       <c r="W67" s="22"/>
     </row>
-    <row r="68" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S68" s="28" t="s">
         <v>112</v>
       </c>
@@ -12578,7 +12794,7 @@
       </c>
       <c r="W68" s="22"/>
     </row>
-    <row r="69" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S69" s="22" t="s">
         <v>50</v>
       </c>
@@ -12595,7 +12811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S70" s="22">
         <v>0</v>
       </c>
@@ -12612,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S71" s="22">
         <f t="shared" ref="S71:S76" si="17">S70+15</f>
         <v>15</v>
@@ -12630,7 +12846,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S72" s="22">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -12648,7 +12864,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S73" s="22">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -12666,7 +12882,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="74" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S74" s="22">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -12684,7 +12900,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="75" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S75" s="22">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -12702,7 +12918,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="76" spans="19:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="19:23" x14ac:dyDescent="0.3">
       <c r="S76" s="22">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -13558,36 +13774,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
@@ -13595,7 +13811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>89</v>
       </c>
@@ -13603,88 +13819,88 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>123</v>
       </c>
@@ -13692,7 +13908,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>124</v>
       </c>
@@ -13700,13 +13916,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
@@ -13717,7 +13933,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>112</v>
       </c>
@@ -13732,7 +13948,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
         <v>50</v>
       </c>
@@ -13749,7 +13965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="24">
         <v>0</v>
       </c>
@@ -13766,7 +13982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="24">
         <f t="shared" ref="B33:B38" si="0">B32+15</f>
         <v>15</v>
@@ -13784,7 +14000,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -13802,7 +14018,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -13820,7 +14036,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -13838,7 +14054,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -13856,7 +14072,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -13874,7 +14090,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>128</v>
       </c>
@@ -13882,13 +14098,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19" t="s">
@@ -13899,7 +14115,7 @@
       </c>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="21" t="s">
         <v>112</v>
       </c>
@@ -13914,7 +14130,7 @@
       </c>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="24" t="s">
         <v>50</v>
       </c>
@@ -13931,7 +14147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="24">
         <v>0</v>
       </c>
@@ -13948,7 +14164,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="24">
         <f t="shared" ref="B47:B52" si="1">B46+15</f>
         <v>15</v>
@@ -13966,7 +14182,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -13984,7 +14200,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="24">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -14002,7 +14218,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -14020,7 +14236,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="24">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -14038,7 +14254,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="25">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -14056,7 +14272,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>129</v>
       </c>
@@ -14070,7 +14286,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -14084,12 +14300,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
@@ -14118,7 +14334,7 @@
       </c>
       <c r="R58" s="20"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" s="21" t="s">
         <v>112</v>
       </c>
@@ -14159,7 +14375,7 @@
       </c>
       <c r="R59" s="23"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" s="24" t="s">
         <v>50</v>
       </c>
@@ -14206,7 +14422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" s="24">
         <v>0</v>
       </c>
@@ -14253,7 +14469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="24">
         <f t="shared" ref="B62:B67" si="2">B61+15</f>
         <v>15</v>
@@ -14303,7 +14519,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" s="24">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -14353,7 +14569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" s="24">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -14403,7 +14619,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B65" s="24">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -14453,7 +14669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B66" s="24">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -14503,7 +14719,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="67" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="25">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -14850,17 +15066,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -14874,7 +15090,7 @@
       </c>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G3" s="21" t="s">
         <v>153</v>
       </c>
@@ -14889,7 +15105,7 @@
       </c>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
@@ -14906,7 +15122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G5" s="24">
         <v>0</v>
       </c>
@@ -14923,7 +15139,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G6" s="24">
         <f t="shared" ref="G6:G11" si="0">G5+15</f>
         <v>15</v>
@@ -14941,7 +15157,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14959,7 +15175,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -14977,7 +15193,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -14995,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -15013,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -15031,8 +15247,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
@@ -15061,7 +15277,7 @@
       </c>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>153</v>
       </c>
@@ -15102,7 +15318,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>50</v>
       </c>
@@ -15149,7 +15365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>0</v>
       </c>
@@ -15196,7 +15412,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" ref="A18:A23" si="1">A17+15</f>
         <v>15</v>
@@ -15246,7 +15462,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -15296,7 +15512,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -15346,7 +15562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -15396,7 +15612,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -15446,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -15496,8 +15712,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19" t="s">
@@ -15508,7 +15724,7 @@
       </c>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G26" s="21" t="s">
         <v>153</v>
       </c>
@@ -15523,7 +15739,7 @@
       </c>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G27" s="24" t="s">
         <v>50</v>
       </c>
@@ -15540,7 +15756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G28" s="24">
         <v>0</v>
       </c>
@@ -15557,7 +15773,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G29" s="24">
         <f t="shared" ref="G29:G34" si="4">G28+15</f>
         <v>15</v>
@@ -15575,7 +15791,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G30" s="24">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -15593,7 +15809,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G31" s="24">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -15611,7 +15827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G32" s="24">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -15629,7 +15845,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G33" s="24">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -15647,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="25">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -15665,8 +15881,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19" t="s">
@@ -15677,7 +15893,7 @@
       </c>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G37" s="21" t="s">
         <v>153</v>
       </c>
@@ -15692,7 +15908,7 @@
       </c>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G38" s="24" t="s">
         <v>50</v>
       </c>
@@ -15709,7 +15925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G39" s="24">
         <v>0</v>
       </c>
@@ -15726,7 +15942,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G40" s="24">
         <f t="shared" ref="G40:G45" si="5">G39+15</f>
         <v>15</v>
@@ -15744,7 +15960,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G41" s="24">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -15762,7 +15978,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G42" s="24">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -15780,7 +15996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G43" s="24">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -15798,7 +16014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G44" s="24">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -15816,7 +16032,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="45" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G45" s="25">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -16152,25 +16368,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
@@ -16181,7 +16397,7 @@
       </c>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>153</v>
       </c>
@@ -16196,7 +16412,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>50</v>
       </c>
@@ -16213,7 +16429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>0</v>
       </c>
@@ -16230,7 +16446,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <f t="shared" ref="A9:A14" si="0">A8+15</f>
         <v>15</v>
@@ -16248,7 +16464,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16266,7 +16482,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16284,7 +16500,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -16302,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -16320,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -16338,17 +16554,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -16412,22 +16628,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BG87"/>
   <sheetViews>
     <sheetView topLeftCell="AQ46" workbookViewId="0">
       <selection activeCell="AW59" sqref="AW59:BA68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="16" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -16435,12 +16651,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="V2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -16460,12 +16676,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -16482,7 +16698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -16493,12 +16709,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -16536,7 +16752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -16583,7 +16799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -16618,7 +16834,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ref="A11:A16" si="0">A10+15</f>
         <v>15</v>
@@ -16656,7 +16872,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16694,7 +16910,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16732,7 +16948,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -16770,7 +16986,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -16808,7 +17024,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -16846,7 +17062,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -16884,7 +17100,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -16931,7 +17147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -16966,7 +17182,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ref="A21:A26" si="3">A20+15</f>
         <v>15</v>
@@ -17004,7 +17220,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -17042,7 +17258,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -17080,7 +17296,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -17118,7 +17334,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -17156,7 +17372,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -17200,7 +17416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AE27" s="17" t="s">
         <v>109</v>
       </c>
@@ -17214,7 +17430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P28" s="8" t="s">
         <v>102</v>
       </c>
@@ -17234,7 +17450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -17287,7 +17503,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -17350,7 +17566,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -17413,7 +17629,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ref="A32:A37" si="7">A31+15</f>
         <v>15</v>
@@ -17479,7 +17695,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -17545,7 +17761,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -17611,7 +17827,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -17677,7 +17893,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -17727,7 +17943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -17795,7 +18011,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
         <v>107</v>
       </c>
@@ -17836,7 +18052,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -17931,7 +18147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -18038,7 +18254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -18136,7 +18352,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="13">A41+15</f>
         <v>15</v>
@@ -18238,7 +18454,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -18340,7 +18556,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -18442,7 +18658,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -18544,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -18646,7 +18862,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -18700,7 +18916,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="AG48" t="s">
         <v>88</v>
       </c>
@@ -18720,7 +18936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -18818,7 +19034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -18940,7 +19156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -19050,7 +19266,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ref="A52:A57" si="17">A51+15</f>
         <v>15</v>
@@ -19168,7 +19384,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -19286,7 +19502,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -19404,7 +19620,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -19522,7 +19738,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -19640,7 +19856,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -19758,8 +19974,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -19806,7 +20022,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -19875,7 +20091,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -19952,7 +20168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ref="A62:A67" si="25">A61+15</f>
         <v>15</v>
@@ -20031,7 +20247,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="25"/>
         <v>30</v>
@@ -20113,7 +20329,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="25"/>
         <v>45</v>
@@ -20195,7 +20411,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="25"/>
         <v>60</v>
@@ -20277,7 +20493,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="25"/>
         <v>75</v>
@@ -20359,7 +20575,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="25"/>
         <v>90</v>
@@ -20441,7 +20657,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AQ68">
         <f t="shared" si="27"/>
         <v>90</v>
@@ -20491,7 +20707,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -20505,7 +20721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -20528,7 +20744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -20557,7 +20773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" ref="A72:A77" si="30">A71+15</f>
         <v>15</v>
@@ -20590,7 +20806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="30"/>
         <v>30</v>
@@ -20623,7 +20839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="30"/>
         <v>45</v>
@@ -20657,7 +20873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="30"/>
         <v>60</v>
@@ -20691,7 +20907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="30"/>
         <v>75</v>
@@ -20725,7 +20941,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="30"/>
         <v>90</v>
@@ -20759,7 +20975,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AW78">
         <f t="shared" si="31"/>
         <v>75</v>
@@ -20777,7 +20993,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -20807,7 +21023,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -20824,7 +21040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -20844,7 +21060,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ref="A82:A87" si="32">A81+15</f>
         <v>15</v>
@@ -20862,7 +21078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="32"/>
         <v>30</v>
@@ -20880,7 +21096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="32"/>
         <v>45</v>
@@ -20898,7 +21114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="32"/>
         <v>60</v>
@@ -20916,7 +21132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="32"/>
         <v>75</v>
@@ -20934,7 +21150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="32"/>
         <v>90</v>
@@ -21895,21 +22111,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B5:AJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11:R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AG5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>168</v>
       </c>
@@ -21929,7 +22145,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -21949,7 +22165,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
@@ -22006,7 +22222,7 @@
       </c>
       <c r="AJ8" s="20"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>109</v>
       </c>
@@ -22087,7 +22303,7 @@
       </c>
       <c r="AJ9" s="23"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
@@ -22180,7 +22396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="24">
         <v>0</v>
       </c>
@@ -22273,7 +22489,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="24">
         <f t="shared" ref="B12:B17" si="0">B11+15</f>
         <v>15</v>
@@ -22372,7 +22588,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -22471,7 +22687,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -22570,7 +22786,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -22669,7 +22885,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -22768,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="25">
         <f t="shared" si="0"/>
         <v>90</v>

--- a/AMPS2019/EXTENDED/comparisons.xlsx
+++ b/AMPS2019/EXTENDED/comparisons.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275629F-E79A-4F2C-BD91-D22E36477523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="FE" sheetId="4" r:id="rId1"/>
@@ -19,9 +18,10 @@
     <sheet name="limiares-case3" sheetId="11" r:id="rId9"/>
     <sheet name="conferencias" sheetId="12" r:id="rId10"/>
     <sheet name="FE-causas" sheetId="13" r:id="rId11"/>
-    <sheet name="conclusoes" sheetId="8" r:id="rId12"/>
+    <sheet name="FE-final" sheetId="14" r:id="rId12"/>
+    <sheet name="conclusoes" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="269">
   <si>
     <t>FE_std_HE</t>
   </si>
@@ -709,27 +709,160 @@
   </si>
   <si>
     <t>FE mean [Hz/Hz]</t>
+  </si>
+  <si>
+    <t>vantagem grande: independëncia do nivel de ruido para a correcao</t>
+  </si>
+  <si>
+    <t>reduzir as dimensoes da tabela</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>tau=0,5T</t>
+  </si>
+  <si>
+    <t>snr 60</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean </t>
+  </si>
+  <si>
+    <t>snr60</t>
+  </si>
+  <si>
+    <t>snr50</t>
+  </si>
+  <si>
+    <t>snr40</t>
+  </si>
+  <si>
+    <t>lista de assuntos a validar:</t>
+  </si>
+  <si>
+    <t>reorganização dos capítulos</t>
+  </si>
+  <si>
+    <t>cap 5 - localização de saltos</t>
+  </si>
+  <si>
+    <t>cap 6 - estimação de frequência</t>
+  </si>
+  <si>
+    <t>eliminei afundamentos dos modelos</t>
+  </si>
+  <si>
+    <t>salto de freq: o gerador incorpora o deslocamento de fase proporcional a \tau, que não estava descrito no modelo</t>
+  </si>
+  <si>
+    <t>com isso, as simulações não precisaram ser refeitas</t>
+  </si>
+  <si>
+    <t>simulações</t>
+  </si>
+  <si>
+    <t>salto de fase e  magnitude: refiz uma parte, pois os níveis de incerteza só são atingidos com \tau e phi0 fixos.</t>
+  </si>
+  <si>
+    <t>ainda assim há vantagens no uso do PATV</t>
+  </si>
+  <si>
+    <t>salto de freq: selecionar somente alguns estimadores que façam sentido</t>
+  </si>
+  <si>
+    <t>desempenho de fr</t>
+  </si>
+  <si>
+    <t>desempenho de hf, para verificar a qualidade do sinal</t>
+  </si>
+  <si>
+    <t>"discriminação" não é um bom termo, mas queremos evitar o diagnóstico falso da fonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorganizei seções, </t>
+  </si>
+  <si>
+    <t>principalmente a redução na dependência do nível de ruído</t>
+  </si>
+  <si>
+    <t>o erro médio não varia com o ruído</t>
+  </si>
+  <si>
+    <t>a incerteza varia com o ruído, mas é muito menor do que sem o PATV</t>
+  </si>
+  <si>
+    <t>a incerteza não varia com phi0, e pouco com \tau</t>
+  </si>
+  <si>
+    <t>o pior caso é tau=0,5</t>
+  </si>
+  <si>
+    <t>o erro médio varia ligeiramente com phi0</t>
+  </si>
+  <si>
+    <t>conhecendo-se \tau é possível reduzir o erro médio em uma ordem de grandeza, para a casa de 300uHz/Hz</t>
+  </si>
+  <si>
+    <t>o erro médo depende muito de \tau</t>
+  </si>
+  <si>
+    <t>conhecendo-se \tau e \phi0, reduzimos muito o erro médio para menos de 1ppm</t>
+  </si>
+  <si>
+    <t>em todos os casos, a incerteza fica na faixa indicada</t>
+  </si>
+  <si>
+    <t>simulando para f1 = 60.1 altera??</t>
+  </si>
+  <si>
+    <t>não altera nadinha</t>
+  </si>
+  <si>
+    <t>erro médio corrigido</t>
+  </si>
+  <si>
+    <t>tau = 0,5</t>
+  </si>
+  <si>
+    <t>fator de correção:</t>
+  </si>
+  <si>
+    <t>aplicando-se um fator de correção médio independente da fase inicial</t>
+  </si>
+  <si>
+    <t>aplicando-se um fator de correção específico para cada fase inicial</t>
+  </si>
+  <si>
+    <t>correção</t>
+  </si>
+  <si>
+    <t>tau=0,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0"/>
-    <numFmt numFmtId="174" formatCode="0.00000000"/>
-    <numFmt numFmtId="175" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="15">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="174" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -904,28 +1037,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -946,18 +1079,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,7 +1114,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1017,7 +1153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1126,7 +1262,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EEA-4B85-927C-A7AEAD4C23BC}"/>
             </c:ext>
@@ -1140,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157885632"/>
-        <c:axId val="158079248"/>
+        <c:axId val="139759112"/>
+        <c:axId val="188934272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157885632"/>
+        <c:axId val="139759112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,15 +1334,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158079248"/>
+        <c:crossAx val="188934272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158079248"/>
+        <c:axId val="188934272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,10 +1396,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157885632"/>
+        <c:crossAx val="139759112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1301,7 +1437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1313,7 +1449,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1352,7 +1488,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1461,7 +1597,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-559D-4750-AAF7-10F1CE6B8113}"/>
             </c:ext>
@@ -1475,11 +1611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158053144"/>
-        <c:axId val="158044944"/>
+        <c:axId val="236531224"/>
+        <c:axId val="236528344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158053144"/>
+        <c:axId val="236531224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,15 +1669,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158044944"/>
+        <c:crossAx val="236528344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158044944"/>
+        <c:axId val="236528344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,10 +1731,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158053144"/>
+        <c:crossAx val="236531224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1636,7 +1772,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1648,7 +1784,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1668,29 +1804,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
               <a:t>Erro sistemático de frequência</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>SNR = 60dB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1699,8 +1827,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15101039535412406"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.21280191243868934"/>
+          <c:y val="3.2407407407407406E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1716,19 +1844,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1753,7 +1881,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1761,15 +1889,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1835,7 +1965,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D76F-4587-89E0-408A8D47B09A}"/>
             </c:ext>
@@ -1849,11 +1979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159156968"/>
-        <c:axId val="157378016"/>
+        <c:axId val="236835144"/>
+        <c:axId val="236081696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159156968"/>
+        <c:axId val="236835144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,6 +2003,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1880,7 +2024,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1894,16 +2038,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Fase inicial (graus)</a:t>
+                  <a:t>Fase inicial (graus) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1917,7 +2057,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1929,7 +2069,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1939,14 +2079,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1967,15 +2101,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157378016"/>
+        <c:crossAx val="236081696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157378016"/>
+        <c:axId val="236081696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,6 +2129,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2002,7 +2150,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2021,6 +2169,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2034,7 +2183,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2046,7 +2195,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2056,14 +2205,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2084,10 +2227,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159156968"/>
+        <c:crossAx val="236835144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2125,7 +2268,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3289,7 +3432,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3300,7 +3443,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3316,21 +3459,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3346,7 +3492,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3366,22 +3512,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3390,37 +3531,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3430,22 +3583,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3475,15 +3632,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3493,7 +3648,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3502,14 +3657,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3518,17 +3672,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3537,14 +3691,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3556,21 +3710,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3589,7 +3737,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3608,17 +3756,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3627,17 +3775,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3658,7 +3805,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3666,7 +3813,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3679,6 +3826,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3686,10 +3844,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3704,17 +3862,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3722,11 +3880,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3747,20 +3908,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3774,32 +3934,15 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3824,7 +3967,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +4003,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,7 +4044,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3962,7 +4105,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,7 +4171,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4089,7 +4232,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4140,22 +4283,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>72940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>408320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,7 +4322,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4217,7 +4360,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4252,23 +4395,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4304,26 +4430,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4496,41 +4605,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -4544,7 +4653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -4576,7 +4685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4612,7 +4721,7 @@
         <v>4.6525502333783298E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -4648,7 +4757,7 @@
         <v>0.131483936121503</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4662,7 +4771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -4694,7 +4803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -4730,7 +4839,7 @@
         <v>1.2548237159175499</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -4766,7 +4875,7 @@
         <v>0.26649080307221995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -4780,7 +4889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -4812,7 +4921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -4848,7 +4957,7 @@
         <v>1.1684859453060001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -4890,16 +4999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -4907,17 +5016,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
@@ -4934,7 +5043,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>112</v>
       </c>
@@ -4962,7 +5071,7 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>50</v>
       </c>
@@ -4994,7 +5103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="44">
         <v>0</v>
       </c>
@@ -5026,7 +5135,7 @@
         <v>-9.0047810440393201E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="44">
         <f t="shared" ref="B9:B14" si="0">B8+15</f>
         <v>15</v>
@@ -5060,7 +5169,7 @@
         <v>-1.28583069358799E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5094,7 +5203,7 @@
         <v>-6.0443574012536796E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="44">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5128,7 +5237,7 @@
         <v>2.2951149939877801E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5162,7 +5271,7 @@
         <v>7.0433462225768999E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="44">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5196,7 +5305,7 @@
         <v>7.7229339081436102E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="44">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -5230,7 +5339,7 @@
         <v>9.7422359752608796E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>178</v>
       </c>
@@ -5247,7 +5356,7 @@
         <v>1.06043719754242E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>179</v>
       </c>
@@ -5267,7 +5376,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -5275,17 +5384,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
@@ -5296,7 +5405,7 @@
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>153</v>
       </c>
@@ -5311,7 +5420,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>50</v>
       </c>
@@ -5328,7 +5437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="44">
         <v>0</v>
       </c>
@@ -5345,7 +5454,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="44">
         <f t="shared" ref="B26:B31" si="2">B25+15</f>
         <v>15</v>
@@ -5363,7 +5472,7 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="44">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -5381,7 +5490,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="44">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5399,7 +5508,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="44">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -5417,7 +5526,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="44">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -5435,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="44">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5453,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -5470,7 +5579,7 @@
         <v>3.42703746649336E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -5487,7 +5596,7 @@
         <v>2.67423915581877E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -5495,17 +5604,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
@@ -5516,7 +5625,7 @@
       </c>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
         <v>109</v>
       </c>
@@ -5531,7 +5640,7 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="44" t="s">
         <v>50</v>
       </c>
@@ -5548,7 +5657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="44">
         <v>0</v>
       </c>
@@ -5565,7 +5674,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="44">
         <f t="shared" ref="B43:B48" si="3">B42+15</f>
         <v>15</v>
@@ -5583,7 +5692,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="44">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5601,7 +5710,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="44">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5619,7 +5728,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="44">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -5637,7 +5746,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="44">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -5655,7 +5764,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="44">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -5673,7 +5782,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -5690,7 +5799,7 @@
         <v>3.1145117357797001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -5895,38 +6004,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>180</v>
       </c>
@@ -5934,7 +6043,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>182</v>
       </c>
@@ -5942,12 +6051,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>169</v>
       </c>
@@ -5967,7 +6076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>167</v>
       </c>
@@ -5987,7 +6096,7 @@
         <v>2.9650229597465998E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
@@ -6016,7 +6125,7 @@
         <v>-2.0600739056650039E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
         <v>153</v>
       </c>
@@ -6028,6 +6137,9 @@
         <v>2.5</v>
       </c>
       <c r="G8" s="23"/>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
       <c r="I8" s="36">
         <f>AVERAGE(D10:D16)</f>
         <v>3.1453896712518889E-3</v>
@@ -6038,8 +6150,11 @@
       <c r="P8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C9" s="24" t="s">
         <v>50</v>
       </c>
@@ -6055,6 +6170,9 @@
       <c r="G9" s="23">
         <v>30</v>
       </c>
+      <c r="H9" t="s">
+        <v>227</v>
+      </c>
       <c r="I9" t="s">
         <v>186</v>
       </c>
@@ -6071,7 +6189,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>224</v>
       </c>
@@ -6089,6 +6207,10 @@
       </c>
       <c r="G10" s="42">
         <v>2.9650229597465998E-3</v>
+      </c>
+      <c r="H10" s="46">
+        <f>AVERAGE(D10:G10)</f>
+        <v>2.9792664120516597E-3</v>
       </c>
       <c r="I10" s="37">
         <f>(D10-$I$8)*1000000</f>
@@ -6115,7 +6237,7 @@
       </c>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C11" s="22">
         <f t="shared" ref="C11:C16" si="1">C10+15</f>
         <v>15</v>
@@ -6132,19 +6254,23 @@
       <c r="G11" s="42">
         <v>2.9573867417583399E-3</v>
       </c>
+      <c r="H11" s="46">
+        <f t="shared" ref="H11:H16" si="2">AVERAGE(D11:G11)</f>
+        <v>2.9637433476751248E-3</v>
+      </c>
       <c r="I11" s="37">
-        <f t="shared" ref="I11:I16" si="2">(D11-$I$8)*1000000</f>
+        <f t="shared" ref="I11:I16" si="3">(D11-$I$8)*1000000</f>
         <v>-181.11861066681885</v>
       </c>
       <c r="N11" s="22">
-        <f t="shared" ref="N11:N16" si="3">N10+15</f>
+        <f t="shared" ref="N11:N16" si="4">N10+15</f>
         <v>15</v>
       </c>
       <c r="O11">
         <v>14.02</v>
       </c>
       <c r="P11" s="38">
-        <f t="shared" ref="P11:P16" si="4">D11</f>
+        <f t="shared" ref="P11:P16" si="5">D11</f>
         <v>2.96427106058507E-3</v>
       </c>
       <c r="Q11" s="1">
@@ -6157,7 +6283,7 @@
         <v>2.9638168336147399E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6174,19 +6300,23 @@
       <c r="G12" s="42">
         <v>2.9623773286500199E-3</v>
       </c>
+      <c r="H12" s="46">
+        <f t="shared" si="2"/>
+        <v>2.9659040193428373E-3</v>
+      </c>
       <c r="I12" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-179.4920605514591</v>
       </c>
       <c r="N12" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="O12">
         <v>29.05</v>
       </c>
       <c r="P12" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9658976107004298E-3</v>
       </c>
       <c r="Q12" s="1">
@@ -6199,7 +6329,7 @@
         <v>2.9657720866899601E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C13" s="22">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -6216,12 +6346,16 @@
       <c r="G13" s="42">
         <v>3.0565053562884299E-3</v>
       </c>
+      <c r="H13" s="46">
+        <f t="shared" si="2"/>
+        <v>3.059330172366868E-3</v>
+      </c>
       <c r="I13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-85.469853958408663</v>
       </c>
       <c r="N13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="O13">
@@ -6241,7 +6375,7 @@
         <v>3.0600385200630301E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C14" s="22">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -6258,19 +6392,23 @@
       <c r="G14" s="42">
         <v>3.23046504489914E-3</v>
       </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>3.2351769885395798E-3</v>
+      </c>
       <c r="I14" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87.490055531800905</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="O14">
         <v>58.96</v>
       </c>
       <c r="P14" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2328797267836898E-3</v>
       </c>
       <c r="Q14" s="1">
@@ -6283,7 +6421,7 @@
         <v>3.2321583393280298E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C15" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6300,19 +6438,23 @@
       <c r="G15" s="42">
         <v>3.3773683272386099E-3</v>
       </c>
+      <c r="H15" s="46">
+        <f t="shared" si="2"/>
+        <v>3.3839239308534751E-3</v>
+      </c>
       <c r="I15" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>239.326579576901</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="O15">
         <v>73.92</v>
       </c>
       <c r="P15" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3847162508287899E-3</v>
       </c>
       <c r="Q15" s="1">
@@ -6325,7 +6467,7 @@
         <v>3.3844463417750598E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C16" s="22">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6342,19 +6484,23 @@
       <c r="G16" s="42">
         <v>3.4252148969755401E-3</v>
       </c>
+      <c r="H16" s="46">
+        <f t="shared" si="2"/>
+        <v>3.4266586236534548E-3</v>
+      </c>
       <c r="I16" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>281.30860077698117</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="O16">
         <v>88.92</v>
       </c>
       <c r="P16" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4266982720288701E-3</v>
       </c>
       <c r="Q16" s="1">
@@ -6367,20 +6513,22 @@
         <v>3.4254717832023799E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="O18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>179</v>
       </c>
@@ -6397,12 +6545,15 @@
         <v>2.67423915581877E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -6420,7 +6571,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
         <v>178</v>
       </c>
@@ -6447,7 +6598,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
         <v>50</v>
       </c>
@@ -6483,7 +6634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="22">
         <v>0</v>
       </c>
@@ -6520,9 +6671,9 @@
         <v>2.7262100032928501E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" s="22">
-        <f t="shared" ref="C26:C31" si="5">C25+15</f>
+        <f t="shared" ref="C26:C31" si="6">C25+15</f>
         <v>15</v>
       </c>
       <c r="D26" s="31">
@@ -6539,7 +6690,7 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="37">
-        <f t="shared" ref="I26:I31" si="6">(D26-$I$23)*1000000</f>
+        <f t="shared" ref="I26:I31" si="7">(D26-$I$23)*1000000</f>
         <v>-246.47759900206577</v>
       </c>
       <c r="J26" s="22"/>
@@ -6558,9 +6709,9 @@
         <v>2.7853895323649299E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D27" s="22">
@@ -6577,7 +6728,7 @@
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-148.8530815794318</v>
       </c>
       <c r="J27" s="22"/>
@@ -6596,9 +6747,9 @@
         <v>2.9140145609989201E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D28" s="22">
@@ -6615,7 +6766,7 @@
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-49.340582011569836</v>
       </c>
       <c r="J28" s="22"/>
@@ -6634,9 +6785,9 @@
         <v>2.9981620317316601E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D29" s="22">
@@ -6653,7 +6804,7 @@
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.489990337514286</v>
       </c>
       <c r="J29" s="22"/>
@@ -6672,9 +6823,9 @@
         <v>2.7707770507088501E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="D30" s="22">
@@ -6691,7 +6842,7 @@
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>290.17365239437413</v>
       </c>
       <c r="J30" s="22"/>
@@ -6710,9 +6861,9 @@
         <v>2.7441623297476598E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D31" s="22">
@@ -6729,7 +6880,7 @@
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>368.46698373391422</v>
       </c>
       <c r="J31" s="22"/>
@@ -6748,7 +6899,7 @@
         <v>2.66693322008705E-4</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -6770,7 +6921,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" s="22" t="s">
         <v>178</v>
       </c>
@@ -6797,7 +6948,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
@@ -6833,7 +6984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" s="22">
         <v>0</v>
       </c>
@@ -6870,9 +7021,9 @@
         <v>3.2120335358209399E-4</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" s="22">
-        <f t="shared" ref="C37:C42" si="7">C36+15</f>
+        <f t="shared" ref="C37:C42" si="8">C36+15</f>
         <v>15</v>
       </c>
       <c r="D37" s="31">
@@ -6889,7 +7040,7 @@
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="37">
-        <f t="shared" ref="I37:I42" si="8">(D37-$I$34)*1000000</f>
+        <f t="shared" ref="I37:I42" si="9">(D37-$I$34)*1000000</f>
         <v>-205.09672126412897</v>
       </c>
       <c r="J37" s="22"/>
@@ -6908,9 +7059,9 @@
         <v>3.2271223522967603E-4</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="D38" s="22">
@@ -6927,7 +7078,7 @@
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-18.470692331533009</v>
       </c>
       <c r="J38" s="22"/>
@@ -6946,9 +7097,9 @@
         <v>3.2149019361120602E-4</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="D39" s="22">
@@ -6965,7 +7116,7 @@
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71.20803471767401</v>
       </c>
       <c r="J39" s="22"/>
@@ -6984,9 +7135,9 @@
         <v>3.3105607405498598E-4</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D40" s="22">
@@ -7003,7 +7154,7 @@
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>138.80985074770203</v>
       </c>
       <c r="J40" s="22"/>
@@ -7022,9 +7173,9 @@
         <v>3.2292156237224198E-4</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="D41" s="22">
@@ -7041,7 +7192,7 @@
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>180.741087023614</v>
       </c>
       <c r="J41" s="22"/>
@@ -7060,9 +7211,9 @@
         <v>3.0470009310349099E-4</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="D42" s="22">
@@ -7079,7 +7230,7 @@
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>196.85569508413803</v>
       </c>
       <c r="J42" s="22"/>
@@ -7098,7 +7249,7 @@
         <v>3.0983037062014599E-4</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" s="22"/>
       <c r="D44" s="22" t="s">
         <v>88</v>
@@ -7119,7 +7270,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" s="22" t="s">
         <v>178</v>
       </c>
@@ -7145,7 +7296,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" s="22" t="s">
         <v>50</v>
       </c>
@@ -7181,7 +7332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47" s="22">
         <v>0</v>
       </c>
@@ -7218,9 +7369,9 @@
         <v>8.8291971815825196E-4</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" s="22">
-        <f t="shared" ref="C48:C53" si="9">C47+15</f>
+        <f t="shared" ref="C48:C53" si="10">C47+15</f>
         <v>15</v>
       </c>
       <c r="D48" s="31">
@@ -7237,7 +7388,7 @@
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="37">
-        <f t="shared" ref="I48:I52" si="10">(D48-$I$45)*1000000</f>
+        <f t="shared" ref="I48:I52" si="11">(D48-$I$45)*1000000</f>
         <v>-72.61735899876318</v>
       </c>
       <c r="J48" s="22"/>
@@ -7256,9 +7407,9 @@
         <v>8.3164290811685998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="D49" s="31">
@@ -7275,7 +7426,7 @@
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.3646525563654</v>
       </c>
       <c r="J49" s="22"/>
@@ -7294,9 +7445,9 @@
         <v>7.69579615921023E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C50" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="D50" s="22">
@@ -7313,7 +7464,7 @@
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100.35696017764481</v>
       </c>
       <c r="J50" s="22"/>
@@ -7332,9 +7483,9 @@
         <v>6.63856000301685E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="D51" s="22">
@@ -7351,7 +7502,7 @@
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90.352397234490795</v>
       </c>
       <c r="J51" s="22"/>
@@ -7370,9 +7521,9 @@
         <v>5.7564103994096395E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="D52" s="22">
@@ -7389,7 +7540,7 @@
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24.491843158246802</v>
       </c>
       <c r="J52" s="22"/>
@@ -7408,9 +7559,9 @@
         <v>5.3485088979735495E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="D53" s="31">
@@ -7446,12 +7597,12 @@
         <v>5.2136163441200603E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -7465,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>204</v>
       </c>
@@ -7473,7 +7624,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -7484,7 +7635,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7496,7 +7647,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1E-4</v>
       </c>
@@ -7504,11 +7655,11 @@
         <v>-7.4000000000000003E-3</v>
       </c>
       <c r="C62" s="40">
-        <f t="shared" ref="C62:C68" si="11">1000000*B62/60</f>
+        <f t="shared" ref="C62:C68" si="12">1000000*B62/60</f>
         <v>-123.33333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1E-3</v>
       </c>
@@ -7516,11 +7667,11 @@
         <v>-8.2000000000000007E-3</v>
       </c>
       <c r="C63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-136.66666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.01</v>
       </c>
@@ -7528,11 +7679,11 @@
         <v>-1.2E-2</v>
       </c>
       <c r="C64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-200</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.1</v>
       </c>
@@ -7540,14 +7691,14 @@
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="C65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-20</v>
       </c>
       <c r="E65" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.5</v>
       </c>
@@ -7555,14 +7706,14 @@
         <v>-2.3340000000000001E-4</v>
       </c>
       <c r="C66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.89</v>
       </c>
       <c r="E66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -7570,11 +7721,11 @@
         <v>3.9E-2</v>
       </c>
       <c r="C67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>650</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2.5</v>
       </c>
@@ -7582,11 +7733,11 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="C68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2983.3333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -7595,7 +7746,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -7624,7 +7775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <v>0</v>
       </c>
@@ -7657,9 +7808,9 @@
         <v>1.2625203199401001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
-        <f t="shared" ref="A75:A80" si="12">A74+15</f>
+        <f t="shared" ref="A75:A80" si="13">A74+15</f>
         <v>15</v>
       </c>
       <c r="B75" s="41">
@@ -7676,7 +7827,7 @@
       </c>
       <c r="G75" s="37"/>
       <c r="J75" s="22">
-        <f t="shared" ref="J75:J80" si="13">J74+15</f>
+        <f t="shared" ref="J75:J80" si="14">J74+15</f>
         <v>15</v>
       </c>
       <c r="K75" s="41">
@@ -7692,9 +7843,9 @@
         <v>1.26735408774957E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="B76" s="41">
@@ -7711,7 +7862,7 @@
       </c>
       <c r="G76" s="37"/>
       <c r="J76" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="K76" s="41">
@@ -7727,9 +7878,9 @@
         <v>1.44592646278795E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="B77" s="41">
@@ -7746,7 +7897,7 @@
       </c>
       <c r="G77" s="37"/>
       <c r="J77" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="K77" s="41">
@@ -7762,9 +7913,9 @@
         <v>1.4326410853651001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="B78" s="41">
@@ -7781,7 +7932,7 @@
       </c>
       <c r="G78" s="37"/>
       <c r="J78" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="K78" s="41">
@@ -7797,9 +7948,9 @@
         <v>1.53617133378922E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="B79" s="41">
@@ -7816,7 +7967,7 @@
       </c>
       <c r="G79" s="37"/>
       <c r="J79" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="K79" s="41">
@@ -7832,9 +7983,9 @@
         <v>1.62802610157884E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="B80" s="41">
@@ -7851,7 +8002,7 @@
       </c>
       <c r="G80" s="37"/>
       <c r="J80" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="K80" s="41">
@@ -7867,17 +8018,17 @@
         <v>1.61252640875811E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>218</v>
       </c>
@@ -7885,7 +8036,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>219</v>
       </c>
@@ -7893,7 +8044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>220</v>
       </c>
@@ -7902,13 +8053,13 @@
         <v>59.999940000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>222</v>
       </c>
@@ -7916,7 +8067,7 @@
         <v>-2.9046972986323001E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>223</v>
       </c>
@@ -8037,196 +8188,617 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:V38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="T4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.1807414339965699E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5995058076252401E-3</v>
+      </c>
+      <c r="D6" s="47">
+        <v>2.9833449605428902E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.6630881429884499E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8.8894828226638396E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.3281391596180699E-3</v>
+      </c>
+      <c r="D7" s="47">
+        <v>2.9658976107004298E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.9745716445062102E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.2285321676554602E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.49475150646734E-3</v>
+      </c>
+      <c r="D8" s="47">
+        <v>3.2328797267836898E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.1389405785014999E-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.0619470674900397E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.9826008106155202E-3</v>
+      </c>
+      <c r="D9" s="47">
+        <v>3.4266982720288701E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.9031836596127599E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>255</v>
+      </c>
+      <c r="T10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>258</v>
+      </c>
+      <c r="U11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="U13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5.0294710578224904E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.4894844945512704E-6</v>
+      </c>
+      <c r="D14" s="43">
+        <v>8.4888300146295494E-6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.5119951726873396E-6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>259</v>
+      </c>
+      <c r="U14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.57897790105281E-5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.0258161693184E-5</v>
+      </c>
+      <c r="D15" s="43">
+        <v>2.6671387293929301E-5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0539810756924702E-5</v>
+      </c>
+      <c r="V15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.0223440256727603E-5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.4411079332286593E-5</v>
+      </c>
+      <c r="D16" s="43">
+        <v>8.3755135990182399E-5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.5039019742775203E-5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>243</v>
+      </c>
+      <c r="V17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="U18" t="s">
+        <v>244</v>
+      </c>
+      <c r="V18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>254</v>
+      </c>
+      <c r="U20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="U24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25">
+        <v>3.1453896712518889E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>0</v>
+      </c>
+      <c r="B27" s="48">
+        <v>-1.6204471070899867E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>30</v>
+      </c>
+      <c r="B28" s="48">
+        <v>-1.7949206055145909E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>60</v>
+      </c>
+      <c r="B29" s="48">
+        <v>8.7490055531800909E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>90</v>
+      </c>
+      <c r="B30" s="48">
+        <v>2.8130860077698114E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2.9821325200916201E-3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.5775246329303105E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>2.9657720866899601E-3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-4.1132996565305901E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>3.2321583393280298E-3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.4762383977078301E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>3.4254717832023799E-3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-3.1053109581323402E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>190</v>
       </c>
@@ -8237,26 +8809,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z69"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>61</v>
       </c>
@@ -8283,7 +8855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -8315,7 +8887,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -8359,7 +8931,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8402,7 +8974,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ref="A10:A15" si="1">A9+15</f>
         <v>15</v>
@@ -8446,7 +9018,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8487,7 +9059,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8531,7 +9103,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8575,7 +9147,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -8603,7 +9175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -8628,17 +9200,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -8655,13 +9227,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ref="A20:A25" si="2">A19+15</f>
         <v>15</v>
@@ -8674,7 +9246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -8694,7 +9266,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -8707,7 +9279,7 @@
         <v>1.0699999999999999E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -8720,14 +9292,14 @@
         <v>1.2400000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -8752,7 +9324,7 @@
         <v>1.7017543859649122</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -8764,7 +9336,7 @@
         <v>266355140.1869159</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -8788,7 +9360,7 @@
         <v>2298387.0967741935</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -8797,7 +9369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29:A34" si="3">A28+15</f>
         <v>15</v>
@@ -8810,7 +9382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -8820,50 +9392,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8883,7 +9455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -8903,7 +9475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="4">A41+15</f>
         <v>15</v>
@@ -8924,7 +9496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -8945,7 +9517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -8963,7 +9535,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -8981,7 +9553,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -9002,7 +9574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -9023,12 +9595,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -9045,7 +9617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -9062,7 +9634,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ref="A53:A58" si="5">A52+15</f>
         <v>15</v>
@@ -9080,7 +9652,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -9098,7 +9670,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -9116,7 +9688,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -9134,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -9152,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -9170,12 +9742,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -9192,7 +9764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -9209,7 +9781,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ref="A64:A69" si="6">A63+15</f>
         <v>15</v>
@@ -9227,7 +9799,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -9245,7 +9817,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -9263,7 +9835,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -9281,7 +9853,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -9299,7 +9871,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -9323,46 +9895,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -9382,7 +9954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -9402,17 +9974,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -9441,7 +10013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -9470,7 +10042,7 @@
         <v>3.2802614457142702E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9499,7 +10071,7 @@
         <v>4.5071145312710101E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -9516,7 +10088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9554,7 +10126,7 @@
         <v>2.0769202567494901E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9592,12 +10164,12 @@
         <v>4.4871321568041602E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -9626,7 +10198,7 @@
         <v>9.2702022162879298E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -9655,18 +10227,18 @@
         <v>4.9477639907994698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -9695,7 +10267,7 @@
         <v>1.0209234467157E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -9724,29 +10296,29 @@
         <v>8.9328868849508105E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
       <c r="J30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -9755,7 +10327,7 @@
         <v>2.1605377722768151E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -9776,24 +10348,24 @@
         <v>-6.9987981883495171E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -9810,7 +10382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -9827,7 +10399,7 @@
         <v>-1.8357987678080999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1.3870852577291001E-5</v>
       </c>
@@ -9841,7 +10413,7 @@
         <v>4.3177118710681502E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -9861,7 +10433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>1.632029604517E-5</v>
       </c>
@@ -9878,12 +10450,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -9903,7 +10475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>1.7113734935356899E-5</v>
       </c>
@@ -9929,7 +10501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47">
         <v>10</v>
       </c>
@@ -9943,7 +10515,7 @@
         <v>1.4458157246083101E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -9973,7 +10545,7 @@
         <v>1.8148094370953901E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>1.73263306517101E-5</v>
       </c>
@@ -10000,7 +10572,7 @@
         <v>3.5223250677112199E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" ref="H50:H55" si="1">H49+15</f>
         <v>45</v>
@@ -10015,7 +10587,7 @@
         <v>4.9611771021625703E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -10045,7 +10617,7 @@
         <v>5.0677305705378397E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>2.0277905166956101E-5</v>
       </c>
@@ -10072,7 +10644,7 @@
         <v>5.7550877009226596E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -10087,7 +10659,7 @@
         <v>5.53791658750513E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -10117,7 +10689,7 @@
         <v>5.97704462378584E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>1.9175126747274499E-5</v>
       </c>
@@ -10151,16 +10723,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A12:AU76"/>
   <sheetViews>
     <sheetView topLeftCell="P19" workbookViewId="0">
       <selection activeCell="S34" sqref="S34:W43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="19:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="19:35" x14ac:dyDescent="0.25">
       <c r="U12" t="s">
         <v>88</v>
       </c>
@@ -10192,7 +10764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="19:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S13" s="17" t="s">
         <v>112</v>
       </c>
@@ -10230,7 +10802,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="19:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>50</v>
       </c>
@@ -10277,7 +10849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="19:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S15">
         <v>0</v>
       </c>
@@ -10324,7 +10896,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="19:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S16">
         <f t="shared" ref="S16:S21" si="0">S15+15</f>
         <v>15</v>
@@ -10374,7 +10946,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10424,7 +10996,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S18">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -10474,7 +11046,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S19">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -10524,7 +11096,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S20">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -10574,7 +11146,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S21">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -10624,7 +11196,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -10659,7 +11231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>112</v>
       </c>
@@ -10709,7 +11281,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -10771,7 +11343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10833,7 +11405,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:A32" si="3">A26+15</f>
         <v>15</v>
@@ -10899,7 +11471,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -10965,7 +11537,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -11031,7 +11603,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -11097,7 +11669,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -11163,7 +11735,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -11229,8 +11801,8 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>88</v>
       </c>
@@ -11296,7 +11868,7 @@
       </c>
       <c r="AU34" s="22"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>112</v>
       </c>
@@ -11400,7 +11972,7 @@
       </c>
       <c r="AU35" s="22"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -11523,7 +12095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -11646,7 +12218,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ref="A38:A43" si="7">A37+15</f>
         <v>15</v>
@@ -11777,7 +12349,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -11908,7 +12480,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -12039,7 +12611,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -12170,7 +12742,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -12301,7 +12873,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="43" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -12432,7 +13004,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
       <c r="U45" s="22" t="s">
@@ -12443,7 +13015,7 @@
       </c>
       <c r="W45" s="22"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="S46" s="28" t="s">
         <v>112</v>
       </c>
@@ -12458,7 +13030,7 @@
       </c>
       <c r="W46" s="22"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="S47" s="22" t="s">
         <v>50</v>
       </c>
@@ -12475,7 +13047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="S48" s="22">
         <v>0</v>
       </c>
@@ -12492,7 +13064,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="49" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S49" s="22">
         <f t="shared" ref="S49:S54" si="15">S48+15</f>
         <v>15</v>
@@ -12510,7 +13082,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S50" s="22">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -12528,7 +13100,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S51" s="22">
         <f t="shared" si="15"/>
         <v>45</v>
@@ -12546,7 +13118,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S52" s="22">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -12564,7 +13136,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="53" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S53" s="22">
         <f t="shared" si="15"/>
         <v>75</v>
@@ -12582,7 +13154,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="54" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S54" s="22">
         <f t="shared" si="15"/>
         <v>90</v>
@@ -12600,7 +13172,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="56" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22" t="s">
@@ -12611,7 +13183,7 @@
       </c>
       <c r="W56" s="22"/>
     </row>
-    <row r="57" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S57" s="28" t="s">
         <v>112</v>
       </c>
@@ -12626,7 +13198,7 @@
       </c>
       <c r="W57" s="22"/>
     </row>
-    <row r="58" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S58" s="22" t="s">
         <v>50</v>
       </c>
@@ -12643,7 +13215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S59" s="22">
         <v>0</v>
       </c>
@@ -12660,7 +13232,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S60" s="22">
         <f t="shared" ref="S60:S65" si="16">S59+15</f>
         <v>15</v>
@@ -12678,7 +13250,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S61" s="22">
         <f t="shared" si="16"/>
         <v>30</v>
@@ -12696,7 +13268,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S62" s="22">
         <f t="shared" si="16"/>
         <v>45</v>
@@ -12714,7 +13286,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="63" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S63" s="22">
         <f t="shared" si="16"/>
         <v>60</v>
@@ -12732,7 +13304,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="64" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S64" s="22">
         <f t="shared" si="16"/>
         <v>75</v>
@@ -12750,7 +13322,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="65" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S65" s="22">
         <f t="shared" si="16"/>
         <v>90</v>
@@ -12768,7 +13340,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="67" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
       <c r="U67" s="22" t="s">
@@ -12779,7 +13351,7 @@
       </c>
       <c r="W67" s="22"/>
     </row>
-    <row r="68" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S68" s="28" t="s">
         <v>112</v>
       </c>
@@ -12794,7 +13366,7 @@
       </c>
       <c r="W68" s="22"/>
     </row>
-    <row r="69" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S69" s="22" t="s">
         <v>50</v>
       </c>
@@ -12811,7 +13383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S70" s="22">
         <v>0</v>
       </c>
@@ -12828,7 +13400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S71" s="22">
         <f t="shared" ref="S71:S76" si="17">S70+15</f>
         <v>15</v>
@@ -12846,7 +13418,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S72" s="22">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -12864,7 +13436,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S73" s="22">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -12882,7 +13454,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="74" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S74" s="22">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -12900,7 +13472,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="75" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S75" s="22">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -12918,7 +13490,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="76" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="19:23" x14ac:dyDescent="0.25">
       <c r="S76" s="22">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -13774,36 +14346,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
@@ -13811,7 +14383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>89</v>
       </c>
@@ -13819,27 +14391,27 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>122</v>
       </c>
@@ -13850,7 +14422,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -13859,7 +14431,7 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -13868,7 +14440,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -13877,7 +14449,7 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -13886,7 +14458,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -13895,12 +14467,12 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>123</v>
       </c>
@@ -13908,7 +14480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>124</v>
       </c>
@@ -13916,13 +14488,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
@@ -13933,7 +14505,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>112</v>
       </c>
@@ -13948,7 +14520,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>50</v>
       </c>
@@ -13965,7 +14537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="24">
         <v>0</v>
       </c>
@@ -13982,7 +14554,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="24">
         <f t="shared" ref="B33:B38" si="0">B32+15</f>
         <v>15</v>
@@ -14000,7 +14572,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14018,7 +14590,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -14036,7 +14608,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -14054,7 +14626,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -14072,7 +14644,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -14090,7 +14662,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>128</v>
       </c>
@@ -14098,13 +14670,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19" t="s">
@@ -14115,7 +14687,7 @@
       </c>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
         <v>112</v>
       </c>
@@ -14130,7 +14702,7 @@
       </c>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>50</v>
       </c>
@@ -14147,7 +14719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="24">
         <v>0</v>
       </c>
@@ -14164,7 +14736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="24">
         <f t="shared" ref="B47:B52" si="1">B46+15</f>
         <v>15</v>
@@ -14182,7 +14754,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -14200,7 +14772,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="24">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -14218,7 +14790,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -14236,7 +14808,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="24">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -14254,7 +14826,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="25">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -14272,7 +14844,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>129</v>
       </c>
@@ -14286,7 +14858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -14300,12 +14872,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
@@ -14334,7 +14906,7 @@
       </c>
       <c r="R58" s="20"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
         <v>112</v>
       </c>
@@ -14375,7 +14947,7 @@
       </c>
       <c r="R59" s="23"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
         <v>50</v>
       </c>
@@ -14422,7 +14994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="24">
         <v>0</v>
       </c>
@@ -14469,7 +15041,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <f t="shared" ref="B62:B67" si="2">B61+15</f>
         <v>15</v>
@@ -14519,7 +15091,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -14569,7 +15141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -14619,7 +15191,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -14669,7 +15241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -14719,7 +15291,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="67" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="25">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -15066,17 +15638,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -15090,7 +15662,7 @@
       </c>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G3" s="21" t="s">
         <v>153</v>
       </c>
@@ -15105,7 +15677,7 @@
       </c>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
@@ -15122,7 +15694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G5" s="24">
         <v>0</v>
       </c>
@@ -15139,7 +15711,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G6" s="24">
         <f t="shared" ref="G6:G11" si="0">G5+15</f>
         <v>15</v>
@@ -15157,7 +15729,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15175,7 +15747,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -15193,7 +15765,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -15211,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -15229,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -15247,8 +15819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
@@ -15277,7 +15849,7 @@
       </c>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>153</v>
       </c>
@@ -15318,7 +15890,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>50</v>
       </c>
@@ -15365,7 +15937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>0</v>
       </c>
@@ -15412,7 +15984,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f t="shared" ref="A18:A23" si="1">A17+15</f>
         <v>15</v>
@@ -15462,7 +16034,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -15512,7 +16084,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -15562,7 +16134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -15612,7 +16184,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -15662,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -15712,8 +16284,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19" t="s">
@@ -15724,7 +16296,7 @@
       </c>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G26" s="21" t="s">
         <v>153</v>
       </c>
@@ -15739,7 +16311,7 @@
       </c>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G27" s="24" t="s">
         <v>50</v>
       </c>
@@ -15756,7 +16328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G28" s="24">
         <v>0</v>
       </c>
@@ -15773,7 +16345,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G29" s="24">
         <f t="shared" ref="G29:G34" si="4">G28+15</f>
         <v>15</v>
@@ -15791,7 +16363,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G30" s="24">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -15809,7 +16381,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G31" s="24">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -15827,7 +16399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32" s="24">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -15845,7 +16417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" s="24">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -15863,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" s="25">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -15881,8 +16453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19" t="s">
@@ -15893,7 +16465,7 @@
       </c>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G37" s="21" t="s">
         <v>153</v>
       </c>
@@ -15908,7 +16480,7 @@
       </c>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G38" s="24" t="s">
         <v>50</v>
       </c>
@@ -15925,7 +16497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G39" s="24">
         <v>0</v>
       </c>
@@ -15942,7 +16514,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="40" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G40" s="24">
         <f t="shared" ref="G40:G45" si="5">G39+15</f>
         <v>15</v>
@@ -15960,7 +16532,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="41" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G41" s="24">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -15978,7 +16550,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="42" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G42" s="24">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -15996,7 +16568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G43" s="24">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -16014,7 +16586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G44" s="24">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -16032,7 +16604,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="45" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G45" s="25">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -16368,25 +16940,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
@@ -16397,7 +16969,7 @@
       </c>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>153</v>
       </c>
@@ -16412,7 +16984,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>50</v>
       </c>
@@ -16429,7 +17001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>0</v>
       </c>
@@ -16446,7 +17018,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <f t="shared" ref="A9:A14" si="0">A8+15</f>
         <v>15</v>
@@ -16464,7 +17036,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16482,7 +17054,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16500,7 +17072,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -16518,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -16536,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -16554,17 +17126,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -16628,22 +17200,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG87"/>
   <sheetViews>
     <sheetView topLeftCell="AQ46" workbookViewId="0">
       <selection activeCell="AW59" sqref="AW59:BA68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="16" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="16" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -16651,12 +17223,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -16676,12 +17248,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -16698,7 +17270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -16709,12 +17281,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -16752,7 +17324,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -16799,7 +17371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -16834,7 +17406,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A16" si="0">A10+15</f>
         <v>15</v>
@@ -16872,7 +17444,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16910,7 +17482,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -16948,7 +17520,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -16986,7 +17558,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -17024,7 +17596,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -17062,7 +17634,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -17100,7 +17672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -17147,7 +17719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -17182,7 +17754,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21:A26" si="3">A20+15</f>
         <v>15</v>
@@ -17220,7 +17792,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -17258,7 +17830,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -17296,7 +17868,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -17334,7 +17906,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -17372,7 +17944,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -17416,7 +17988,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE27" s="17" t="s">
         <v>109</v>
       </c>
@@ -17430,7 +18002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P28" s="8" t="s">
         <v>102</v>
       </c>
@@ -17450,7 +18022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -17503,7 +18075,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -17566,7 +18138,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -17629,7 +18201,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ref="A32:A37" si="7">A31+15</f>
         <v>15</v>
@@ -17695,7 +18267,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -17761,7 +18333,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -17827,7 +18399,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -17893,7 +18465,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -17943,7 +18515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -18011,7 +18583,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>107</v>
       </c>
@@ -18052,7 +18624,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -18147,7 +18719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -18254,7 +18826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -18352,7 +18924,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ref="A42:A47" si="13">A41+15</f>
         <v>15</v>
@@ -18454,7 +19026,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -18556,7 +19128,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -18658,7 +19230,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>60</v>
@@ -18760,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>75</v>
@@ -18862,7 +19434,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -18916,7 +19488,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AG48" t="s">
         <v>88</v>
       </c>
@@ -18936,7 +19508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -19034,7 +19606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -19156,7 +19728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -19266,7 +19838,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ref="A52:A57" si="17">A51+15</f>
         <v>15</v>
@@ -19384,7 +19956,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -19502,7 +20074,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="17"/>
         <v>45</v>
@@ -19620,7 +20192,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -19738,7 +20310,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -19856,7 +20428,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -19974,8 +20546,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -20022,7 +20594,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -20091,7 +20663,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -20168,7 +20740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ref="A62:A67" si="25">A61+15</f>
         <v>15</v>
@@ -20247,7 +20819,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="25"/>
         <v>30</v>
@@ -20329,7 +20901,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="25"/>
         <v>45</v>
@@ -20411,7 +20983,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="25"/>
         <v>60</v>
@@ -20493,7 +21065,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="25"/>
         <v>75</v>
@@ -20575,7 +21147,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="25"/>
         <v>90</v>
@@ -20657,7 +21229,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AQ68">
         <f t="shared" si="27"/>
         <v>90</v>
@@ -20707,7 +21279,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -20721,7 +21293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -20744,7 +21316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -20773,7 +21345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ref="A72:A77" si="30">A71+15</f>
         <v>15</v>
@@ -20806,7 +21378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="30"/>
         <v>30</v>
@@ -20839,7 +21411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="30"/>
         <v>45</v>
@@ -20873,7 +21445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="30"/>
         <v>60</v>
@@ -20907,7 +21479,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="30"/>
         <v>75</v>
@@ -20941,7 +21513,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="30"/>
         <v>90</v>
@@ -20975,7 +21547,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW78">
         <f t="shared" si="31"/>
         <v>75</v>
@@ -20993,7 +21565,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -21023,7 +21595,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -21040,7 +21612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -21060,7 +21632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ref="A82:A87" si="32">A81+15</f>
         <v>15</v>
@@ -21078,7 +21650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="32"/>
         <v>30</v>
@@ -21096,7 +21668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="32"/>
         <v>45</v>
@@ -21114,7 +21686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="32"/>
         <v>60</v>
@@ -21132,7 +21704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="32"/>
         <v>75</v>
@@ -21150,7 +21722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="32"/>
         <v>90</v>
@@ -22111,21 +22683,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AJ17"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11:R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="AG5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>168</v>
       </c>
@@ -22145,7 +22717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -22165,7 +22737,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
@@ -22222,7 +22794,7 @@
       </c>
       <c r="AJ8" s="20"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>109</v>
       </c>
@@ -22303,7 +22875,7 @@
       </c>
       <c r="AJ9" s="23"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
@@ -22396,7 +22968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="24">
         <v>0</v>
       </c>
@@ -22489,7 +23061,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <f t="shared" ref="B12:B17" si="0">B11+15</f>
         <v>15</v>
@@ -22588,7 +23160,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -22687,7 +23259,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -22786,7 +23358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -22885,7 +23457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -22984,7 +23556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <f t="shared" si="0"/>
         <v>90</v>
